--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_280.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_280.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32987-d79607-Reviews-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Fairfield-Inn-Suites-Los-Angeles-Rosemead.h8951.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_280.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_280.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1110 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r563784843-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>32987</t>
+  </si>
+  <si>
+    <t>79607</t>
+  </si>
+  <si>
+    <t>563784843</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Nicely maintained hotel at great location</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights in January , great location near access to freeway , also close to a shopping mall . A Costco was within a mile away .  We were very pleased with overall facilities and would for sure stay here again in our next visit into LA area.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r561353976-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>561353976</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel Near Universal Studios And Staples Center</t>
+  </si>
+  <si>
+    <t>Went to LA with family to visit both Universal Studios and Staples Center...this hotel is around a 20 minute drive to/from each of these places which was convenient and cost effective for us. It has free parking and free breakfast. There is also a mall that is a close walking distance. Saw a McDonald’s, Jack In The Box, and Olive Garden close by as well. Definitely would stay here again!</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r553454616-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>553454616</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>Great hotel, would stay here again</t>
+  </si>
+  <si>
+    <t>This review is long over due, but I just had to leave a review for a great hotel. This hotel is located on the corner and pretty easy to find. We were warmly greeted upon entering the hotel. The area and the room was pretty clean.I would definitely recommend staying here, great customer service, free parking, and free breakfast is a plus and hard to find in the LA area. Breakfast consisted of sausage,bacon, waffles, juice bar, coffee bar, eggs, toast, oatmeal, cereal, and fruit.This place is about 10-15 minutes away from downtown LA and there is a Mcdonald's and a shopping mall across the street. We enjoyed our stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Fairfield Inn S, Front Office Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded January 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2018</t>
+  </si>
+  <si>
+    <t>This review is long over due, but I just had to leave a review for a great hotel. This hotel is located on the corner and pretty easy to find. We were warmly greeted upon entering the hotel. The area and the room was pretty clean.I would definitely recommend staying here, great customer service, free parking, and free breakfast is a plus and hard to find in the LA area. Breakfast consisted of sausage,bacon, waffles, juice bar, coffee bar, eggs, toast, oatmeal, cereal, and fruit.This place is about 10-15 minutes away from downtown LA and there is a Mcdonald's and a shopping mall across the street. We enjoyed our stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r538830213-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>538830213</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Great place to relax or work</t>
+  </si>
+  <si>
+    <t>Front desk staff were very friendly. Breakfast was on point every morning. Nice workout room and pool. Room was overy spacious (King suite), but has a desk to work from. Bathroom was large and nicely done.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r528380457-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>528380457</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel, friendly staff</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay, the room was clean and comfortable.  Nice large shower.  The included breakfast was adequate, staff made sure it was stocked.  Staff was very pleasant.  Limited dining selection near the hotel, though Lucille's BBQ was a nice surprise.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r526521789-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>526521789</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the better hotels for this area </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed nearly 30 nights at this property and this is a nice and clean hotel. The staff are friendly and the breakfast is very good. The property is fairly new and it is well maintained. The GM is nice and I feel welcomed at this hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r504764995-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>504764995</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>My daughter and I spent one night here on our way to San Diego for a softball tournament. We used my husbands points for our stay. Conveniently located next to the Pomona freeway and only about 15 minutes to downtown LA.We enjoyed our stay. Comfortable beds, great shower pressure, good breakfast. Would stay here again... my only issue( and really minor) was that the free WIFI wasn't the best, but worked for what we needed it for...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>FFISCareStaff, Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>My daughter and I spent one night here on our way to San Diego for a softball tournament. We used my husbands points for our stay. Conveniently located next to the Pomona freeway and only about 15 minutes to downtown LA.We enjoyed our stay. Comfortable beds, great shower pressure, good breakfast. Would stay here again... my only issue( and really minor) was that the free WIFI wasn't the best, but worked for what we needed it for...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r504349030-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>504349030</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel just off the freeway</t>
+  </si>
+  <si>
+    <t>Good location! Close to Dodger Stadium, and easy access on/off the freeway. Fast food across the street, and nice outdoor pool. No noise from the freeway. Good people and free breakfast, free parking. The room was nice and seemed fairly new, especially the bathroom. MoreShow less</t>
+  </si>
+  <si>
+    <t>FFISCareStaff, Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Good location! Close to Dodger Stadium, and easy access on/off the freeway. Fast food across the street, and nice outdoor pool. No noise from the freeway. Good people and free breakfast, free parking. The room was nice and seemed fairly new, especially the bathroom. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r503628895-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>503628895</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>AMAZING FIRST VISIT IN LOS ANGELES</t>
+  </si>
+  <si>
+    <t>Me and my best friend booked ourselves a weekend in LA for the very first time ever. I have been dreaming to go there since a boy. We got welcomed to the hotel by RENE and a new front desk agent which I could not remember her name besides, blond hair, nice smile and glasses. We wanted to pay in advance so we take a smaller deposit on our credit card but he informed us of the policy of this hotel and he couldn't do it, perhaps he made the wonderful exception of helping us out and dividing it both for us. I really appreciated his help in this situation. He then helped us with some questions we had for our trip. 
+Our first day out, we passed by the front desk and got ALEX , which is an amazing employee. He is so wonderful. We asked for directions to places we wanted to go see in Hollywood and some restaurants to go to. He printed everything out and directed us with information. Simply the best. 
+Our second morning, we got Alex again to help us go to Downtown LA, he was , again, wonderful.
+We loved our stay there. There are no words to describe how wonderful the employees at this property are. I worked in a Courtyard for about 3 years in Montreal, and this is by far the best Marriott i've been to. The customer service is...Me and my best friend booked ourselves a weekend in LA for the very first time ever. I have been dreaming to go there since a boy. We got welcomed to the hotel by RENE and a new front desk agent which I could not remember her name besides, blond hair, nice smile and glasses. We wanted to pay in advance so we take a smaller deposit on our credit card but he informed us of the policy of this hotel and he couldn't do it, perhaps he made the wonderful exception of helping us out and dividing it both for us. I really appreciated his help in this situation. He then helped us with some questions we had for our trip. Our first day out, we passed by the front desk and got ALEX , which is an amazing employee. He is so wonderful. We asked for directions to places we wanted to go see in Hollywood and some restaurants to go to. He printed everything out and directed us with information. Simply the best. Our second morning, we got Alex again to help us go to Downtown LA, he was , again, wonderful.We loved our stay there. There are no words to describe how wonderful the employees at this property are. I worked in a Courtyard for about 3 years in Montreal, and this is by far the best Marriott i've been to. The customer service is on point, always a smile and always a greeting coming in. It is those little details that make a guests stay special and for my best friends first ever trip out of canada found it amazing. ALL THE FRONT DESK need a SHOUT OUT for their amazing customer service !!!! We are coming back at the end of August and will probably come back to this property if price permitting.Thank you all for everything you have done to make us feel like home! see you soon!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Me and my best friend booked ourselves a weekend in LA for the very first time ever. I have been dreaming to go there since a boy. We got welcomed to the hotel by RENE and a new front desk agent which I could not remember her name besides, blond hair, nice smile and glasses. We wanted to pay in advance so we take a smaller deposit on our credit card but he informed us of the policy of this hotel and he couldn't do it, perhaps he made the wonderful exception of helping us out and dividing it both for us. I really appreciated his help in this situation. He then helped us with some questions we had for our trip. 
+Our first day out, we passed by the front desk and got ALEX , which is an amazing employee. He is so wonderful. We asked for directions to places we wanted to go see in Hollywood and some restaurants to go to. He printed everything out and directed us with information. Simply the best. 
+Our second morning, we got Alex again to help us go to Downtown LA, he was , again, wonderful.
+We loved our stay there. There are no words to describe how wonderful the employees at this property are. I worked in a Courtyard for about 3 years in Montreal, and this is by far the best Marriott i've been to. The customer service is...Me and my best friend booked ourselves a weekend in LA for the very first time ever. I have been dreaming to go there since a boy. We got welcomed to the hotel by RENE and a new front desk agent which I could not remember her name besides, blond hair, nice smile and glasses. We wanted to pay in advance so we take a smaller deposit on our credit card but he informed us of the policy of this hotel and he couldn't do it, perhaps he made the wonderful exception of helping us out and dividing it both for us. I really appreciated his help in this situation. He then helped us with some questions we had for our trip. Our first day out, we passed by the front desk and got ALEX , which is an amazing employee. He is so wonderful. We asked for directions to places we wanted to go see in Hollywood and some restaurants to go to. He printed everything out and directed us with information. Simply the best. Our second morning, we got Alex again to help us go to Downtown LA, he was , again, wonderful.We loved our stay there. There are no words to describe how wonderful the employees at this property are. I worked in a Courtyard for about 3 years in Montreal, and this is by far the best Marriott i've been to. The customer service is on point, always a smile and always a greeting coming in. It is those little details that make a guests stay special and for my best friends first ever trip out of canada found it amazing. ALL THE FRONT DESK need a SHOUT OUT for their amazing customer service !!!! We are coming back at the end of August and will probably come back to this property if price permitting.Thank you all for everything you have done to make us feel like home! see you soon!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r479197052-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>479197052</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Located in a quiet area right off the highway and across the street from a mall and an Olive Garden. Spacious room, clean and comfortable. Ample breakfast with lots of choices. Staff were friendly and helpful.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r478702334-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>478702334</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Perfect hotel for work, nothing fancy but perfect for good sleep!</t>
+  </si>
+  <si>
+    <t>Was here for two nights. The hotel is clean and spacious. Location is decent but having a car really helps. The Good:- Room is large and bed is great like all Marriott hotels- Staff offer great service- Breakfast is good with cold and hot options- Free parking The not so good:- Only one elevator which is enough except for during busy timesOverall a very good stay.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r473933676-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>473933676</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Nearly perfect!</t>
+  </si>
+  <si>
+    <t>I'm not sure I've rated Fairfield Inns five stars before, I will have to check.  This hotel checked all the boxes for a very nice business stay for me.  Great friendly staff, nice breakfast each morning and the room was very modern, probably recently renovated.  I got a great night's sleep every night.  They even have Wall Street Journals not the Useless A Today that all other Fairfield's seem to only have.The only critique would be that the parking spaces are very tight.  Where it says "compact car" they mean it.  A full size SUV won't fit there.  I didn't have any trouble finding a parking space though.If in the area I will certainly return.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm not sure I've rated Fairfield Inns five stars before, I will have to check.  This hotel checked all the boxes for a very nice business stay for me.  Great friendly staff, nice breakfast each morning and the room was very modern, probably recently renovated.  I got a great night's sleep every night.  They even have Wall Street Journals not the Useless A Today that all other Fairfield's seem to only have.The only critique would be that the parking spaces are very tight.  Where it says "compact car" they mean it.  A full size SUV won't fit there.  I didn't have any trouble finding a parking space though.If in the area I will certainly return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r437973435-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>437973435</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Almost perfect, yet really close to perfect</t>
+  </si>
+  <si>
+    <t>The hotel is relatively new and shows no wear. Extended beyond continental breakfast. My shower head was worn out or clogged but everything else was great. I enjoyed a pool-side room.Free parking. Near shopping and dining</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r435214281-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>435214281</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Nice basic-services hotel</t>
+  </si>
+  <si>
+    <t>Nice, basic-services hotel in Rosemead.  Hotel is well maintained and is reasonably priced.  Rooms are comfortable and include microwave/refrigerator. Good for short stays when doing business in the area.  Staff is friendly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r433989277-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>433989277</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Perfect location at a reasonable price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosemead is location easy of downtown &amp; south of Pasadena. About 20 minutes from either direction. Santa Monica is just about 50 minutes away. We were able to get everywhere we need to go within a comfortable drive. Plenty of onsite free parking along with free breakfast &amp; a balcony in our room. The hotel looks &amp; feels brand new. Bathroom is extremely clean &amp; roomy. I was extremely please &amp; will definitely stay here again next time.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r415197950-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>415197950</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Newly remodeled Fairfield Inn</t>
+  </si>
+  <si>
+    <t>Just returned from a 9 days trip to LAX and LAS to finish off the summer before kids going back to school. We stayed at the Fairfield Inn for 5 nights while we explored LA. I was first a little hesitant about the location but it turned out to be very convenient; took us only 20 mins and 30 mins to Universal and Disneyland, respectively. As mentioned by other travelers, this property recently undergone a major renovation and for the most parts do look and feel relatively new, with the exception of the air conditioning units. The AC unit in our room was loud, and it's placed literally right next to the bed (we were in a double beds room) so not a whole lot of quality sleep in the first few nights. On the other hand, service was excellent as you would expect from the Marriott brand; every employees we encountered were very pleasant and professional. We also took advantage of the complimentary breakfast which serves the standard Fairfield / Residence Inn items; the breakfast area was well organized and kept very clean. We also enjoyed the use of the outdoor pool &amp; hot tub; it is a good sized pool and the area was well-maintained. A suggestion to have the towels placed in the pool area rather than at the front desk as this arrangement is not very convenient. Aside from the couple of small misses, the Fairfield...Just returned from a 9 days trip to LAX and LAS to finish off the summer before kids going back to school. We stayed at the Fairfield Inn for 5 nights while we explored LA. I was first a little hesitant about the location but it turned out to be very convenient; took us only 20 mins and 30 mins to Universal and Disneyland, respectively. As mentioned by other travelers, this property recently undergone a major renovation and for the most parts do look and feel relatively new, with the exception of the air conditioning units. The AC unit in our room was loud, and it's placed literally right next to the bed (we were in a double beds room) so not a whole lot of quality sleep in the first few nights. On the other hand, service was excellent as you would expect from the Marriott brand; every employees we encountered were very pleasant and professional. We also took advantage of the complimentary breakfast which serves the standard Fairfield / Residence Inn items; the breakfast area was well organized and kept very clean. We also enjoyed the use of the outdoor pool &amp; hot tub; it is a good sized pool and the area was well-maintained. A suggestion to have the towels placed in the pool area rather than at the front desk as this arrangement is not very convenient. Aside from the couple of small misses, the Fairfield Inn Rosemead is a solid choice if you are looking to travel to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Just returned from a 9 days trip to LAX and LAS to finish off the summer before kids going back to school. We stayed at the Fairfield Inn for 5 nights while we explored LA. I was first a little hesitant about the location but it turned out to be very convenient; took us only 20 mins and 30 mins to Universal and Disneyland, respectively. As mentioned by other travelers, this property recently undergone a major renovation and for the most parts do look and feel relatively new, with the exception of the air conditioning units. The AC unit in our room was loud, and it's placed literally right next to the bed (we were in a double beds room) so not a whole lot of quality sleep in the first few nights. On the other hand, service was excellent as you would expect from the Marriott brand; every employees we encountered were very pleasant and professional. We also took advantage of the complimentary breakfast which serves the standard Fairfield / Residence Inn items; the breakfast area was well organized and kept very clean. We also enjoyed the use of the outdoor pool &amp; hot tub; it is a good sized pool and the area was well-maintained. A suggestion to have the towels placed in the pool area rather than at the front desk as this arrangement is not very convenient. Aside from the couple of small misses, the Fairfield...Just returned from a 9 days trip to LAX and LAS to finish off the summer before kids going back to school. We stayed at the Fairfield Inn for 5 nights while we explored LA. I was first a little hesitant about the location but it turned out to be very convenient; took us only 20 mins and 30 mins to Universal and Disneyland, respectively. As mentioned by other travelers, this property recently undergone a major renovation and for the most parts do look and feel relatively new, with the exception of the air conditioning units. The AC unit in our room was loud, and it's placed literally right next to the bed (we were in a double beds room) so not a whole lot of quality sleep in the first few nights. On the other hand, service was excellent as you would expect from the Marriott brand; every employees we encountered were very pleasant and professional. We also took advantage of the complimentary breakfast which serves the standard Fairfield / Residence Inn items; the breakfast area was well organized and kept very clean. We also enjoyed the use of the outdoor pool &amp; hot tub; it is a good sized pool and the area was well-maintained. A suggestion to have the towels placed in the pool area rather than at the front desk as this arrangement is not very convenient. Aside from the couple of small misses, the Fairfield Inn Rosemead is a solid choice if you are looking to travel to this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r413698596-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>413698596</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Almost like new</t>
+  </si>
+  <si>
+    <t>This is an older structure that has been completely remodeled inside and out.  It's like new in most respects, clean and well-maintained.  The bed was comfortable, internet speed was good, and the water pressure in the shower was excellent.  Access is a bit odd, as you can approach from only one direction and leave only in the opposite direction.  The TV, although an HD widescreen model, carried only SD channels.  And I did see a small lizard running through the hallway - that might turn some folks off.  My stay was good and I recommend this place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r412730258-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>412730258</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Great Stay, Very convenient</t>
+  </si>
+  <si>
+    <t>The room was clean, large enough for my son and I. The staff was very friendly. We also took advantage of the free breakfast. I usually don't like hotel coffee at all, but I was pleasantly surprised by their good coffee. The hotel is very close to Hollywood, it only took half an hour to get there, 45 minutes to get back. Also it was convenient to get to the Rose Bowl for a  Coldplay concert.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r403838001-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>403838001</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Great new hotel in great location</t>
+  </si>
+  <si>
+    <t>Stayed at the Fairfield Inn &amp; Suites Los Angeles Rosemead over a weekend. The hotel is relatively new and located about 20-30 minutes east of LA. We used our Marriott Visa free night stay certificate to stay at the hotel. The hotel is located just off HWY 60 and around the corner from a shopping mall. We were in town to see the Dodgers play and it literally took us about 30 minutes to get to and from the ballpark. The hotel is also about 30-40 minutes from LAX with no traffic on a Sunday. Gas is about $2 cheaper by the hotel than at the airport. 
+The hotel is clean and the staff was very nice. I received a phone call ahead of my stay asking if there were any special requests and welcoming me to their hotel. Nice touch for the Fairfield Inn. The rooms are clean and the bathrooms are nice. Beds and pillows are comfortable and an improvement over older Fairfield Inns. Excellent water pressure in the shower - especially for California. Free breakfast each morning and decent workout room with free weights, bench, new cardio equipment. The rooms also have a microwave and small fridge, which we used while we stayed at the hotel.
+Only negative was a slight musty odor in the room from the wall a/c. Although, it was not a big deal and not overwhelming or strong. Overall the Fairfield Inn &amp;...Stayed at the Fairfield Inn &amp; Suites Los Angeles Rosemead over a weekend. The hotel is relatively new and located about 20-30 minutes east of LA. We used our Marriott Visa free night stay certificate to stay at the hotel. The hotel is located just off HWY 60 and around the corner from a shopping mall. We were in town to see the Dodgers play and it literally took us about 30 minutes to get to and from the ballpark. The hotel is also about 30-40 minutes from LAX with no traffic on a Sunday. Gas is about $2 cheaper by the hotel than at the airport. The hotel is clean and the staff was very nice. I received a phone call ahead of my stay asking if there were any special requests and welcoming me to their hotel. Nice touch for the Fairfield Inn. The rooms are clean and the bathrooms are nice. Beds and pillows are comfortable and an improvement over older Fairfield Inns. Excellent water pressure in the shower - especially for California. Free breakfast each morning and decent workout room with free weights, bench, new cardio equipment. The rooms also have a microwave and small fridge, which we used while we stayed at the hotel.Only negative was a slight musty odor in the room from the wall a/c. Although, it was not a big deal and not overwhelming or strong. Overall the Fairfield Inn &amp; Suites Los Angeles Rosemead is a great location and we plan to stay there again, rather than a downtown LA Marriott property for twice the rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at the Fairfield Inn &amp; Suites Los Angeles Rosemead over a weekend. The hotel is relatively new and located about 20-30 minutes east of LA. We used our Marriott Visa free night stay certificate to stay at the hotel. The hotel is located just off HWY 60 and around the corner from a shopping mall. We were in town to see the Dodgers play and it literally took us about 30 minutes to get to and from the ballpark. The hotel is also about 30-40 minutes from LAX with no traffic on a Sunday. Gas is about $2 cheaper by the hotel than at the airport. 
+The hotel is clean and the staff was very nice. I received a phone call ahead of my stay asking if there were any special requests and welcoming me to their hotel. Nice touch for the Fairfield Inn. The rooms are clean and the bathrooms are nice. Beds and pillows are comfortable and an improvement over older Fairfield Inns. Excellent water pressure in the shower - especially for California. Free breakfast each morning and decent workout room with free weights, bench, new cardio equipment. The rooms also have a microwave and small fridge, which we used while we stayed at the hotel.
+Only negative was a slight musty odor in the room from the wall a/c. Although, it was not a big deal and not overwhelming or strong. Overall the Fairfield Inn &amp;...Stayed at the Fairfield Inn &amp; Suites Los Angeles Rosemead over a weekend. The hotel is relatively new and located about 20-30 minutes east of LA. We used our Marriott Visa free night stay certificate to stay at the hotel. The hotel is located just off HWY 60 and around the corner from a shopping mall. We were in town to see the Dodgers play and it literally took us about 30 minutes to get to and from the ballpark. The hotel is also about 30-40 minutes from LAX with no traffic on a Sunday. Gas is about $2 cheaper by the hotel than at the airport. The hotel is clean and the staff was very nice. I received a phone call ahead of my stay asking if there were any special requests and welcoming me to their hotel. Nice touch for the Fairfield Inn. The rooms are clean and the bathrooms are nice. Beds and pillows are comfortable and an improvement over older Fairfield Inns. Excellent water pressure in the shower - especially for California. Free breakfast each morning and decent workout room with free weights, bench, new cardio equipment. The rooms also have a microwave and small fridge, which we used while we stayed at the hotel.Only negative was a slight musty odor in the room from the wall a/c. Although, it was not a big deal and not overwhelming or strong. Overall the Fairfield Inn &amp; Suites Los Angeles Rosemead is a great location and we plan to stay there again, rather than a downtown LA Marriott property for twice the rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r395890188-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>395890188</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>New property and a great location</t>
+  </si>
+  <si>
+    <t>We needed a 1 night stay at a good price close to the Huntington library and this property filled the bill.  About 5 miles away from the Huntington via surface streets. As a bonus, we get Marriott points and a free hot breakfast.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r393019627-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>393019627</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>Staff was amazing and amiable ! We loved loved them and the hotel was beautiful and looks new. Area was distinctly modern and close to a great hibachi place!  We stayed 2 nights and free breakfast is always a plus! There's a close by mall where you find pubs and famous eateries and stores.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r370426588-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>370426588</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>Newly remodeled, nice hotel, but with some sound issues</t>
+  </si>
+  <si>
+    <t>The hotel is completely renovated, and certainly in a different style of typical Fairfields.  Most of the rooms look like they have balconies.  The service is really nice and friendly for sure.  I got upgraded to a large suite which was clean and well kept. Nice furniture, and a decent mattress.  The walls are a little thin and I could hear next door a bit.  My room only had a stall shower, so if you want a tub, I'm not sure other rooms have them. Decent pool. The hotel is close to a big mall and a few restaurants, but mostly residential around, but right at the entrance to hwy 60.  Take a room that doesn't face busy San Gabriel Blvd or Town Center Road as there's quite a bit of road noise.  The price was certainly good for the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>FFISCareStaff, General Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded May 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is completely renovated, and certainly in a different style of typical Fairfields.  Most of the rooms look like they have balconies.  The service is really nice and friendly for sure.  I got upgraded to a large suite which was clean and well kept. Nice furniture, and a decent mattress.  The walls are a little thin and I could hear next door a bit.  My room only had a stall shower, so if you want a tub, I'm not sure other rooms have them. Decent pool. The hotel is close to a big mall and a few restaurants, but mostly residential around, but right at the entrance to hwy 60.  Take a room that doesn't face busy San Gabriel Blvd or Town Center Road as there's quite a bit of road noise.  The price was certainly good for the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r366390675-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>366390675</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>Great renovated hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for just one night, as I was working in Bell Gardens fairly nearby.It used to be another hotel that needed work, but has now been totally renovated and branded Fairfield.The lobby is bright and modern and immediately makes you feel relaxed.More importantly the rooms are very well done. It's obvious it's an older property by the layout, but the bones are what they are. The rooms have been very well updated and have everything you could need. The shower is hilarious, pressure washer would be a better description. I loved it.My only complaint is the rad noise from outside is a little louder than I would have liked, but I still slept well.Breakfast was good and coffee was excellent. I'd go as far to say the best hotel coffee to date. IHG should take note.Staff were super friendly as well. I really cannot fault this hotel.I will definitely stay here again, if I'm in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for just one night, as I was working in Bell Gardens fairly nearby.It used to be another hotel that needed work, but has now been totally renovated and branded Fairfield.The lobby is bright and modern and immediately makes you feel relaxed.More importantly the rooms are very well done. It's obvious it's an older property by the layout, but the bones are what they are. The rooms have been very well updated and have everything you could need. The shower is hilarious, pressure washer would be a better description. I loved it.My only complaint is the rad noise from outside is a little louder than I would have liked, but I still slept well.Breakfast was good and coffee was excellent. I'd go as far to say the best hotel coffee to date. IHG should take note.Staff were super friendly as well. I really cannot fault this hotel.I will definitely stay here again, if I'm in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r366320731-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>366320731</t>
+  </si>
+  <si>
+    <t>Really Nice Local Hotel</t>
+  </si>
+  <si>
+    <t>Close to LA, this remodeled Fairfield was a nice place to visit. The staff was great - very helpful and friendly. The rooms have been updated and are fine. The building is older, but the bed was very comfortable. Great work area and internet (free). Small coffee maker in room, with a small microwave and refrigerator too. Bathrooms have been updated and are large and the shower is a walk-in - nice.Close to fast food - across the street. Many restaurants within a short drive. Breakfast. Nothing over the top, but plenty to choose from - OK. Nice looby area and I see they have a pool. Free parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Close to LA, this remodeled Fairfield was a nice place to visit. The staff was great - very helpful and friendly. The rooms have been updated and are fine. The building is older, but the bed was very comfortable. Great work area and internet (free). Small coffee maker in room, with a small microwave and refrigerator too. Bathrooms have been updated and are large and the shower is a walk-in - nice.Close to fast food - across the street. Many restaurants within a short drive. Breakfast. Nothing over the top, but plenty to choose from - OK. Nice looby area and I see they have a pool. Free parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r277391627-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>277391627</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>A terrible stay!!!</t>
+  </si>
+  <si>
+    <t>I made reservations here at this hotel through Hotels.com. I thought is would be a nice place to stay in while visiting my family here in L.A. because I actually payed $98 dollars a night for two nights stay. I was wrong! Upon arrival, there was construction all over the hotel. It was dusty and dirty. The website did not state any renovations or construction was going on. I was tired from traveling from Northern California so we decided to stay. The room we checked in seemed nice, but not entirely completed. During the nigh I had a sudden and strong itch; as it woke it me up from a deep sleep, I shook my t-shirt thinking it was a spider, but to my surprise, it was a huge and fat bed bug. It got me pretty good...I searched for more bugs, but it appeared to have been the only one, hmmm lucky me. I placed it in a plastic zip bag and turned it in to the front desk upon almost immediate check out. The girl kindly apologized and told me to call the manager the next day. I will call and try to get at least half the money back. I was left sleepless and tires with some bad and swollen bites. I will never stay here again and be more cautious if I stay at another hotel in the near future.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I made reservations here at this hotel through Hotels.com. I thought is would be a nice place to stay in while visiting my family here in L.A. because I actually payed $98 dollars a night for two nights stay. I was wrong! Upon arrival, there was construction all over the hotel. It was dusty and dirty. The website did not state any renovations or construction was going on. I was tired from traveling from Northern California so we decided to stay. The room we checked in seemed nice, but not entirely completed. During the nigh I had a sudden and strong itch; as it woke it me up from a deep sleep, I shook my t-shirt thinking it was a spider, but to my surprise, it was a huge and fat bed bug. It got me pretty good...I searched for more bugs, but it appeared to have been the only one, hmmm lucky me. I placed it in a plastic zip bag and turned it in to the front desk upon almost immediate check out. The girl kindly apologized and told me to call the manager the next day. I will call and try to get at least half the money back. I was left sleepless and tires with some bad and swollen bites. I will never stay here again and be more cautious if I stay at another hotel in the near future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r274915548-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>274915548</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Don't waste your money</t>
+  </si>
+  <si>
+    <t>Under construction and not in good shape. I was in one of the rooms that had already been renovated and was not impressed with it. The pillows were lumpy, the bed was a rock and the breakfast was the worst I have seen in a hotel</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r244824234-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>244824234</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>So filthy, expensive, and unsanitary</t>
+  </si>
+  <si>
+    <t>I stayed one night, complained about the noisy toilet, filthy carpet, filthy and stained ironing board, elevator wasnt working so we took the stairs which were superbly dirty and stained and awful, horrible ugly looking bananas n bagel for breakfast, dirty, bathtub horribly dirty, towels dirty and raggedy (my car towels r much cleaner), and no one cared i askwd for me manager and manager didnt show up until after 11 in which they charged an extra day and the manager took me to show another room and it was smelly cigarette and all cloudy of smoking in non smoking area (inn smells horrible) and they said they could not so anything, but manager agreed too much cigarrette smoke but carpets in Inn are super old n have no means to replace until future so i checked out! Worst place ever and i would never recommend it ever. And EXPENSIVE they forget its not the Holiday Inn anymoreMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed one night, complained about the noisy toilet, filthy carpet, filthy and stained ironing board, elevator wasnt working so we took the stairs which were superbly dirty and stained and awful, horrible ugly looking bananas n bagel for breakfast, dirty, bathtub horribly dirty, towels dirty and raggedy (my car towels r much cleaner), and no one cared i askwd for me manager and manager didnt show up until after 11 in which they charged an extra day and the manager took me to show another room and it was smelly cigarette and all cloudy of smoking in non smoking area (inn smells horrible) and they said they could not so anything, but manager agreed too much cigarrette smoke but carpets in Inn are super old n have no means to replace until future so i checked out! Worst place ever and i would never recommend it ever. And EXPENSIVE they forget its not the Holiday Inn anymoreMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r226891494-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>226891494</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Nice and comfortable hotel</t>
+  </si>
+  <si>
+    <t>Stay for 6 nights in this hotel while visiting LA. The staffs are nice and very helpful, and there has a shopping mall just a few distance from the hotel! Nice! And also this hotel provides DECAF coffee!! OMG decaf coffee! very surprise! because I can drink normal coffee after lunch time, I feel very warm and happy about this coffee^^MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>HotelCareStaff, General Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded November 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2014</t>
+  </si>
+  <si>
+    <t>Stay for 6 nights in this hotel while visiting LA. The staffs are nice and very helpful, and there has a shopping mall just a few distance from the hotel! Nice! And also this hotel provides DECAF coffee!! OMG decaf coffee! very surprise! because I can drink normal coffee after lunch time, I feel very warm and happy about this coffee^^More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r208959043-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>208959043</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>Excellent Hotel, very comfortable stay !</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights in April as part of a tour group of Tours4fun.  I liked this property from the moment I entered.  Cheerful and friendly staff, a computer to check your mails or if you carry your laptop, free wifi, a table set every evening offering free water, tea/coffee and fruits. The breakfast room is very small, but lovely breakfast...The room is a bit dated with old carpets but still very functional, and very very comfortable.  The A/c worked beautifully, the toilet was clean and toileteries were provided. Towels were soft and the bed was very comfortable as well.   As far as the location is concered, being part of the tour, I was only concerned about the food.  Opposite the hotel is a Mc Donalds, and 5 minutes walk away is a hugeeeeeeee mall with a lovely foodcourt thats very reasonably priced. Overall, so much of fruit around that it was sufficient to carry away and have for lunch !   On the whole, very very happy with this property and strongly recommend.   Those who are looking for spotless carpets, huge dining rooms, etc, look else where.... FOr what I paid, this property was a bargain.  A former Holiday Inn, I am told its changing to the Marriott or someother brand, but if the rates, service and staff remain the same, this is a Value for money Hotel....MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights in April as part of a tour group of Tours4fun.  I liked this property from the moment I entered.  Cheerful and friendly staff, a computer to check your mails or if you carry your laptop, free wifi, a table set every evening offering free water, tea/coffee and fruits. The breakfast room is very small, but lovely breakfast...The room is a bit dated with old carpets but still very functional, and very very comfortable.  The A/c worked beautifully, the toilet was clean and toileteries were provided. Towels were soft and the bed was very comfortable as well.   As far as the location is concered, being part of the tour, I was only concerned about the food.  Opposite the hotel is a Mc Donalds, and 5 minutes walk away is a hugeeeeeeee mall with a lovely foodcourt thats very reasonably priced. Overall, so much of fruit around that it was sufficient to carry away and have for lunch !   On the whole, very very happy with this property and strongly recommend.   Those who are looking for spotless carpets, huge dining rooms, etc, look else where.... FOr what I paid, this property was a bargain.  A former Holiday Inn, I am told its changing to the Marriott or someother brand, but if the rates, service and staff remain the same, this is a Value for money Hotel....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r204043719-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>204043719</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>town center inn</t>
+  </si>
+  <si>
+    <t>Check in was ok.  Inside hotel everything looks old.  My room facing the highway was noisy at night.  The furniture was old.  Bed however was comfortable.  Internet was so slow.  I tested itat 1 or 2 mbps. Cant do much work on it. Area was so so. Mcd across the street. Not a value stay.Also the gym was underconstruction.  Breakfast buffett consisted of your usual heart attack foodgroups.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r164022552-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>164022552</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t>Stayed 2nd to 6th June 2013.   The hotel is a bit old but the staff and location more than make up for it. Tracy in the breakfast room was fantastic, a dedicated worker and was truly interested in making sure everything was OK.   Reception and other staff very helpful and importantly cheerful.  Rooms a bit dated but clean and spacious.   Definitely stay there again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>HotelCareStaff, General Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded June 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2013</t>
+  </si>
+  <si>
+    <t>Stayed 2nd to 6th June 2013.   The hotel is a bit old but the staff and location more than make up for it. Tracy in the breakfast room was fantastic, a dedicated worker and was truly interested in making sure everything was OK.   Reception and other staff very helpful and importantly cheerful.  Rooms a bit dated but clean and spacious.   Definitely stay there again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r161997003-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>161997003</t>
+  </si>
+  <si>
+    <t>05/27/2013</t>
+  </si>
+  <si>
+    <t>wonderful stay</t>
+  </si>
+  <si>
+    <t>It's been an amazing experience during our recent stay at HIE. The staff was friendly. The room was clean and no smoky smell. The breakfast served daily had good variety. The water pressure was good for a satisfying shower.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelCareStaff, General Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded June 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2013</t>
+  </si>
+  <si>
+    <t>It's been an amazing experience during our recent stay at HIE. The staff was friendly. The room was clean and no smoky smell. The breakfast served daily had good variety. The water pressure was good for a satisfying shower.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r160381354-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>160381354</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>Old, smelly and terrrible internet</t>
+  </si>
+  <si>
+    <t>This was one of my worst experiences at a Holiday Inn Express stays.  The hotel was very old in design and atmosphere. There was a musty, damp smell in the hotel.  The room was adequate but the internet was terrible. I do a lot of work while traveling for business via the internet and I could not complete simple tasks due to slow internet. I tried to download and print an Excel spreadsheet at the business center  (joke) a computer in the lobby. It could not download the document. I mentioned this to the staff and the desk clerk just gave me a stupid grin and shrugged her shoulders not comment.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelCareStaff, General Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded May 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2013</t>
+  </si>
+  <si>
+    <t>This was one of my worst experiences at a Holiday Inn Express stays.  The hotel was very old in design and atmosphere. There was a musty, damp smell in the hotel.  The room was adequate but the internet was terrible. I do a lot of work while traveling for business via the internet and I could not complete simple tasks due to slow internet. I tried to download and print an Excel spreadsheet at the business center  (joke) a computer in the lobby. It could not download the document. I mentioned this to the staff and the desk clerk just gave me a stupid grin and shrugged her shoulders not comment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r156137641-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>156137641</t>
+  </si>
+  <si>
+    <t>03/31/2013</t>
+  </si>
+  <si>
+    <t>Very friendly staff and nice hotel in the area</t>
+  </si>
+  <si>
+    <t>This holiday inn express was very nice. Clean and well maintained. The staff was very friendly at check in. Hotel was conveniently located directly off the 60 freeway and made my travel very easy. The beds and pillows were nice, but the best part was the shower head and shower pressure. It had to be the best shower I ever had. Certainly as a platinum member they upgraded my room to a suite which was great, but that shower was amazing.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r155091953-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>155091953</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>Friendly staff and good location</t>
+  </si>
+  <si>
+    <t>We stayed here on our visit to celebrate my grandpa's 102nd birthday. It was in a convenient location and close to the mall which was great. The hotel was clean and the staff was very friendly and helpful. The continental breakfast was good also.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r152156071-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>152156071</t>
+  </si>
+  <si>
+    <t>02/14/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel - wonderful and accommodating staff!</t>
+  </si>
+  <si>
+    <t>First, I'd like to start by saying that this hotel is unque in that it is one of the 1st Holiday Inn Express Hotels in So. Cal.  (Approx. 18 years old)
+The man at the desk said it was the first to start construction, but then another HIE in the Long Beach area was completed before it. -- (Just some trivia.)
+It is dated inside....a bit "tired" in some areas, but very clean and very pleasant.
+With that said, I would definitely stay again!
+Each room had nice balconies ... ask for a pool side vs a highway side room.
+The hotel location is good for travel, but it is wedged on the corner of 2 busy roads.  
+Esther at the desk went above and beyond to meet my needs.  She was extremely pleasant!
+I had a pool/center hotel room and there were bright lights on all night long outside the balconies.  Unfortunately, the room curtains did not block 100% of the light.  (I like to sleep when it is super dark.)
+Because of the age, there were few outlets .... but plenty of towels and great hot water.
+Also, unfortunately, there is no fitness center.  -- I was pleasantly told that this was because of the age ... hmmmm, I know for sure that two rooms could be converted into an exercise room.  They should have just said, "we're so sorry, we just don't have an exercise room and...First, I'd like to start by saying that this hotel is unque in that it is one of the 1st Holiday Inn Express Hotels in So. Cal.  (Approx. 18 years old)The man at the desk said it was the first to start construction, but then another HIE in the Long Beach area was completed before it. -- (Just some trivia.)It is dated inside....a bit "tired" in some areas, but very clean and very pleasant.With that said, I would definitely stay again!Each room had nice balconies ... ask for a pool side vs a highway side room.The hotel location is good for travel, but it is wedged on the corner of 2 busy roads.  Esther at the desk went above and beyond to meet my needs.  She was extremely pleasant!I had a pool/center hotel room and there were bright lights on all night long outside the balconies.  Unfortunately, the room curtains did not block 100% of the light.  (I like to sleep when it is super dark.)Because of the age, there were few outlets .... but plenty of towels and great hot water.Also, unfortunately, there is no fitness center.  -- I was pleasantly told that this was because of the age ... hmmmm, I know for sure that two rooms could be converted into an exercise room.  They should have just said, "we're so sorry, we just don't have an exercise room and not used the hotel age excuse."... once again --- would definitely stay at hotel again!: -)MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>First, I'd like to start by saying that this hotel is unque in that it is one of the 1st Holiday Inn Express Hotels in So. Cal.  (Approx. 18 years old)
+The man at the desk said it was the first to start construction, but then another HIE in the Long Beach area was completed before it. -- (Just some trivia.)
+It is dated inside....a bit "tired" in some areas, but very clean and very pleasant.
+With that said, I would definitely stay again!
+Each room had nice balconies ... ask for a pool side vs a highway side room.
+The hotel location is good for travel, but it is wedged on the corner of 2 busy roads.  
+Esther at the desk went above and beyond to meet my needs.  She was extremely pleasant!
+I had a pool/center hotel room and there were bright lights on all night long outside the balconies.  Unfortunately, the room curtains did not block 100% of the light.  (I like to sleep when it is super dark.)
+Because of the age, there were few outlets .... but plenty of towels and great hot water.
+Also, unfortunately, there is no fitness center.  -- I was pleasantly told that this was because of the age ... hmmmm, I know for sure that two rooms could be converted into an exercise room.  They should have just said, "we're so sorry, we just don't have an exercise room and...First, I'd like to start by saying that this hotel is unque in that it is one of the 1st Holiday Inn Express Hotels in So. Cal.  (Approx. 18 years old)The man at the desk said it was the first to start construction, but then another HIE in the Long Beach area was completed before it. -- (Just some trivia.)It is dated inside....a bit "tired" in some areas, but very clean and very pleasant.With that said, I would definitely stay again!Each room had nice balconies ... ask for a pool side vs a highway side room.The hotel location is good for travel, but it is wedged on the corner of 2 busy roads.  Esther at the desk went above and beyond to meet my needs.  She was extremely pleasant!I had a pool/center hotel room and there were bright lights on all night long outside the balconies.  Unfortunately, the room curtains did not block 100% of the light.  (I like to sleep when it is super dark.)Because of the age, there were few outlets .... but plenty of towels and great hot water.Also, unfortunately, there is no fitness center.  -- I was pleasantly told that this was because of the age ... hmmmm, I know for sure that two rooms could be converted into an exercise room.  They should have just said, "we're so sorry, we just don't have an exercise room and not used the hotel age excuse."... once again --- would definitely stay at hotel again!: -)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r146227215-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>146227215</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Spent one night here and loved it!</t>
+  </si>
+  <si>
+    <t>Very friendly service and, very! clean room. Upon arrival, I was met by an extremely friendly staff (Esther), who checked me in within minutes. Five minutes after settling down in my room, I received a call from the front desk inquiring on whether I needed anything else in the room, and whether the room was in good condition. This sense of attention to detail is what makes ones experience pleasant.  Additionally, they have a nice warm breakfast from 6-10am. Given I was there with my wife and 2 kids, the kids loved the endless pancakes (all included in the room fee).When I checked out, I was faced with the same friendly and courteous staff who even offered my family bottles of water for the road. I left that place knowing I will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Very friendly service and, very! clean room. Upon arrival, I was met by an extremely friendly staff (Esther), who checked me in within minutes. Five minutes after settling down in my room, I received a call from the front desk inquiring on whether I needed anything else in the room, and whether the room was in good condition. This sense of attention to detail is what makes ones experience pleasant.  Additionally, they have a nice warm breakfast from 6-10am. Given I was there with my wife and 2 kids, the kids loved the endless pancakes (all included in the room fee).When I checked out, I was faced with the same friendly and courteous staff who even offered my family bottles of water for the road. I left that place knowing I will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r146129558-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>146129558</t>
+  </si>
+  <si>
+    <t>11/25/2012</t>
+  </si>
+  <si>
+    <t>Very friendly staffs</t>
+  </si>
+  <si>
+    <t>Nice and clean room at the right price.  The staffs are so friendly. Next to yhe hotel is a big shopping mall, Montabello.The location is also in the center between beverly hills, ontario mills, and long beach. And only 25 minutes to Disneyland.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r141621714-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>141621714</t>
+  </si>
+  <si>
+    <t>09/29/2012</t>
+  </si>
+  <si>
+    <t>Efficient, Friendly and Excellent Location Hotel</t>
+  </si>
+  <si>
+    <t>Spent 2 nights here, all as expected from a Holiday Inn Express brand, front staff was very efficient and friendly.Breakfast was good, basically can't find anything wrong here during my stay. Will definitely return for another visit when visiting LA.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r135784904-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>135784904</t>
+  </si>
+  <si>
+    <t>07/30/2012</t>
+  </si>
+  <si>
+    <t>Friendly staff but some upgrading required ...</t>
+  </si>
+  <si>
+    <t>I stayed here for a week in July 2012, and I must say that the staff, especially at the front desk, are genuinely friendly!  The rooms here are generally large, and the water pressure in the bathroom is decent. It has a shopping mall, a gas station and 2 restaurants nearby. There are also 2 fast food joints across the road, one being McDonalds. The breakfast area is small, and you eat using disposable plates, forks, spoons and knives.  Also, the property seemed to need a little work (in terms of upgrading), especially the carpeting, elevator and air conditioner (a little noisy), although the place is generally well maintained.  It's a little expensive, compared to the motel across the freeway.  This is the first HIE I am staying at, so may be i am expecting too much ....MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for a week in July 2012, and I must say that the staff, especially at the front desk, are genuinely friendly!  The rooms here are generally large, and the water pressure in the bathroom is decent. It has a shopping mall, a gas station and 2 restaurants nearby. There are also 2 fast food joints across the road, one being McDonalds. The breakfast area is small, and you eat using disposable plates, forks, spoons and knives.  Also, the property seemed to need a little work (in terms of upgrading), especially the carpeting, elevator and air conditioner (a little noisy), although the place is generally well maintained.  It's a little expensive, compared to the motel across the freeway.  This is the first HIE I am staying at, so may be i am expecting too much ....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r131786159-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>131786159</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>Friendly service but hard beds</t>
+  </si>
+  <si>
+    <t>Nice Hotel, clean, the lady in the reception area was very friendly.  We stayed 1 night on our way back to San Jose from LA because we were very tired so we decided to get a night sleep and continue in the morning.  The bad thing was we didn't rest very well, the beds were very hard and around 2 in the morning there was stomping on the room right above ours, there was opening and closing of cabinets and there were balconys for each room, we woke up and unable to get any sleep after that because they decided to go on the balcony and continue to make alot of noise so that is why I am giving this hotel an average review.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Nice Hotel, clean, the lady in the reception area was very friendly.  We stayed 1 night on our way back to San Jose from LA because we were very tired so we decided to get a night sleep and continue in the morning.  The bad thing was we didn't rest very well, the beds were very hard and around 2 in the morning there was stomping on the room right above ours, there was opening and closing of cabinets and there were balconys for each room, we woke up and unable to get any sleep after that because they decided to go on the balcony and continue to make alot of noise so that is why I am giving this hotel an average review.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r129413127-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>129413127</t>
+  </si>
+  <si>
+    <t>05/05/2012</t>
+  </si>
+  <si>
+    <t>Terrible and old motel for $140 a night</t>
+  </si>
+  <si>
+    <t>I do not write reviews.  After my stay at the HIE Express Rosemead, I feel that I have to write this review.  I am a Priority Club Platinum Elite member and have stayed at IHG properties worldwide.  This is the worst property ever.  It is a disgrace to the IHG group of hotels for the following reasons:It looks and feels like a motelOld property, stuck in the last centuryOld carpet, elevator etc.Popcorn ceilingRoom carpet was heavily covered with cleaning powder to mask the smellVery basic toiletriesVery sad breakfast area conditionVery old window acOld furnitures from the last century, makes the room almost haunted lookingDo not pay more than $50 for the room.It is an ok place if you camMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded June 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2012</t>
+  </si>
+  <si>
+    <t>I do not write reviews.  After my stay at the HIE Express Rosemead, I feel that I have to write this review.  I am a Priority Club Platinum Elite member and have stayed at IHG properties worldwide.  This is the worst property ever.  It is a disgrace to the IHG group of hotels for the following reasons:It looks and feels like a motelOld property, stuck in the last centuryOld carpet, elevator etc.Popcorn ceilingRoom carpet was heavily covered with cleaning powder to mask the smellVery basic toiletriesVery sad breakfast area conditionVery old window acOld furnitures from the last century, makes the room almost haunted lookingDo not pay more than $50 for the room.It is an ok place if you camMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r126176168-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>126176168</t>
+  </si>
+  <si>
+    <t>03/16/2012</t>
+  </si>
+  <si>
+    <t>The customer Service is the best I've had in 15 yrs.</t>
+  </si>
+  <si>
+    <t>I have been a loyal HI stayer for 15 yrs and I have never written a review before now.  This HI express staff should be the poster employess for the entire chain.  They were prompt, welcoming and seem to be happy to take care of you.  Everyone at the hotel greets you and asks if there is anything you need.All the reviews about the condition of hotel forget about it.  Yes it isn't all brand new and remodel ( expcet the lobby) but I have stayed in Crowne Plazas much worse.  Everything was very clean and had what a needed in my room for the brief stay.  Excellent TV etc.  Locfation is right by a Mall that has nice eating choices.  Fast food nearby if thats your sort of thing.Safe area to stay and convenient to get around.  I was there for business not pleasure so can't speak to any tourist things.Again staff you are the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I have been a loyal HI stayer for 15 yrs and I have never written a review before now.  This HI express staff should be the poster employess for the entire chain.  They were prompt, welcoming and seem to be happy to take care of you.  Everyone at the hotel greets you and asks if there is anything you need.All the reviews about the condition of hotel forget about it.  Yes it isn't all brand new and remodel ( expcet the lobby) but I have stayed in Crowne Plazas much worse.  Everything was very clean and had what a needed in my room for the brief stay.  Excellent TV etc.  Locfation is right by a Mall that has nice eating choices.  Fast food nearby if thats your sort of thing.Safe area to stay and convenient to get around.  I was there for business not pleasure so can't speak to any tourist things.Again staff you are the best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r125380719-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>125380719</t>
+  </si>
+  <si>
+    <t>02/28/2012</t>
+  </si>
+  <si>
+    <t>clean, but....</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights in February 2012 for a rate of $130/night. The hotel doesn't offer many amenities and is pretty much no frills. Positives: there is a pool, room and bed were clean, easy parking and friendly staff.Negatives: There is no ramp for bringing luggage into the lobby (small oversight?). The carpet outside the room smelled musty. There was an ice machine just outside my door that made a constant hum, and a patio light that stayed on all the time. Skip the breakfast. Everything was plastic-like. Powder-base eggs, pancakes from a machine with an IV bag of pancake mix.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r124895107-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>124895107</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>our weekend get-away</t>
+  </si>
+  <si>
+    <t>The hotel is nice, convenient, easy to get to from where we needed to be. The staff is very friendly (except for the older asian lady that so happens to be a manager, she can go somewhere.) and they were able to accommodate for things that we needed. My only concern was the beds, aren't very comfortable and it gets reaaaally chilly at night. We put the heater on full blast maybe an hr or two before actually going to bed but it didn't seem to help. Adding in a comforter definitely wouldn't hurt. But overall good, mostly because of the cleanliness.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r119772681-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>119772681</t>
+  </si>
+  <si>
+    <t>10/26/2011</t>
+  </si>
+  <si>
+    <t>A Good Place to Sleep</t>
+  </si>
+  <si>
+    <t>I stay a weekend here almost monthly for business for the past year, I'm only just now getting around to reviewing it. It's conveniently located to the 60 highway (entrance ramp is right across the street from the hotel) and the mall at Montebello (2 short blocks = 5 min walk).  My room has always been clean and comfortable.  I would not call it motel standards by far.  It's not luxury either, though.  For business travel it works for me, I get free Wi-fi, breakfast, a hot shower, working AC/ heat, and a decent bed (No, you won't find the signature Westin and Double Tree "heavenly" bedding here!). What more do you need for basic travel? I won't comment on the cost because the job pays for it, however, I have seen their listed rates and it looks reasonable online, unless it's a holiday weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I stay a weekend here almost monthly for business for the past year, I'm only just now getting around to reviewing it. It's conveniently located to the 60 highway (entrance ramp is right across the street from the hotel) and the mall at Montebello (2 short blocks = 5 min walk).  My room has always been clean and comfortable.  I would not call it motel standards by far.  It's not luxury either, though.  For business travel it works for me, I get free Wi-fi, breakfast, a hot shower, working AC/ heat, and a decent bed (No, you won't find the signature Westin and Double Tree "heavenly" bedding here!). What more do you need for basic travel? I won't comment on the cost because the job pays for it, however, I have seen their listed rates and it looks reasonable online, unless it's a holiday weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r119161986-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>119161986</t>
+  </si>
+  <si>
+    <t>10/10/2011</t>
+  </si>
+  <si>
+    <t>a motel with four star hotel price</t>
+  </si>
+  <si>
+    <t>it's nice that they have water and fruit in the lobby. but considering their service and accommodation condition, it's way too expensive. In that area, their price is same as a nice four star hotel.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r118094336-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>118094336</t>
+  </si>
+  <si>
+    <t>09/13/2011</t>
+  </si>
+  <si>
+    <t>Friendliest staff but needs carpet remodel!</t>
+  </si>
+  <si>
+    <t>This hotel I must say needs the carpet updated. Overall I think the hotel is kept up nicely in a cleaning sense and the staff are extremely nice and helpful, but the carpet seems old and it has rippling in it to the point that my luggage was hard to roll. It also just felt gross to the point I didnt want to be barefoot. The is my only complaint in our 7 night stay. I cant say enough about the staff. At many hotels I have stayed at the staff are nice and you know they must be because they are trained to be and they would probably loose their job if they werent, BUT the staff here actually seemed GENUINELY kind people who truly care about your experience in LA. I have to say that of all the hotels in and out of the states that I have stayed at the staff here have left a lasting impression not only on myself but also to my 10 yr old daughter. 
+Little facts that I experienced...If you are coming to LA for tourism it really isnt near the tourist attractions. We were visiting friends who just had a baby and they live in Arcadia. It was less than 10 minutes from their house. This hotel does NOT have a gym. It is about 30-40 minutes from airport without traffic. 30 minutes from Universal Studios without traffic and though Malibu...This hotel I must say needs the carpet updated. Overall I think the hotel is kept up nicely in a cleaning sense and the staff are extremely nice and helpful, but the carpet seems old and it has rippling in it to the point that my luggage was hard to roll. It also just felt gross to the point I didnt want to be barefoot. The is my only complaint in our 7 night stay. I cant say enough about the staff. At many hotels I have stayed at the staff are nice and you know they must be because they are trained to be and they would probably loose their job if they werent, BUT the staff here actually seemed GENUINELY kind people who truly care about your experience in LA. I have to say that of all the hotels in and out of the states that I have stayed at the staff here have left a lasting impression not only on myself but also to my 10 yr old daughter. Little facts that I experienced...If you are coming to LA for tourism it really isnt near the tourist attractions. We were visiting friends who just had a baby and they live in Arcadia. It was less than 10 minutes from their house. This hotel does NOT have a gym. It is about 30-40 minutes from airport without traffic. 30 minutes from Universal Studios without traffic and though Malibu beach may read 37 miles or so it took us over 2 hrs in the middle of a weekday :(  The hotel has free internet and breakfast and great cable channels. There was a fridge and microwave in the room and one day we ordered pizza and they delivered extremely fast to our door. Overall I cannot say enough about the staff from the housekeeping to the young lady that put breakfast out every morning and the gals and guys that ran the desk. They all deserve 10 stars each for great customer service :)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>This hotel I must say needs the carpet updated. Overall I think the hotel is kept up nicely in a cleaning sense and the staff are extremely nice and helpful, but the carpet seems old and it has rippling in it to the point that my luggage was hard to roll. It also just felt gross to the point I didnt want to be barefoot. The is my only complaint in our 7 night stay. I cant say enough about the staff. At many hotels I have stayed at the staff are nice and you know they must be because they are trained to be and they would probably loose their job if they werent, BUT the staff here actually seemed GENUINELY kind people who truly care about your experience in LA. I have to say that of all the hotels in and out of the states that I have stayed at the staff here have left a lasting impression not only on myself but also to my 10 yr old daughter. 
+Little facts that I experienced...If you are coming to LA for tourism it really isnt near the tourist attractions. We were visiting friends who just had a baby and they live in Arcadia. It was less than 10 minutes from their house. This hotel does NOT have a gym. It is about 30-40 minutes from airport without traffic. 30 minutes from Universal Studios without traffic and though Malibu...This hotel I must say needs the carpet updated. Overall I think the hotel is kept up nicely in a cleaning sense and the staff are extremely nice and helpful, but the carpet seems old and it has rippling in it to the point that my luggage was hard to roll. It also just felt gross to the point I didnt want to be barefoot. The is my only complaint in our 7 night stay. I cant say enough about the staff. At many hotels I have stayed at the staff are nice and you know they must be because they are trained to be and they would probably loose their job if they werent, BUT the staff here actually seemed GENUINELY kind people who truly care about your experience in LA. I have to say that of all the hotels in and out of the states that I have stayed at the staff here have left a lasting impression not only on myself but also to my 10 yr old daughter. Little facts that I experienced...If you are coming to LA for tourism it really isnt near the tourist attractions. We were visiting friends who just had a baby and they live in Arcadia. It was less than 10 minutes from their house. This hotel does NOT have a gym. It is about 30-40 minutes from airport without traffic. 30 minutes from Universal Studios without traffic and though Malibu beach may read 37 miles or so it took us over 2 hrs in the middle of a weekday :(  The hotel has free internet and breakfast and great cable channels. There was a fridge and microwave in the room and one day we ordered pizza and they delivered extremely fast to our door. Overall I cannot say enough about the staff from the housekeeping to the young lady that put breakfast out every morning and the gals and guys that ran the desk. They all deserve 10 stars each for great customer service :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r84774408-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>84774408</t>
+  </si>
+  <si>
+    <t>10/25/2010</t>
+  </si>
+  <si>
+    <t>Clean, large room with breakfast for good price</t>
+  </si>
+  <si>
+    <t>I booked this on priceline for $75 plus tax.  For the price, it was a decent stay of 4 nights, but I sorely missed an exercise room.  I found the rooms clean and large for a single king.  They are nothing that fancy, though.  The breakfast included in the price is good for the usual style of help yourself breakfast.  USA today included.  Friendly staff.  I needed to be close to this address.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r73180935-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>73180935</t>
+  </si>
+  <si>
+    <t>07/31/2010</t>
+  </si>
+  <si>
+    <t>Dont ask for extra towels</t>
+  </si>
+  <si>
+    <t>AC, bed, and shower were good.  The free breakfast was good as well.  The rooms were basic  and medium sized.  Our rug was extremely lumpy and they had clear water damageon our ceiling.   Also, we went to the front desk and asked the manager for two extra towels, and he pretended not to understand, even though we were very clear and asked him twice.  In the end he reluctantly agreed to send us the extra towels, but they were never sent up.  It seemed pretty clear that he had blown us off.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r68010114-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>68010114</t>
+  </si>
+  <si>
+    <t>06/19/2010</t>
+  </si>
+  <si>
+    <t>Bed bugs=worst stay ever!! (But decent service nonetheless)</t>
+  </si>
+  <si>
+    <t>My best friend &amp; I planned on staying for the night to attend a graduation in the area. We checked in during the afternoon to Room 302 after the graduation and took a nap before the party that night. My friend woke me up only to find small red bugs all over the bed and me. A google search identified them as bed bugs!! We went downstairs using the stairs (the light was out in the elevator!). The front desk person did give us a new bigger room, which was bug free and after talking to the manager, comped our stay. We decided to change hotels anyway and they canceled our room, no charge for anything. We stayed at the Double Tree right behind this place. The Double Tree was so much nicer! About $20 more expensive, but much cleaner &amp; nicer rooms and property.    The bed bug experience was just disgusting and the hotel itself wasn't really nice to begin with, although the staff was helpful enough in doing what they could to rectify the situation.  Just pay the extra $20 a night or so and stay at the Double Tree around the block and always check hotel beds, sheets, bedboards, wallpaper, and bedside tables for bed bugs!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>My best friend &amp; I planned on staying for the night to attend a graduation in the area. We checked in during the afternoon to Room 302 after the graduation and took a nap before the party that night. My friend woke me up only to find small red bugs all over the bed and me. A google search identified them as bed bugs!! We went downstairs using the stairs (the light was out in the elevator!). The front desk person did give us a new bigger room, which was bug free and after talking to the manager, comped our stay. We decided to change hotels anyway and they canceled our room, no charge for anything. We stayed at the Double Tree right behind this place. The Double Tree was so much nicer! About $20 more expensive, but much cleaner &amp; nicer rooms and property.    The bed bug experience was just disgusting and the hotel itself wasn't really nice to begin with, although the staff was helpful enough in doing what they could to rectify the situation.  Just pay the extra $20 a night or so and stay at the Double Tree around the block and always check hotel beds, sheets, bedboards, wallpaper, and bedside tables for bed bugs!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r51895198-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>51895198</t>
+  </si>
+  <si>
+    <t>12/26/2009</t>
+  </si>
+  <si>
+    <t>Nice Place!!!!</t>
+  </si>
+  <si>
+    <t>We were just there last weekend and we had a really good time.   The staff was amazing.  They had really good breakfast every morning not just bread and milk like other places.  The room was very spacious and very clean.   We will stay there again next time we are in that area.  The Shopping mall is right next to the hotel which was very convenient for us.</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r50247679-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>50247679</t>
+  </si>
+  <si>
+    <t>11/28/2009</t>
+  </si>
+  <si>
+    <t>Great hotel again</t>
+  </si>
+  <si>
+    <t>We stayed here last Thanksgiving weekend and stayed here again this Thanksgiving.  Our experience last year was positive and is again this year.  Our last critique included minor problems, but hotel management since corrected them.  We were met at the front desk by Jessica.  She was pleasant, professional, and helpful.  We hope that management reviews my critique and acknowledge her value to the hotel.  Since last year, the hotel upgraded their high speed internet system.  We had no problems accessing the room wireless internet.  The speed was fast in the evening, but did slow down a little in the morning.  The hotel also installed complementary high speed internet in the lobby.  Last year it was a paid service.  Overall, we were happy with the upgrade. The room was again clean and the bed and pillows were comfortable.  The “Great Room” is still relatively small, but the complementary breakfast is still great.  I again went for the biscuits and gravy. Again, thanks to hotel management for doing a good job.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>We stayed here last Thanksgiving weekend and stayed here again this Thanksgiving.  Our experience last year was positive and is again this year.  Our last critique included minor problems, but hotel management since corrected them.  We were met at the front desk by Jessica.  She was pleasant, professional, and helpful.  We hope that management reviews my critique and acknowledge her value to the hotel.  Since last year, the hotel upgraded their high speed internet system.  We had no problems accessing the room wireless internet.  The speed was fast in the evening, but did slow down a little in the morning.  The hotel also installed complementary high speed internet in the lobby.  Last year it was a paid service.  Overall, we were happy with the upgrade. The room was again clean and the bed and pillows were comfortable.  The “Great Room” is still relatively small, but the complementary breakfast is still great.  I again went for the biscuits and gravy. Again, thanks to hotel management for doing a good job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r46196210-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>46196210</t>
+  </si>
+  <si>
+    <t>10/08/2009</t>
+  </si>
+  <si>
+    <t>spectacular view</t>
+  </si>
+  <si>
+    <t>We had a great time the service was very good and the view was pleasurable</t>
+  </si>
+  <si>
+    <t>October 2009</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1752,3422 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>94</v>
+      </c>
+      <c r="X10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>175</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>187</v>
+      </c>
+      <c r="X23" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>187</v>
+      </c>
+      <c r="X24" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>187</v>
+      </c>
+      <c r="X25" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" t="s">
+        <v>212</v>
+      </c>
+      <c r="L27" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>207</v>
+      </c>
+      <c r="O27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" t="s">
+        <v>110</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>226</v>
+      </c>
+      <c r="X29" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>241</v>
+      </c>
+      <c r="O31" t="s">
+        <v>141</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>248</v>
+      </c>
+      <c r="X32" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>252</v>
+      </c>
+      <c r="J33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K33" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" t="s">
+        <v>255</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>247</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>256</v>
+      </c>
+      <c r="X33" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34" t="s">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s">
+        <v>263</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>247</v>
+      </c>
+      <c r="O34" t="s">
+        <v>76</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>264</v>
+      </c>
+      <c r="X34" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" t="s">
+        <v>269</v>
+      </c>
+      <c r="K35" t="s">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s">
+        <v>271</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>272</v>
+      </c>
+      <c r="O35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>273</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>274</v>
+      </c>
+      <c r="J36" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36" t="s">
+        <v>276</v>
+      </c>
+      <c r="L36" t="s">
+        <v>277</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>272</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>278</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>279</v>
+      </c>
+      <c r="J37" t="s">
+        <v>280</v>
+      </c>
+      <c r="K37" t="s">
+        <v>281</v>
+      </c>
+      <c r="L37" t="s">
+        <v>282</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>283</v>
+      </c>
+      <c r="O37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>286</v>
+      </c>
+      <c r="J38" t="s">
+        <v>287</v>
+      </c>
+      <c r="K38" t="s">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>290</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>292</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>293</v>
+      </c>
+      <c r="J39" t="s">
+        <v>294</v>
+      </c>
+      <c r="K39" t="s">
+        <v>295</v>
+      </c>
+      <c r="L39" t="s">
+        <v>296</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>297</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>299</v>
+      </c>
+      <c r="J40" t="s">
+        <v>300</v>
+      </c>
+      <c r="K40" t="s">
+        <v>301</v>
+      </c>
+      <c r="L40" t="s">
+        <v>302</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>303</v>
+      </c>
+      <c r="O40" t="s">
+        <v>76</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>304</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>305</v>
+      </c>
+      <c r="J41" t="s">
+        <v>306</v>
+      </c>
+      <c r="K41" t="s">
+        <v>307</v>
+      </c>
+      <c r="L41" t="s">
+        <v>308</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>309</v>
+      </c>
+      <c r="O41" t="s">
+        <v>76</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>312</v>
+      </c>
+      <c r="J42" t="s">
+        <v>313</v>
+      </c>
+      <c r="K42" t="s">
+        <v>314</v>
+      </c>
+      <c r="L42" t="s">
+        <v>315</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>316</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" t="s">
+        <v>320</v>
+      </c>
+      <c r="K43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L43" t="s">
+        <v>322</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>323</v>
+      </c>
+      <c r="X43" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>326</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>327</v>
+      </c>
+      <c r="J44" t="s">
+        <v>328</v>
+      </c>
+      <c r="K44" t="s">
+        <v>329</v>
+      </c>
+      <c r="L44" t="s">
+        <v>330</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>331</v>
+      </c>
+      <c r="O44" t="s">
+        <v>76</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>333</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>334</v>
+      </c>
+      <c r="J45" t="s">
+        <v>335</v>
+      </c>
+      <c r="K45" t="s">
+        <v>336</v>
+      </c>
+      <c r="L45" t="s">
+        <v>337</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>338</v>
+      </c>
+      <c r="O45" t="s">
+        <v>76</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>339</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>340</v>
+      </c>
+      <c r="J46" t="s">
+        <v>341</v>
+      </c>
+      <c r="K46" t="s">
+        <v>342</v>
+      </c>
+      <c r="L46" t="s">
+        <v>343</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>338</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>344</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>345</v>
+      </c>
+      <c r="J47" t="s">
+        <v>346</v>
+      </c>
+      <c r="K47" t="s">
+        <v>347</v>
+      </c>
+      <c r="L47" t="s">
+        <v>348</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>349</v>
+      </c>
+      <c r="O47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>351</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>352</v>
+      </c>
+      <c r="J48" t="s">
+        <v>353</v>
+      </c>
+      <c r="K48" t="s">
+        <v>354</v>
+      </c>
+      <c r="L48" t="s">
+        <v>355</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>356</v>
+      </c>
+      <c r="O48" t="s">
+        <v>110</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>357</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>358</v>
+      </c>
+      <c r="J49" t="s">
+        <v>359</v>
+      </c>
+      <c r="K49" t="s">
+        <v>360</v>
+      </c>
+      <c r="L49" t="s">
+        <v>361</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>362</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>364</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>365</v>
+      </c>
+      <c r="J50" t="s">
+        <v>366</v>
+      </c>
+      <c r="K50" t="s">
+        <v>367</v>
+      </c>
+      <c r="L50" t="s">
+        <v>368</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>369</v>
+      </c>
+      <c r="O50" t="s">
+        <v>76</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>370</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>371</v>
+      </c>
+      <c r="J51" t="s">
+        <v>372</v>
+      </c>
+      <c r="K51" t="s">
+        <v>373</v>
+      </c>
+      <c r="L51" t="s">
+        <v>374</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>375</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>376</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>377</v>
+      </c>
+      <c r="J52" t="s">
+        <v>378</v>
+      </c>
+      <c r="K52" t="s">
+        <v>379</v>
+      </c>
+      <c r="L52" t="s">
+        <v>380</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>381</v>
+      </c>
+      <c r="O52" t="s">
+        <v>110</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>383</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>384</v>
+      </c>
+      <c r="J53" t="s">
+        <v>385</v>
+      </c>
+      <c r="K53" t="s">
+        <v>386</v>
+      </c>
+      <c r="L53" t="s">
+        <v>387</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>388</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>389</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>390</v>
+      </c>
+      <c r="J54" t="s">
+        <v>391</v>
+      </c>
+      <c r="K54" t="s">
+        <v>392</v>
+      </c>
+      <c r="L54" t="s">
+        <v>393</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>394</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>396</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>397</v>
+      </c>
+      <c r="J55" t="s">
+        <v>398</v>
+      </c>
+      <c r="K55" t="s">
+        <v>399</v>
+      </c>
+      <c r="L55" t="s">
+        <v>400</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>401</v>
+      </c>
+      <c r="O55" t="s">
+        <v>76</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_280.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_280.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="456">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>wongfamily2016</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>DinoNico</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r561353976-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>HeavenlyLisaLuv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r553454616-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>This review is long over due, but I just had to leave a review for a great hotel. This hotel is located on the corner and pretty easy to find. We were warmly greeted upon entering the hotel. The area and the room was pretty clean.I would definitely recommend staying here, great customer service, free parking, and free breakfast is a plus and hard to find in the LA area. Breakfast consisted of sausage,bacon, waffles, juice bar, coffee bar, eggs, toast, oatmeal, cereal, and fruit.This place is about 10-15 minutes away from downtown LA and there is a Mcdonald's and a shopping mall across the street. We enjoyed our stay here.More</t>
   </si>
   <si>
+    <t>Wayne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r538830213-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Ken N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r528380457-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Todd B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r526521789-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t xml:space="preserve">I have stayed nearly 30 nights at this property and this is a nice and clean hotel. The staff are friendly and the breakfast is very good. The property is fairly new and it is well maintained. The GM is nice and I feel welcomed at this hotel. </t>
   </si>
   <si>
+    <t>COcrazyhouseof5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r504764995-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>My daughter and I spent one night here on our way to San Diego for a softball tournament. We used my husbands points for our stay. Conveniently located next to the Pomona freeway and only about 15 minutes to downtown LA.We enjoyed our stay. Comfortable beds, great shower pressure, good breakfast. Would stay here again... my only issue( and really minor) was that the free WIFI wasn't the best, but worked for what we needed it for...More</t>
   </si>
   <si>
+    <t>SealeJoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r504349030-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -331,6 +355,9 @@
   </si>
   <si>
     <t>Good location! Close to Dodger Stadium, and easy access on/off the freeway. Fast food across the street, and nice outdoor pool. No noise from the freeway. Good people and free breakfast, free parking. The room was nice and seemed fairly new, especially the bathroom. More</t>
+  </si>
+  <si>
+    <t>Nicholas D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r503628895-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -360,6 +387,9 @@
 We loved our stay there. There are no words to describe how wonderful the employees at this property are. I worked in a Courtyard for about 3 years in Montreal, and this is by far the best Marriott i've been to. The customer service is...Me and my best friend booked ourselves a weekend in LA for the very first time ever. I have been dreaming to go there since a boy. We got welcomed to the hotel by RENE and a new front desk agent which I could not remember her name besides, blond hair, nice smile and glasses. We wanted to pay in advance so we take a smaller deposit on our credit card but he informed us of the policy of this hotel and he couldn't do it, perhaps he made the wonderful exception of helping us out and dividing it both for us. I really appreciated his help in this situation. He then helped us with some questions we had for our trip. Our first day out, we passed by the front desk and got ALEX , which is an amazing employee. He is so wonderful. We asked for directions to places we wanted to go see in Hollywood and some restaurants to go to. He printed everything out and directed us with information. Simply the best. Our second morning, we got Alex again to help us go to Downtown LA, he was , again, wonderful.We loved our stay there. There are no words to describe how wonderful the employees at this property are. I worked in a Courtyard for about 3 years in Montreal, and this is by far the best Marriott i've been to. The customer service is on point, always a smile and always a greeting coming in. It is those little details that make a guests stay special and for my best friends first ever trip out of canada found it amazing. ALL THE FRONT DESK need a SHOUT OUT for their amazing customer service !!!! We are coming back at the end of August and will probably come back to this property if price permitting.Thank you all for everything you have done to make us feel like home! see you soon!!More</t>
   </si>
   <si>
+    <t>Ram0na_M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r479197052-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -378,6 +408,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>SGO007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r478702334-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Ron L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r473933676-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -414,6 +450,9 @@
     <t>I'm not sure I've rated Fairfield Inns five stars before, I will have to check.  This hotel checked all the boxes for a very nice business stay for me.  Great friendly staff, nice breakfast each morning and the room was very modern, probably recently renovated.  I got a great night's sleep every night.  They even have Wall Street Journals not the Useless A Today that all other Fairfield's seem to only have.The only critique would be that the parking spaces are very tight.  Where it says "compact car" they mean it.  A full size SUV won't fit there.  I didn't have any trouble finding a parking space though.If in the area I will certainly return.More</t>
   </si>
   <si>
+    <t>Amy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r437973435-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -432,6 +471,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>prutchi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r435214281-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -450,6 +492,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Lisa L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r433989277-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -465,6 +510,9 @@
     <t xml:space="preserve">Rosemead is location easy of downtown &amp; south of Pasadena. About 20 minutes from either direction. Santa Monica is just about 50 minutes away. We were able to get everywhere we need to go within a comfortable drive. Plenty of onsite free parking along with free breakfast &amp; a balcony in our room. The hotel looks &amp; feels brand new. Bathroom is extremely clean &amp; roomy. I was extremely please &amp; will definitely stay here again next time.  </t>
   </si>
   <si>
+    <t>Elton K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r415197950-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -486,6 +534,9 @@
     <t>Just returned from a 9 days trip to LAX and LAS to finish off the summer before kids going back to school. We stayed at the Fairfield Inn for 5 nights while we explored LA. I was first a little hesitant about the location but it turned out to be very convenient; took us only 20 mins and 30 mins to Universal and Disneyland, respectively. As mentioned by other travelers, this property recently undergone a major renovation and for the most parts do look and feel relatively new, with the exception of the air conditioning units. The AC unit in our room was loud, and it's placed literally right next to the bed (we were in a double beds room) so not a whole lot of quality sleep in the first few nights. On the other hand, service was excellent as you would expect from the Marriott brand; every employees we encountered were very pleasant and professional. We also took advantage of the complimentary breakfast which serves the standard Fairfield / Residence Inn items; the breakfast area was well organized and kept very clean. We also enjoyed the use of the outdoor pool &amp; hot tub; it is a good sized pool and the area was well-maintained. A suggestion to have the towels placed in the pool area rather than at the front desk as this arrangement is not very convenient. Aside from the couple of small misses, the Fairfield...Just returned from a 9 days trip to LAX and LAS to finish off the summer before kids going back to school. We stayed at the Fairfield Inn for 5 nights while we explored LA. I was first a little hesitant about the location but it turned out to be very convenient; took us only 20 mins and 30 mins to Universal and Disneyland, respectively. As mentioned by other travelers, this property recently undergone a major renovation and for the most parts do look and feel relatively new, with the exception of the air conditioning units. The AC unit in our room was loud, and it's placed literally right next to the bed (we were in a double beds room) so not a whole lot of quality sleep in the first few nights. On the other hand, service was excellent as you would expect from the Marriott brand; every employees we encountered were very pleasant and professional. We also took advantage of the complimentary breakfast which serves the standard Fairfield / Residence Inn items; the breakfast area was well organized and kept very clean. We also enjoyed the use of the outdoor pool &amp; hot tub; it is a good sized pool and the area was well-maintained. A suggestion to have the towels placed in the pool area rather than at the front desk as this arrangement is not very convenient. Aside from the couple of small misses, the Fairfield Inn Rosemead is a solid choice if you are looking to travel to this area.More</t>
   </si>
   <si>
+    <t>ajnuff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r413698596-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -501,6 +552,9 @@
     <t>This is an older structure that has been completely remodeled inside and out.  It's like new in most respects, clean and well-maintained.  The bed was comfortable, internet speed was good, and the water pressure in the shower was excellent.  Access is a bit odd, as you can approach from only one direction and leave only in the opposite direction.  The TV, although an HD widescreen model, carried only SD channels.  And I did see a small lizard running through the hallway - that might turn some folks off.  My stay was good and I recommend this place.</t>
   </si>
   <si>
+    <t>DavidRAddison70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r412730258-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -514,6 +568,9 @@
   </si>
   <si>
     <t>The room was clean, large enough for my son and I. The staff was very friendly. We also took advantage of the free breakfast. I usually don't like hotel coffee at all, but I was pleasantly surprised by their good coffee. The hotel is very close to Hollywood, it only took half an hour to get there, 45 minutes to get back. Also it was convenient to get to the Rose Bowl for a  Coldplay concert.</t>
+  </si>
+  <si>
+    <t>D4004BUmichaelh</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r403838001-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -538,6 +595,9 @@
 Only negative was a slight musty odor in the room from the wall a/c. Although, it was not a big deal and not overwhelming or strong. Overall the Fairfield Inn &amp;...Stayed at the Fairfield Inn &amp; Suites Los Angeles Rosemead over a weekend. The hotel is relatively new and located about 20-30 minutes east of LA. We used our Marriott Visa free night stay certificate to stay at the hotel. The hotel is located just off HWY 60 and around the corner from a shopping mall. We were in town to see the Dodgers play and it literally took us about 30 minutes to get to and from the ballpark. The hotel is also about 30-40 minutes from LAX with no traffic on a Sunday. Gas is about $2 cheaper by the hotel than at the airport. The hotel is clean and the staff was very nice. I received a phone call ahead of my stay asking if there were any special requests and welcoming me to their hotel. Nice touch for the Fairfield Inn. The rooms are clean and the bathrooms are nice. Beds and pillows are comfortable and an improvement over older Fairfield Inns. Excellent water pressure in the shower - especially for California. Free breakfast each morning and decent workout room with free weights, bench, new cardio equipment. The rooms also have a microwave and small fridge, which we used while we stayed at the hotel.Only negative was a slight musty odor in the room from the wall a/c. Although, it was not a big deal and not overwhelming or strong. Overall the Fairfield Inn &amp; Suites Los Angeles Rosemead is a great location and we plan to stay there again, rather than a downtown LA Marriott property for twice the rate.More</t>
   </si>
   <si>
+    <t>Alexander W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r395890188-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -556,6 +616,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>emmitaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r393019627-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -571,6 +634,9 @@
     <t>Staff was amazing and amiable ! We loved loved them and the hotel was beautiful and looks new. Area was distinctly modern and close to a great hibachi place!  We stayed 2 nights and free breakfast is always a plus! There's a close by mall where you find pubs and famous eateries and stores.</t>
   </si>
   <si>
+    <t>Bernardo F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r370426588-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -598,6 +664,9 @@
     <t>The hotel is completely renovated, and certainly in a different style of typical Fairfields.  Most of the rooms look like they have balconies.  The service is really nice and friendly for sure.  I got upgraded to a large suite which was clean and well kept. Nice furniture, and a decent mattress.  The walls are a little thin and I could hear next door a bit.  My room only had a stall shower, so if you want a tub, I'm not sure other rooms have them. Decent pool. The hotel is close to a big mall and a few restaurants, but mostly residential around, but right at the entrance to hwy 60.  Take a room that doesn't face busy San Gabriel Blvd or Town Center Road as there's quite a bit of road noise.  The price was certainly good for the area.More</t>
   </si>
   <si>
+    <t>Darren S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r366390675-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -616,6 +685,9 @@
     <t>I stayed here for just one night, as I was working in Bell Gardens fairly nearby.It used to be another hotel that needed work, but has now been totally renovated and branded Fairfield.The lobby is bright and modern and immediately makes you feel relaxed.More importantly the rooms are very well done. It's obvious it's an older property by the layout, but the bones are what they are. The rooms have been very well updated and have everything you could need. The shower is hilarious, pressure washer would be a better description. I loved it.My only complaint is the rad noise from outside is a little louder than I would have liked, but I still slept well.Breakfast was good and coffee was excellent. I'd go as far to say the best hotel coffee to date. IHG should take note.Staff were super friendly as well. I really cannot fault this hotel.I will definitely stay here again, if I'm in the area.More</t>
   </si>
   <si>
+    <t>ALEX P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r366320731-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -634,6 +706,9 @@
     <t>Close to LA, this remodeled Fairfield was a nice place to visit. The staff was great - very helpful and friendly. The rooms have been updated and are fine. The building is older, but the bed was very comfortable. Great work area and internet (free). Small coffee maker in room, with a small microwave and refrigerator too. Bathrooms have been updated and are large and the shower is a walk-in - nice.Close to fast food - across the street. Many restaurants within a short drive. Breakfast. Nothing over the top, but plenty to choose from - OK. Nice looby area and I see they have a pool. Free parking.More</t>
   </si>
   <si>
+    <t>cotjos213</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r277391627-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -655,6 +730,9 @@
     <t>I made reservations here at this hotel through Hotels.com. I thought is would be a nice place to stay in while visiting my family here in L.A. because I actually payed $98 dollars a night for two nights stay. I was wrong! Upon arrival, there was construction all over the hotel. It was dusty and dirty. The website did not state any renovations or construction was going on. I was tired from traveling from Northern California so we decided to stay. The room we checked in seemed nice, but not entirely completed. During the nigh I had a sudden and strong itch; as it woke it me up from a deep sleep, I shook my t-shirt thinking it was a spider, but to my surprise, it was a huge and fat bed bug. It got me pretty good...I searched for more bugs, but it appeared to have been the only one, hmmm lucky me. I placed it in a plastic zip bag and turned it in to the front desk upon almost immediate check out. The girl kindly apologized and told me to call the manager the next day. I will call and try to get at least half the money back. I was left sleepless and tires with some bad and swollen bites. I will never stay here again and be more cautious if I stay at another hotel in the near future.More</t>
   </si>
   <si>
+    <t>Tom B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r274915548-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -670,6 +748,9 @@
     <t>Under construction and not in good shape. I was in one of the rooms that had already been renovated and was not impressed with it. The pillows were lumpy, the bed was a rock and the breakfast was the worst I have seen in a hotel</t>
   </si>
   <si>
+    <t>Uscream</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r244824234-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -688,6 +769,9 @@
     <t>I stayed one night, complained about the noisy toilet, filthy carpet, filthy and stained ironing board, elevator wasnt working so we took the stairs which were superbly dirty and stained and awful, horrible ugly looking bananas n bagel for breakfast, dirty, bathtub horribly dirty, towels dirty and raggedy (my car towels r much cleaner), and no one cared i askwd for me manager and manager didnt show up until after 11 in which they charged an extra day and the manager took me to show another room and it was smelly cigarette and all cloudy of smoking in non smoking area (inn smells horrible) and they said they could not so anything, but manager agreed too much cigarrette smoke but carpets in Inn are super old n have no means to replace until future so i checked out! Worst place ever and i would never recommend it ever. And EXPENSIVE they forget its not the Holiday Inn anymoreMore</t>
   </si>
   <si>
+    <t>anubiswong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r226891494-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -715,6 +799,9 @@
     <t>Stay for 6 nights in this hotel while visiting LA. The staffs are nice and very helpful, and there has a shopping mall just a few distance from the hotel! Nice! And also this hotel provides DECAF coffee!! OMG decaf coffee! very surprise! because I can drink normal coffee after lunch time, I feel very warm and happy about this coffee^^More</t>
   </si>
   <si>
+    <t>vinn_2k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r208959043-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -736,6 +823,9 @@
     <t>Stayed here for 4 nights in April as part of a tour group of Tours4fun.  I liked this property from the moment I entered.  Cheerful and friendly staff, a computer to check your mails or if you carry your laptop, free wifi, a table set every evening offering free water, tea/coffee and fruits. The breakfast room is very small, but lovely breakfast...The room is a bit dated with old carpets but still very functional, and very very comfortable.  The A/c worked beautifully, the toilet was clean and toileteries were provided. Towels were soft and the bed was very comfortable as well.   As far as the location is concered, being part of the tour, I was only concerned about the food.  Opposite the hotel is a Mc Donalds, and 5 minutes walk away is a hugeeeeeeee mall with a lovely foodcourt thats very reasonably priced. Overall, so much of fruit around that it was sufficient to carry away and have for lunch !   On the whole, very very happy with this property and strongly recommend.   Those who are looking for spotless carpets, huge dining rooms, etc, look else where.... FOr what I paid, this property was a bargain.  A former Holiday Inn, I am told its changing to the Marriott or someother brand, but if the rates, service and staff remain the same, this is a Value for money Hotel....More</t>
   </si>
   <si>
+    <t>10levitra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r204043719-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -754,6 +844,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>richann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r164022552-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -781,6 +874,9 @@
     <t>Stayed 2nd to 6th June 2013.   The hotel is a bit old but the staff and location more than make up for it. Tracy in the breakfast room was fantastic, a dedicated worker and was truly interested in making sure everything was OK.   Reception and other staff very helpful and importantly cheerful.  Rooms a bit dated but clean and spacious.   Definitely stay there again if in the area.More</t>
   </si>
   <si>
+    <t>HizCreation</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r161997003-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -805,6 +901,9 @@
     <t>It's been an amazing experience during our recent stay at HIE. The staff was friendly. The room was clean and no smoky smell. The breakfast served daily had good variety. The water pressure was good for a satisfying shower.More</t>
   </si>
   <si>
+    <t>papamac56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r160381354-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -829,6 +928,9 @@
     <t>This was one of my worst experiences at a Holiday Inn Express stays.  The hotel was very old in design and atmosphere. There was a musty, damp smell in the hotel.  The room was adequate but the internet was terrible. I do a lot of work while traveling for business via the internet and I could not complete simple tasks due to slow internet. I tried to download and print an Excel spreadsheet at the business center  (joke) a computer in the lobby. It could not download the document. I mentioned this to the staff and the desk clerk just gave me a stupid grin and shrugged her shoulders not comment.More</t>
   </si>
   <si>
+    <t>Michael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r156137641-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -847,6 +949,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Danielle L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r155091953-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -860,6 +965,9 @@
   </si>
   <si>
     <t>We stayed here on our visit to celebrate my grandpa's 102nd birthday. It was in a convenient location and close to the mall which was great. The hotel was clean and the staff was very friendly and helpful. The continental breakfast was good also.</t>
+  </si>
+  <si>
+    <t>Eulalia_3</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r152156071-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -901,6 +1009,9 @@
 Also, unfortunately, there is no fitness center.  -- I was pleasantly told that this was because of the age ... hmmmm, I know for sure that two rooms could be converted into an exercise room.  They should have just said, "we're so sorry, we just don't have an exercise room and...First, I'd like to start by saying that this hotel is unque in that it is one of the 1st Holiday Inn Express Hotels in So. Cal.  (Approx. 18 years old)The man at the desk said it was the first to start construction, but then another HIE in the Long Beach area was completed before it. -- (Just some trivia.)It is dated inside....a bit "tired" in some areas, but very clean and very pleasant.With that said, I would definitely stay again!Each room had nice balconies ... ask for a pool side vs a highway side room.The hotel location is good for travel, but it is wedged on the corner of 2 busy roads.  Esther at the desk went above and beyond to meet my needs.  She was extremely pleasant!I had a pool/center hotel room and there were bright lights on all night long outside the balconies.  Unfortunately, the room curtains did not block 100% of the light.  (I like to sleep when it is super dark.)Because of the age, there were few outlets .... but plenty of towels and great hot water.Also, unfortunately, there is no fitness center.  -- I was pleasantly told that this was because of the age ... hmmmm, I know for sure that two rooms could be converted into an exercise room.  They should have just said, "we're so sorry, we just don't have an exercise room and not used the hotel age excuse."... once again --- would definitely stay at hotel again!: -)More</t>
   </si>
   <si>
+    <t>ilove2travel951</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r146227215-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -922,6 +1033,9 @@
     <t>Very friendly service and, very! clean room. Upon arrival, I was met by an extremely friendly staff (Esther), who checked me in within minutes. Five minutes after settling down in my room, I received a call from the front desk inquiring on whether I needed anything else in the room, and whether the room was in good condition. This sense of attention to detail is what makes ones experience pleasant.  Additionally, they have a nice warm breakfast from 6-10am. Given I was there with my wife and 2 kids, the kids loved the endless pancakes (all included in the room fee).When I checked out, I was faced with the same friendly and courteous staff who even offered my family bottles of water for the road. I left that place knowing I will be back!More</t>
   </si>
   <si>
+    <t>jsjxyz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r146129558-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -940,6 +1054,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>Lo Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r141621714-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -958,6 +1075,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>fire-tower</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r135784904-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -979,6 +1099,9 @@
     <t>I stayed here for a week in July 2012, and I must say that the staff, especially at the front desk, are genuinely friendly!  The rooms here are generally large, and the water pressure in the bathroom is decent. It has a shopping mall, a gas station and 2 restaurants nearby. There are also 2 fast food joints across the road, one being McDonalds. The breakfast area is small, and you eat using disposable plates, forks, spoons and knives.  Also, the property seemed to need a little work (in terms of upgrading), especially the carpeting, elevator and air conditioner (a little noisy), although the place is generally well maintained.  It's a little expensive, compared to the motel across the freeway.  This is the first HIE I am staying at, so may be i am expecting too much ....More</t>
   </si>
   <si>
+    <t>yolanda h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r131786159-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1000,6 +1123,9 @@
     <t>Nice Hotel, clean, the lady in the reception area was very friendly.  We stayed 1 night on our way back to San Jose from LA because we were very tired so we decided to get a night sleep and continue in the morning.  The bad thing was we didn't rest very well, the beds were very hard and around 2 in the morning there was stomping on the room right above ours, there was opening and closing of cabinets and there were balconys for each room, we woke up and unable to get any sleep after that because they decided to go on the balcony and continue to make alot of noise so that is why I am giving this hotel an average review.More</t>
   </si>
   <si>
+    <t>caltrave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r129413127-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1024,6 +1150,9 @@
     <t>I do not write reviews.  After my stay at the HIE Express Rosemead, I feel that I have to write this review.  I am a Priority Club Platinum Elite member and have stayed at IHG properties worldwide.  This is the worst property ever.  It is a disgrace to the IHG group of hotels for the following reasons:It looks and feels like a motelOld property, stuck in the last centuryOld carpet, elevator etc.Popcorn ceilingRoom carpet was heavily covered with cleaning powder to mask the smellVery basic toiletriesVery sad breakfast area conditionVery old window acOld furnitures from the last century, makes the room almost haunted lookingDo not pay more than $50 for the room.It is an ok place if you camMore</t>
   </si>
   <si>
+    <t>RandD517</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r126176168-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1045,6 +1174,9 @@
     <t>I have been a loyal HI stayer for 15 yrs and I have never written a review before now.  This HI express staff should be the poster employess for the entire chain.  They were prompt, welcoming and seem to be happy to take care of you.  Everyone at the hotel greets you and asks if there is anything you need.All the reviews about the condition of hotel forget about it.  Yes it isn't all brand new and remodel ( expcet the lobby) but I have stayed in Crowne Plazas much worse.  Everything was very clean and had what a needed in my room for the brief stay.  Excellent TV etc.  Locfation is right by a Mall that has nice eating choices.  Fast food nearby if thats your sort of thing.Safe area to stay and convenient to get around.  I was there for business not pleasure so can't speak to any tourist things.Again staff you are the best.More</t>
   </si>
   <si>
+    <t>budgetfreak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r125380719-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1063,6 +1195,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Littoxskittle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r124895107-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1078,6 +1213,9 @@
     <t>The hotel is nice, convenient, easy to get to from where we needed to be. The staff is very friendly (except for the older asian lady that so happens to be a manager, she can go somewhere.) and they were able to accommodate for things that we needed. My only concern was the beds, aren't very comfortable and it gets reaaaally chilly at night. We put the heater on full blast maybe an hr or two before actually going to bed but it didn't seem to help. Adding in a comforter definitely wouldn't hurt. But overall good, mostly because of the cleanliness.</t>
   </si>
   <si>
+    <t>sweetenergytravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r119772681-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1099,6 +1237,9 @@
     <t>I stay a weekend here almost monthly for business for the past year, I'm only just now getting around to reviewing it. It's conveniently located to the 60 highway (entrance ramp is right across the street from the hotel) and the mall at Montebello (2 short blocks = 5 min walk).  My room has always been clean and comfortable.  I would not call it motel standards by far.  It's not luxury either, though.  For business travel it works for me, I get free Wi-fi, breakfast, a hot shower, working AC/ heat, and a decent bed (No, you won't find the signature Westin and Double Tree "heavenly" bedding here!). What more do you need for basic travel? I won't comment on the cost because the job pays for it, however, I have seen their listed rates and it looks reasonable online, unless it's a holiday weekend.More</t>
   </si>
   <si>
+    <t>cu u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r119161986-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1115,6 +1256,9 @@
   </si>
   <si>
     <t>March 2011</t>
+  </si>
+  <si>
+    <t>kelerica</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r118094336-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -1140,6 +1284,9 @@
 Little facts that I experienced...If you are coming to LA for tourism it really isnt near the tourist attractions. We were visiting friends who just had a baby and they live in Arcadia. It was less than 10 minutes from their house. This hotel does NOT have a gym. It is about 30-40 minutes from airport without traffic. 30 minutes from Universal Studios without traffic and though Malibu...This hotel I must say needs the carpet updated. Overall I think the hotel is kept up nicely in a cleaning sense and the staff are extremely nice and helpful, but the carpet seems old and it has rippling in it to the point that my luggage was hard to roll. It also just felt gross to the point I didnt want to be barefoot. The is my only complaint in our 7 night stay. I cant say enough about the staff. At many hotels I have stayed at the staff are nice and you know they must be because they are trained to be and they would probably loose their job if they werent, BUT the staff here actually seemed GENUINELY kind people who truly care about your experience in LA. I have to say that of all the hotels in and out of the states that I have stayed at the staff here have left a lasting impression not only on myself but also to my 10 yr old daughter. Little facts that I experienced...If you are coming to LA for tourism it really isnt near the tourist attractions. We were visiting friends who just had a baby and they live in Arcadia. It was less than 10 minutes from their house. This hotel does NOT have a gym. It is about 30-40 minutes from airport without traffic. 30 minutes from Universal Studios without traffic and though Malibu beach may read 37 miles or so it took us over 2 hrs in the middle of a weekday :(  The hotel has free internet and breakfast and great cable channels. There was a fridge and microwave in the room and one day we ordered pizza and they delivered extremely fast to our door. Overall I cannot say enough about the staff from the housekeeping to the young lady that put breakfast out every morning and the gals and guys that ran the desk. They all deserve 10 stars each for great customer service :)More</t>
   </si>
   <si>
+    <t>AL1470</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r84774408-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1158,6 +1305,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>tablespace</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r73180935-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1176,6 +1326,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>Kayin26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r68010114-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1197,6 +1350,9 @@
     <t>My best friend &amp; I planned on staying for the night to attend a graduation in the area. We checked in during the afternoon to Room 302 after the graduation and took a nap before the party that night. My friend woke me up only to find small red bugs all over the bed and me. A google search identified them as bed bugs!! We went downstairs using the stairs (the light was out in the elevator!). The front desk person did give us a new bigger room, which was bug free and after talking to the manager, comped our stay. We decided to change hotels anyway and they canceled our room, no charge for anything. We stayed at the Double Tree right behind this place. The Double Tree was so much nicer! About $20 more expensive, but much cleaner &amp; nicer rooms and property.    The bed bug experience was just disgusting and the hotel itself wasn't really nice to begin with, although the staff was helpful enough in doing what they could to rectify the situation.  Just pay the extra $20 a night or so and stay at the Double Tree around the block and always check hotel beds, sheets, bedboards, wallpaper, and bedside tables for bed bugs!More</t>
   </si>
   <si>
+    <t>mzmommy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r51895198-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1215,6 +1371,9 @@
     <t>December 2009</t>
   </si>
   <si>
+    <t>pomimi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r50247679-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1234,6 +1393,9 @@
   </si>
   <si>
     <t>We stayed here last Thanksgiving weekend and stayed here again this Thanksgiving.  Our experience last year was positive and is again this year.  Our last critique included minor problems, but hotel management since corrected them.  We were met at the front desk by Jessica.  She was pleasant, professional, and helpful.  We hope that management reviews my critique and acknowledge her value to the hotel.  Since last year, the hotel upgraded their high speed internet system.  We had no problems accessing the room wireless internet.  The speed was fast in the evening, but did slow down a little in the morning.  The hotel also installed complementary high speed internet in the lobby.  Last year it was a paid service.  Overall, we were happy with the upgrade. The room was again clean and the bed and pillows were comfortable.  The “Great Room” is still relatively small, but the complementary breakfast is still great.  I again went for the biscuits and gravy. Again, thanks to hotel management for doing a good job.More</t>
+  </si>
+  <si>
+    <t>chiiqqyy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r46196210-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -1756,43 +1918,47 @@
       <c r="A2" t="n">
         <v>7187</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146876</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1812,50 +1978,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>7187</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146877</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1869,50 +2039,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>7187</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146878</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1924,56 +2098,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7187</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>17616</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1991,50 +2169,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>7187</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>21448</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2048,50 +2230,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7187</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>19551</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>87</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2105,50 +2291,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7187</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146879</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2160,56 +2350,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="X8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7187</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146880</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>100</v>
       </c>
-      <c r="L9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>93</v>
-      </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2221,56 +2415,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7187</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>26742</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2288,56 +2486,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="X10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>7187</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146881</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2357,50 +2559,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>7187</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>117545</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2418,50 +2624,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>7187</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>62046</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>127</v>
       </c>
-      <c r="L13" t="s">
-        <v>128</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>117</v>
-      </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2475,50 +2685,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>7187</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>43783</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2532,50 +2746,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>7187</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146882</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2589,50 +2807,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>7187</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2646,50 +2868,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>7187</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146883</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2709,50 +2935,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>7187</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>48537</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2766,50 +2996,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>7187</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146884</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2827,50 +3061,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>7187</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146885</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>168</v>
       </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>152</v>
-      </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2888,50 +3126,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>7187</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>102624</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -2949,50 +3191,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>7187</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146886</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3006,50 +3252,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>7187</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>19763</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3067,47 +3317,51 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="X23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Y23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>7187</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>39742</v>
+      </c>
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
@@ -3124,56 +3378,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="X24" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Y24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>7187</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>43472</v>
+      </c>
+      <c r="C25" t="s">
+        <v>219</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3191,56 +3449,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="X25" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Y25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>7187</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146887</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3260,50 +3522,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>7187</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>3147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>234</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="J27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="O27" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3323,41 +3589,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>7187</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146888</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
@@ -3386,50 +3656,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>7187</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146889</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3447,56 +3721,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="X29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="Y29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>7187</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146890</v>
+      </c>
+      <c r="C30" t="s">
+        <v>257</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3520,50 +3798,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>7187</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146891</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -3587,50 +3869,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>7187</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146892</v>
+      </c>
+      <c r="C32" t="s">
+        <v>272</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3652,56 +3938,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="X32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="Y32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>7187</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146893</v>
+      </c>
+      <c r="C33" t="s">
+        <v>282</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="J33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -3723,56 +4013,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="X33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="Y33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>7187</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146894</v>
+      </c>
+      <c r="C34" t="s">
+        <v>291</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="J34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="O34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -3794,56 +4088,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="X34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="Y34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>7187</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>321</v>
+      </c>
+      <c r="C35" t="s">
+        <v>300</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="J35" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="K35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="O35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3867,50 +4165,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>7187</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>23840</v>
+      </c>
+      <c r="C36" t="s">
+        <v>307</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="J36" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="K36" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="L36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -3934,50 +4236,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>7187</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>42315</v>
+      </c>
+      <c r="C37" t="s">
+        <v>313</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="J37" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="K37" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="O37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4001,50 +4307,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>7187</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146895</v>
+      </c>
+      <c r="C38" t="s">
+        <v>321</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="J38" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="K38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="L38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4068,50 +4378,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>7187</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146896</v>
+      </c>
+      <c r="C39" t="s">
+        <v>329</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="J39" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="K39" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4125,50 +4439,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>7187</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>146897</v>
+      </c>
+      <c r="C40" t="s">
+        <v>336</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="J40" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="K40" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="O40" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4192,50 +4510,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>7187</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146898</v>
+      </c>
+      <c r="C41" t="s">
+        <v>343</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="J41" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="K41" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="L41" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="O41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4249,50 +4571,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>7187</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146899</v>
+      </c>
+      <c r="C42" t="s">
+        <v>351</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="J42" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="K42" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4316,41 +4642,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>7187</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146900</v>
+      </c>
+      <c r="C43" t="s">
+        <v>359</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="J43" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="K43" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="L43" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
@@ -4367,56 +4697,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="X43" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="Y43" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>7187</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146901</v>
+      </c>
+      <c r="C44" t="s">
+        <v>368</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="J44" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="K44" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="O44" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4440,50 +4774,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>7187</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146902</v>
+      </c>
+      <c r="C45" t="s">
+        <v>376</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="J45" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="K45" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="L45" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="O45" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -4507,50 +4845,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>7187</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146903</v>
+      </c>
+      <c r="C46" t="s">
+        <v>383</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="J46" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="K46" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="L46" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4574,50 +4916,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>7187</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146904</v>
+      </c>
+      <c r="C47" t="s">
+        <v>389</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="J47" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="K47" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="O47" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4641,50 +4987,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>7187</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146905</v>
+      </c>
+      <c r="C48" t="s">
+        <v>397</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="J48" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="K48" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="L48" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="O48" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -4708,50 +5058,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>7187</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146906</v>
+      </c>
+      <c r="C49" t="s">
+        <v>404</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="J49" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="K49" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="L49" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4773,50 +5127,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>7187</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146907</v>
+      </c>
+      <c r="C50" t="s">
+        <v>412</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="J50" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="K50" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="L50" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="O50" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -4840,50 +5198,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>7187</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146908</v>
+      </c>
+      <c r="C51" t="s">
+        <v>419</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="J51" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="K51" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="L51" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -4907,50 +5269,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>7187</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146909</v>
+      </c>
+      <c r="C52" t="s">
+        <v>426</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="J52" t="s">
-        <v>378</v>
+        <v>429</v>
       </c>
       <c r="K52" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="L52" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="O52" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -4974,50 +5340,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>7187</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146910</v>
+      </c>
+      <c r="C53" t="s">
+        <v>434</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="J53" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="K53" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="L53" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5041,50 +5411,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>7187</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146911</v>
+      </c>
+      <c r="C54" t="s">
+        <v>441</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="J54" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="K54" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="L54" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5108,50 +5482,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>7187</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146912</v>
+      </c>
+      <c r="C55" t="s">
+        <v>449</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="J55" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="K55" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="L55" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="O55" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5165,7 +5543,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_280.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_280.xlsx
@@ -1919,7 +1919,7 @@
         <v>7187</v>
       </c>
       <c r="B2" t="n">
-        <v>146876</v>
+        <v>178232</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -1986,7 +1986,7 @@
         <v>7187</v>
       </c>
       <c r="B3" t="n">
-        <v>146877</v>
+        <v>178233</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -2047,7 +2047,7 @@
         <v>7187</v>
       </c>
       <c r="B4" t="n">
-        <v>146878</v>
+        <v>178234</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -2299,7 +2299,7 @@
         <v>7187</v>
       </c>
       <c r="B8" t="n">
-        <v>146879</v>
+        <v>178235</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
@@ -2364,7 +2364,7 @@
         <v>7187</v>
       </c>
       <c r="B9" t="n">
-        <v>146880</v>
+        <v>178236</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
@@ -2500,7 +2500,7 @@
         <v>7187</v>
       </c>
       <c r="B11" t="n">
-        <v>146881</v>
+        <v>178237</v>
       </c>
       <c r="C11" t="s">
         <v>121</v>
@@ -2754,7 +2754,7 @@
         <v>7187</v>
       </c>
       <c r="B15" t="n">
-        <v>146882</v>
+        <v>178238</v>
       </c>
       <c r="C15" t="s">
         <v>149</v>
@@ -2876,7 +2876,7 @@
         <v>7187</v>
       </c>
       <c r="B17" t="n">
-        <v>146883</v>
+        <v>178239</v>
       </c>
       <c r="C17" t="s">
         <v>162</v>
@@ -3004,7 +3004,7 @@
         <v>7187</v>
       </c>
       <c r="B19" t="n">
-        <v>146884</v>
+        <v>178240</v>
       </c>
       <c r="C19" t="s">
         <v>176</v>
@@ -3069,7 +3069,7 @@
         <v>7187</v>
       </c>
       <c r="B20" t="n">
-        <v>146885</v>
+        <v>178241</v>
       </c>
       <c r="C20" t="s">
         <v>182</v>
@@ -3199,7 +3199,7 @@
         <v>7187</v>
       </c>
       <c r="B22" t="n">
-        <v>146886</v>
+        <v>178242</v>
       </c>
       <c r="C22" t="s">
         <v>196</v>
@@ -3463,7 +3463,7 @@
         <v>7187</v>
       </c>
       <c r="B26" t="n">
-        <v>146887</v>
+        <v>178243</v>
       </c>
       <c r="C26" t="s">
         <v>226</v>
@@ -3597,7 +3597,7 @@
         <v>7187</v>
       </c>
       <c r="B28" t="n">
-        <v>146888</v>
+        <v>178244</v>
       </c>
       <c r="C28" t="s">
         <v>240</v>
@@ -3664,7 +3664,7 @@
         <v>7187</v>
       </c>
       <c r="B29" t="n">
-        <v>146889</v>
+        <v>178245</v>
       </c>
       <c r="C29" t="s">
         <v>247</v>
@@ -3735,7 +3735,7 @@
         <v>7187</v>
       </c>
       <c r="B30" t="n">
-        <v>146890</v>
+        <v>178246</v>
       </c>
       <c r="C30" t="s">
         <v>257</v>
@@ -3806,7 +3806,7 @@
         <v>7187</v>
       </c>
       <c r="B31" t="n">
-        <v>146891</v>
+        <v>178247</v>
       </c>
       <c r="C31" t="s">
         <v>265</v>
@@ -3877,7 +3877,7 @@
         <v>7187</v>
       </c>
       <c r="B32" t="n">
-        <v>146892</v>
+        <v>178248</v>
       </c>
       <c r="C32" t="s">
         <v>272</v>
@@ -3952,7 +3952,7 @@
         <v>7187</v>
       </c>
       <c r="B33" t="n">
-        <v>146893</v>
+        <v>178249</v>
       </c>
       <c r="C33" t="s">
         <v>282</v>
@@ -4027,7 +4027,7 @@
         <v>7187</v>
       </c>
       <c r="B34" t="n">
-        <v>146894</v>
+        <v>178250</v>
       </c>
       <c r="C34" t="s">
         <v>291</v>
@@ -4315,7 +4315,7 @@
         <v>7187</v>
       </c>
       <c r="B38" t="n">
-        <v>146895</v>
+        <v>178251</v>
       </c>
       <c r="C38" t="s">
         <v>321</v>
@@ -4386,7 +4386,7 @@
         <v>7187</v>
       </c>
       <c r="B39" t="n">
-        <v>146896</v>
+        <v>178252</v>
       </c>
       <c r="C39" t="s">
         <v>329</v>
@@ -4447,7 +4447,7 @@
         <v>7187</v>
       </c>
       <c r="B40" t="n">
-        <v>146897</v>
+        <v>178253</v>
       </c>
       <c r="C40" t="s">
         <v>336</v>
@@ -4518,7 +4518,7 @@
         <v>7187</v>
       </c>
       <c r="B41" t="n">
-        <v>146898</v>
+        <v>178254</v>
       </c>
       <c r="C41" t="s">
         <v>343</v>
@@ -4579,7 +4579,7 @@
         <v>7187</v>
       </c>
       <c r="B42" t="n">
-        <v>146899</v>
+        <v>178255</v>
       </c>
       <c r="C42" t="s">
         <v>351</v>
@@ -4650,7 +4650,7 @@
         <v>7187</v>
       </c>
       <c r="B43" t="n">
-        <v>146900</v>
+        <v>178256</v>
       </c>
       <c r="C43" t="s">
         <v>359</v>
@@ -4711,7 +4711,7 @@
         <v>7187</v>
       </c>
       <c r="B44" t="n">
-        <v>146901</v>
+        <v>178257</v>
       </c>
       <c r="C44" t="s">
         <v>368</v>
@@ -4782,7 +4782,7 @@
         <v>7187</v>
       </c>
       <c r="B45" t="n">
-        <v>146902</v>
+        <v>178258</v>
       </c>
       <c r="C45" t="s">
         <v>376</v>
@@ -4853,7 +4853,7 @@
         <v>7187</v>
       </c>
       <c r="B46" t="n">
-        <v>146903</v>
+        <v>178259</v>
       </c>
       <c r="C46" t="s">
         <v>383</v>
@@ -4924,7 +4924,7 @@
         <v>7187</v>
       </c>
       <c r="B47" t="n">
-        <v>146904</v>
+        <v>178260</v>
       </c>
       <c r="C47" t="s">
         <v>389</v>
@@ -4995,7 +4995,7 @@
         <v>7187</v>
       </c>
       <c r="B48" t="n">
-        <v>146905</v>
+        <v>178261</v>
       </c>
       <c r="C48" t="s">
         <v>397</v>
@@ -5066,7 +5066,7 @@
         <v>7187</v>
       </c>
       <c r="B49" t="n">
-        <v>146906</v>
+        <v>178262</v>
       </c>
       <c r="C49" t="s">
         <v>404</v>
@@ -5135,7 +5135,7 @@
         <v>7187</v>
       </c>
       <c r="B50" t="n">
-        <v>146907</v>
+        <v>178263</v>
       </c>
       <c r="C50" t="s">
         <v>412</v>
@@ -5206,7 +5206,7 @@
         <v>7187</v>
       </c>
       <c r="B51" t="n">
-        <v>146908</v>
+        <v>178264</v>
       </c>
       <c r="C51" t="s">
         <v>419</v>
@@ -5277,7 +5277,7 @@
         <v>7187</v>
       </c>
       <c r="B52" t="n">
-        <v>146909</v>
+        <v>178265</v>
       </c>
       <c r="C52" t="s">
         <v>426</v>
@@ -5348,7 +5348,7 @@
         <v>7187</v>
       </c>
       <c r="B53" t="n">
-        <v>146910</v>
+        <v>178266</v>
       </c>
       <c r="C53" t="s">
         <v>434</v>
@@ -5419,7 +5419,7 @@
         <v>7187</v>
       </c>
       <c r="B54" t="n">
-        <v>146911</v>
+        <v>178267</v>
       </c>
       <c r="C54" t="s">
         <v>441</v>
@@ -5490,7 +5490,7 @@
         <v>7187</v>
       </c>
       <c r="B55" t="n">
-        <v>146912</v>
+        <v>178268</v>
       </c>
       <c r="C55" t="s">
         <v>449</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_280.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_280.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="643">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,87 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>wongfamily2016</t>
-  </si>
-  <si>
-    <t>07/01/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r606201823-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>32987</t>
+  </si>
+  <si>
+    <t>79607</t>
+  </si>
+  <si>
+    <t>606201823</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>Hidden gem</t>
+  </si>
+  <si>
+    <t>Visiting family in El Monte gave us access to all the coast at a wonderful price.....with breakfast included!!  The personnel was very friendly and accommodating....and the price was wonderful!!! Will surely go back!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Fairfield Inn S, Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Visiting family in El Monte gave us access to all the coast at a wonderful price.....with breakfast included!!  The personnel was very friendly and accommodating....and the price was wonderful!!! Will surely go back!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r572670932-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>572670932</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Small but great hotel. We choose this location because we were able to get a free weeks stay with our Marriott points. On the tripadvisor forums it was strongly suggested that this was not a good location to base out of due to traffic and being on the east side of LA instead of the west side where a lot of the attractions are. We maybe did a little more driving but the earliest we left our room was 9am and we returned around 9 or 10 each night. We went to Laguna Beach, Santa Monica, Malibu, Hollywood, Huntington Beach, and Joshua Tree Nat'l park. The little extra distance was no big deal and I would do it again. Breakfast was good and staff were very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Small but great hotel. We choose this location because we were able to get a free weeks stay with our Marriott points. On the tripadvisor forums it was strongly suggested that this was not a good location to base out of due to traffic and being on the east side of LA instead of the west side where a lot of the attractions are. We maybe did a little more driving but the earliest we left our room was 9am and we returned around 9 or 10 each night. We went to Laguna Beach, Santa Monica, Malibu, Hollywood, Huntington Beach, and Joshua Tree Nat'l park. The little extra distance was no big deal and I would do it again. Breakfast was good and staff were very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r569200075-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>569200075</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Strongly Recommend</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights.  The hotel was really clean and well kept.  Free parking and wifi was a plus.  Free breakfast was ample with the standard waffles, scrambled eggs, cheese omelet, pork sausages, bacon, veggie patty, hot oatmeal, dry cereal, yogurts, fruits, etc.  Free newspapers were abundant, even in Chinese!  Near to food establishments and large shopping mall.  McDonalds and Jack in the Box right across the street.  A block away was a shopping mall with many eateries, BJ Microbrewery, Olive Garden and Lucy's Ribs.  Best part of the stay was the extremely hospital staff.  I was always pleasantly greeted while passing the front desk.  I will definitely stay again and strongly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights.  The hotel was really clean and well kept.  Free parking and wifi was a plus.  Free breakfast was ample with the standard waffles, scrambled eggs, cheese omelet, pork sausages, bacon, veggie patty, hot oatmeal, dry cereal, yogurts, fruits, etc.  Free newspapers were abundant, even in Chinese!  Near to food establishments and large shopping mall.  McDonalds and Jack in the Box right across the street.  A block away was a shopping mall with many eateries, BJ Microbrewery, Olive Garden and Lucy's Ribs.  Best part of the stay was the extremely hospital staff.  I was always pleasantly greeted while passing the front desk.  I will definitely stay again and strongly recommend this hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r563784843-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
-    <t>32987</t>
-  </si>
-  <si>
-    <t>79607</t>
-  </si>
-  <si>
     <t>563784843</t>
   </si>
   <si>
@@ -183,9 +249,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>DinoNico</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r561353976-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -204,12 +267,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>HeavenlyLisaLuv</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r553454616-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -237,7 +294,43 @@
     <t>This review is long over due, but I just had to leave a review for a great hotel. This hotel is located on the corner and pretty easy to find. We were warmly greeted upon entering the hotel. The area and the room was pretty clean.I would definitely recommend staying here, great customer service, free parking, and free breakfast is a plus and hard to find in the LA area. Breakfast consisted of sausage,bacon, waffles, juice bar, coffee bar, eggs, toast, oatmeal, cereal, and fruit.This place is about 10-15 minutes away from downtown LA and there is a Mcdonald's and a shopping mall across the street. We enjoyed our stay here.More</t>
   </si>
   <si>
-    <t>Wayne S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r552322515-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>552322515</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for the Rose Bowl. Very central to many attractions. Rooms are spacious and clean. Bathroom was good and maids did a good job each day. Food was good for breakfast, but never ate any other meal at hotel. </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r541423676-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>541423676</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>Just awesome!</t>
+  </si>
+  <si>
+    <t>Quite honestly, I liked the service and warmth at this hotel a lot better than Marquis in Frisco or even the Ritz Carlton at Santa Monica.Starting from check in, their staff at the front desk is just awesome. They are so affable, that you want to go to this hotel again. Eric and the others are worth a mention. Their rooms, always take the mountain view. Do not take the pool view. But the rooms are really good. They are big in size with good bathrooms. However, theu dont have bottled water, tea/coffee maker. But you get free tea / coffee / water at the lobby reataurant 24 hours.Their breakfast wasnt bad though it was limited in choice. But their food quality was good. The person serving / cleaning at breakfast (cant recall her name) is very nice and co-operative. Their gym is good. Not a lot, but it gets through basic cardio and weights along with abs workout. All in all, a good hotel in a nice budget.I had a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Quite honestly, I liked the service and warmth at this hotel a lot better than Marquis in Frisco or even the Ritz Carlton at Santa Monica.Starting from check in, their staff at the front desk is just awesome. They are so affable, that you want to go to this hotel again. Eric and the others are worth a mention. Their rooms, always take the mountain view. Do not take the pool view. But the rooms are really good. They are big in size with good bathrooms. However, theu dont have bottled water, tea/coffee maker. But you get free tea / coffee / water at the lobby reataurant 24 hours.Their breakfast wasnt bad though it was limited in choice. But their food quality was good. The person serving / cleaning at breakfast (cant recall her name) is very nice and co-operative. Their gym is good. Not a lot, but it gets through basic cardio and weights along with abs workout. All in all, a good hotel in a nice budget.I had a great stay!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r538830213-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -261,9 +354,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Ken N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r528380457-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -279,12 +369,6 @@
     <t>We enjoyed our stay, the room was clean and comfortable.  Nice large shower.  The included breakfast was adequate, staff made sure it was stocked.  Staff was very pleasant.  Limited dining selection near the hotel, though Lucille's BBQ was a nice surprise.</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
-    <t>Todd B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r526521789-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -300,7 +384,40 @@
     <t xml:space="preserve">I have stayed nearly 30 nights at this property and this is a nice and clean hotel. The staff are friendly and the breakfast is very good. The property is fairly new and it is well maintained. The GM is nice and I feel welcomed at this hotel. </t>
   </si>
   <si>
-    <t>COcrazyhouseof5</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r508917180-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>508917180</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Really nice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here 4 nights and it is really nice hotel in the class of one Benjamin plus a Grant. Seems to be newly renovated and the rooms are fresh and clean. Good breakfast and they had gluten free bagels if you ask for it. Really friendly staff. </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r507085617-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>507085617</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Great vacation</t>
+  </si>
+  <si>
+    <t>We booked this hotel from Oregon not knowing exactly where it was located. When we arrived, we were very well greeted by Rene and all went well. Great location, very near to a small mall, mc donalds and a huge Walmart store. Breakfast was good too, including hot food options - the down side was that there are not enough tables to all rooms when hotel is fully booked. Parking is good and easy. Rooms are not very spacious - what is bad if you have a big family as I do. We had a liking problem in our room and they moved us to another one - this was a bit disturbing...Gym is small but nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked this hotel from Oregon not knowing exactly where it was located. When we arrived, we were very well greeted by Rene and all went well. Great location, very near to a small mall, mc donalds and a huge Walmart store. Breakfast was good too, including hot food options - the down side was that there are not enough tables to all rooms when hotel is fully booked. Parking is good and easy. Rooms are not very spacious - what is bad if you have a big family as I do. We had a liking problem in our room and they moved us to another one - this was a bit disturbing...Gym is small but nice. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r504764995-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -318,9 +435,6 @@
     <t>My daughter and I spent one night here on our way to San Diego for a softball tournament. We used my husbands points for our stay. Conveniently located next to the Pomona freeway and only about 15 minutes to downtown LA.We enjoyed our stay. Comfortable beds, great shower pressure, good breakfast. Would stay here again... my only issue( and really minor) was that the free WIFI wasn't the best, but worked for what we needed it for...MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>FFISCareStaff, Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded July 26, 2017</t>
   </si>
   <si>
@@ -330,9 +444,6 @@
     <t>My daughter and I spent one night here on our way to San Diego for a softball tournament. We used my husbands points for our stay. Conveniently located next to the Pomona freeway and only about 15 minutes to downtown LA.We enjoyed our stay. Comfortable beds, great shower pressure, good breakfast. Would stay here again... my only issue( and really minor) was that the free WIFI wasn't the best, but worked for what we needed it for...More</t>
   </si>
   <si>
-    <t>SealeJoe</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r504349030-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -355,9 +466,6 @@
   </si>
   <si>
     <t>Good location! Close to Dodger Stadium, and easy access on/off the freeway. Fast food across the street, and nice outdoor pool. No noise from the freeway. Good people and free breakfast, free parking. The room was nice and seemed fairly new, especially the bathroom. More</t>
-  </si>
-  <si>
-    <t>Nicholas D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r503628895-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -387,7 +495,52 @@
 We loved our stay there. There are no words to describe how wonderful the employees at this property are. I worked in a Courtyard for about 3 years in Montreal, and this is by far the best Marriott i've been to. The customer service is...Me and my best friend booked ourselves a weekend in LA for the very first time ever. I have been dreaming to go there since a boy. We got welcomed to the hotel by RENE and a new front desk agent which I could not remember her name besides, blond hair, nice smile and glasses. We wanted to pay in advance so we take a smaller deposit on our credit card but he informed us of the policy of this hotel and he couldn't do it, perhaps he made the wonderful exception of helping us out and dividing it both for us. I really appreciated his help in this situation. He then helped us with some questions we had for our trip. Our first day out, we passed by the front desk and got ALEX , which is an amazing employee. He is so wonderful. We asked for directions to places we wanted to go see in Hollywood and some restaurants to go to. He printed everything out and directed us with information. Simply the best. Our second morning, we got Alex again to help us go to Downtown LA, he was , again, wonderful.We loved our stay there. There are no words to describe how wonderful the employees at this property are. I worked in a Courtyard for about 3 years in Montreal, and this is by far the best Marriott i've been to. The customer service is on point, always a smile and always a greeting coming in. It is those little details that make a guests stay special and for my best friends first ever trip out of canada found it amazing. ALL THE FRONT DESK need a SHOUT OUT for their amazing customer service !!!! We are coming back at the end of August and will probably come back to this property if price permitting.Thank you all for everything you have done to make us feel like home! see you soon!!More</t>
   </si>
   <si>
-    <t>Ram0na_M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r497199834-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>497199834</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice </t>
+  </si>
+  <si>
+    <t>Good hotel with breakfast and laundry services. Ample parking space. I left my iwatch charger in the room upon check out. Call couple days later and they could not find it. The cleaner must keep it. Damm. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>FFISCareStaff, General Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Good hotel with breakfast and laundry services. Ample parking space. I left my iwatch charger in the room upon check out. Call couple days later and they could not find it. The cleaner must keep it. Damm. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r485091451-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>485091451</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel to stay at in the busy LA area.</t>
+  </si>
+  <si>
+    <t>The Fairfield Inn is a great place to stay if working/visiting the LA area especially if you're on the east side of the city. The hotel is right off the highway but not too noisy. Very clean and a good free breakfast. Staff is super friendly. Reasonably priced for the area. There's a mall just up the hill - short drive or walk. Olive Garden and Applebee's close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>The Fairfield Inn is a great place to stay if working/visiting the LA area especially if you're on the east side of the city. The hotel is right off the highway but not too noisy. Very clean and a good free breakfast. Staff is super friendly. Reasonably priced for the area. There's a mall just up the hill - short drive or walk. Olive Garden and Applebee's close by.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r479197052-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -408,9 +561,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>SGO007</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r478702334-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -429,9 +579,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>Ron L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r473933676-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -450,7 +597,46 @@
     <t>I'm not sure I've rated Fairfield Inns five stars before, I will have to check.  This hotel checked all the boxes for a very nice business stay for me.  Great friendly staff, nice breakfast each morning and the room was very modern, probably recently renovated.  I got a great night's sleep every night.  They even have Wall Street Journals not the Useless A Today that all other Fairfield's seem to only have.The only critique would be that the parking spaces are very tight.  Where it says "compact car" they mean it.  A full size SUV won't fit there.  I didn't have any trouble finding a parking space though.If in the area I will certainly return.More</t>
   </si>
   <si>
-    <t>Amy G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r461617017-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>461617017</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Average Hotel</t>
+  </si>
+  <si>
+    <t>This is an average hotel. I stayed here for an overnight trip. The room is clean and spacious. The location is good. There are restaurants around the hotel so you have some choice. The hotel has ample free parking. The breakfast is ok. All in all an average hotel. Good for a Fairfield  Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>FFISCareStaff, General Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>This is an average hotel. I stayed here for an overnight trip. The room is clean and spacious. The location is good. There are restaurants around the hotel so you have some choice. The hotel has ample free parking. The breakfast is ok. All in all an average hotel. Good for a Fairfield  Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r456623206-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>456623206</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Great staff support and assistance to disabled travelers</t>
+  </si>
+  <si>
+    <t>Met or exceeded all normal expectations for a Marriott property - rooms in good repair, scrupulously clean, comfortable beds. Front desk graciously delivered a second reclining office chair to accommodate two persons with special sitting needs.  Staff responded quickly and discreetly to assist a collapsed disabled person return to wheelchair.  Breakfast supervision (freshness, quality, cleanliness) was excellent.  Needs more salt and pepper shakers, however - one set just does not do it.  Air conditioner/heater deadband needed adjustment in our room (as cooling to 71 or heating to 71 resulted in overshoot, both directions).</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r437973435-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -471,9 +657,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>prutchi</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r435214281-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -492,9 +675,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Lisa L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r433989277-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -510,7 +690,40 @@
     <t xml:space="preserve">Rosemead is location easy of downtown &amp; south of Pasadena. About 20 minutes from either direction. Santa Monica is just about 50 minutes away. We were able to get everywhere we need to go within a comfortable drive. Plenty of onsite free parking along with free breakfast &amp; a balcony in our room. The hotel looks &amp; feels brand new. Bathroom is extremely clean &amp; roomy. I was extremely please &amp; will definitely stay here again next time.  </t>
   </si>
   <si>
-    <t>Elton K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r432726609-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>432726609</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this facility the night before we boarded our cruise ship.  It was a very nice, clean hotel.  The front desk staff were extremely pleasant and helpful.  We arrived before check in time and our rooms were not ready yet, so they held our bags while we walked a block to a mall to get some lunch.  They were also kind enough to advise us on a cab the next morning to take us to the cruise terminal and even called them and set it up for us.  The rooms were spacious and neat.  This must be a fairly new facility.  We didn't use the pool nor the fitness center because we were there such a short time but the pool did look quite inviting from the window.If, in that area again, I would certainly stay at the hotel.  I just can't comment enough on the front desk staff and how helpful they were to us during our short stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this facility the night before we boarded our cruise ship.  It was a very nice, clean hotel.  The front desk staff were extremely pleasant and helpful.  We arrived before check in time and our rooms were not ready yet, so they held our bags while we walked a block to a mall to get some lunch.  They were also kind enough to advise us on a cab the next morning to take us to the cruise terminal and even called them and set it up for us.  The rooms were spacious and neat.  This must be a fairly new facility.  We didn't use the pool nor the fitness center because we were there such a short time but the pool did look quite inviting from the window.If, in that area again, I would certainly stay at the hotel.  I just can't comment enough on the front desk staff and how helpful they were to us during our short stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r426927892-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>426927892</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Great place and service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is recently renovated.  I got a mini-suit and it was fantastic.   Most of the rooms have balcony.  Rooms are large and new even the building is looking older outside.   The location is great just off the freeway and walking distance from a mall.    </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r415197950-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -534,9 +747,6 @@
     <t>Just returned from a 9 days trip to LAX and LAS to finish off the summer before kids going back to school. We stayed at the Fairfield Inn for 5 nights while we explored LA. I was first a little hesitant about the location but it turned out to be very convenient; took us only 20 mins and 30 mins to Universal and Disneyland, respectively. As mentioned by other travelers, this property recently undergone a major renovation and for the most parts do look and feel relatively new, with the exception of the air conditioning units. The AC unit in our room was loud, and it's placed literally right next to the bed (we were in a double beds room) so not a whole lot of quality sleep in the first few nights. On the other hand, service was excellent as you would expect from the Marriott brand; every employees we encountered were very pleasant and professional. We also took advantage of the complimentary breakfast which serves the standard Fairfield / Residence Inn items; the breakfast area was well organized and kept very clean. We also enjoyed the use of the outdoor pool &amp; hot tub; it is a good sized pool and the area was well-maintained. A suggestion to have the towels placed in the pool area rather than at the front desk as this arrangement is not very convenient. Aside from the couple of small misses, the Fairfield...Just returned from a 9 days trip to LAX and LAS to finish off the summer before kids going back to school. We stayed at the Fairfield Inn for 5 nights while we explored LA. I was first a little hesitant about the location but it turned out to be very convenient; took us only 20 mins and 30 mins to Universal and Disneyland, respectively. As mentioned by other travelers, this property recently undergone a major renovation and for the most parts do look and feel relatively new, with the exception of the air conditioning units. The AC unit in our room was loud, and it's placed literally right next to the bed (we were in a double beds room) so not a whole lot of quality sleep in the first few nights. On the other hand, service was excellent as you would expect from the Marriott brand; every employees we encountered were very pleasant and professional. We also took advantage of the complimentary breakfast which serves the standard Fairfield / Residence Inn items; the breakfast area was well organized and kept very clean. We also enjoyed the use of the outdoor pool &amp; hot tub; it is a good sized pool and the area was well-maintained. A suggestion to have the towels placed in the pool area rather than at the front desk as this arrangement is not very convenient. Aside from the couple of small misses, the Fairfield Inn Rosemead is a solid choice if you are looking to travel to this area.More</t>
   </si>
   <si>
-    <t>ajnuff</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r413698596-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -552,9 +762,6 @@
     <t>This is an older structure that has been completely remodeled inside and out.  It's like new in most respects, clean and well-maintained.  The bed was comfortable, internet speed was good, and the water pressure in the shower was excellent.  Access is a bit odd, as you can approach from only one direction and leave only in the opposite direction.  The TV, although an HD widescreen model, carried only SD channels.  And I did see a small lizard running through the hallway - that might turn some folks off.  My stay was good and I recommend this place.</t>
   </si>
   <si>
-    <t>DavidRAddison70</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r412730258-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -570,7 +777,46 @@
     <t>The room was clean, large enough for my son and I. The staff was very friendly. We also took advantage of the free breakfast. I usually don't like hotel coffee at all, but I was pleasantly surprised by their good coffee. The hotel is very close to Hollywood, it only took half an hour to get there, 45 minutes to get back. Also it was convenient to get to the Rose Bowl for a  Coldplay concert.</t>
   </si>
   <si>
-    <t>D4004BUmichaelh</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r410043115-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>410043115</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Better than average Fairfield Inn</t>
+  </si>
+  <si>
+    <t>I stayed here twice for a couple of business trips. Fairfield Inns I find are relatively "budget" as far as Marriott brands go, but this one looks fairly new or remodeled. The rooms were nice and spacious and the lobby looks new. Breakfast was the standard cereals, yogurt, toast, juice, etc. but plenty of room to sit and watch TV if you want. This one is nicer than the average Fairfield Inn as far as my experiences go.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r408134666-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>408134666</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>No safe in room - lock your valuables</t>
+  </si>
+  <si>
+    <t>Sadly, for the first time at a Marriott property, I experienced theft. It disheartening when you trust a brand and it's people. The person who picked up the towels took my Beats Headphones. I noticed the towels from the floor had been picked up but the beds were still not made and that's when I noticed my missing headphones. It caught my attention because I was going to workout. Of course, no one will confess and the hotel has "honest" employees, but it happened. I'm certain the hotel management will begin to see a pattern of theft over time and it will become a problem. Never the less, I'm out a pair of $300 headphones.Lesson learned not to stay at this Marriott property; as a platinum member, I'm excited to complete my online survey. It's sadly the only place I can vent my frustrations... not one else will listen with proactive ears.On another note; low quality air conditioning unit. This is an older hotel that was recently remodeled but has the feeling of "old".MoreShow less</t>
+  </si>
+  <si>
+    <t>FFISCareStaff, Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Sadly, for the first time at a Marriott property, I experienced theft. It disheartening when you trust a brand and it's people. The person who picked up the towels took my Beats Headphones. I noticed the towels from the floor had been picked up but the beds were still not made and that's when I noticed my missing headphones. It caught my attention because I was going to workout. Of course, no one will confess and the hotel has "honest" employees, but it happened. I'm certain the hotel management will begin to see a pattern of theft over time and it will become a problem. Never the less, I'm out a pair of $300 headphones.Lesson learned not to stay at this Marriott property; as a platinum member, I'm excited to complete my online survey. It's sadly the only place I can vent my frustrations... not one else will listen with proactive ears.On another note; low quality air conditioning unit. This is an older hotel that was recently remodeled but has the feeling of "old".More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r403838001-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -595,9 +841,6 @@
 Only negative was a slight musty odor in the room from the wall a/c. Although, it was not a big deal and not overwhelming or strong. Overall the Fairfield Inn &amp;...Stayed at the Fairfield Inn &amp; Suites Los Angeles Rosemead over a weekend. The hotel is relatively new and located about 20-30 minutes east of LA. We used our Marriott Visa free night stay certificate to stay at the hotel. The hotel is located just off HWY 60 and around the corner from a shopping mall. We were in town to see the Dodgers play and it literally took us about 30 minutes to get to and from the ballpark. The hotel is also about 30-40 minutes from LAX with no traffic on a Sunday. Gas is about $2 cheaper by the hotel than at the airport. The hotel is clean and the staff was very nice. I received a phone call ahead of my stay asking if there were any special requests and welcoming me to their hotel. Nice touch for the Fairfield Inn. The rooms are clean and the bathrooms are nice. Beds and pillows are comfortable and an improvement over older Fairfield Inns. Excellent water pressure in the shower - especially for California. Free breakfast each morning and decent workout room with free weights, bench, new cardio equipment. The rooms also have a microwave and small fridge, which we used while we stayed at the hotel.Only negative was a slight musty odor in the room from the wall a/c. Although, it was not a big deal and not overwhelming or strong. Overall the Fairfield Inn &amp; Suites Los Angeles Rosemead is a great location and we plan to stay there again, rather than a downtown LA Marriott property for twice the rate.More</t>
   </si>
   <si>
-    <t>Alexander W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r395890188-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -613,12 +856,6 @@
     <t>We needed a 1 night stay at a good price close to the Huntington library and this property filled the bill.  About 5 miles away from the Huntington via surface streets. As a bonus, we get Marriott points and a free hot breakfast.</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
-    <t>emmitaz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r393019627-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -634,7 +871,52 @@
     <t>Staff was amazing and amiable ! We loved loved them and the hotel was beautiful and looks new. Area was distinctly modern and close to a great hibachi place!  We stayed 2 nights and free breakfast is always a plus! There's a close by mall where you find pubs and famous eateries and stores.</t>
   </si>
   <si>
-    <t>Bernardo F</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r387707119-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>387707119</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Hotel from Hell!!!</t>
+  </si>
+  <si>
+    <t>My experience with this hotel was the worst ever!!! Management has taken advantage of customers during their renovation when they should have closed down for a few days until they were done with some issues. I came here because my car broke down in the area and it needed repairs into the next day. The hotel was going through renovations and when I checked in, I asked if they had a discount because of it. They told me 'no', it didn't apply to me...only to 'certain rooms'. Well, because I was without a car, I stayed there. After checking in, I was told that they would be testing the alarms in the room and hallway but it would not last that long. I went to my room, and shortly after, the alarms in the room went off...for about 5 minutes. About a half hour later, I received a call from the main desk stating that Edison was working on an issue and that we would not have power from midnight to 5 am, but guaranteed that we would have power by that time. I didn't have a car to go anywhere else, and thought that I would sleep through it. Not thinking about ventilation and how hot, stuffy and sweltery a room can get without A/C, I woke up around 5 am to pitch black, no air conditioning working, no lights to take a shower, etc. I had to walk...My experience with this hotel was the worst ever!!! Management has taken advantage of customers during their renovation when they should have closed down for a few days until they were done with some issues. I came here because my car broke down in the area and it needed repairs into the next day. The hotel was going through renovations and when I checked in, I asked if they had a discount because of it. They told me 'no', it didn't apply to me...only to 'certain rooms'. Well, because I was without a car, I stayed there. After checking in, I was told that they would be testing the alarms in the room and hallway but it would not last that long. I went to my room, and shortly after, the alarms in the room went off...for about 5 minutes. About a half hour later, I received a call from the main desk stating that Edison was working on an issue and that we would not have power from midnight to 5 am, but guaranteed that we would have power by that time. I didn't have a car to go anywhere else, and thought that I would sleep through it. Not thinking about ventilation and how hot, stuffy and sweltery a room can get without A/C, I woke up around 5 am to pitch black, no air conditioning working, no lights to take a shower, etc. I had to walk around my room with my cell phone flash light! I decided to leave around 5:30, had to walk down the hallway, and down the stairs (no safety!!!) with my cell phone flashlight! I came to the front desk, demanding that I speak to a manager, and I was told that it was still too early for one. The guy told me to leave my name and email address and that I would be compensated for the night-from-hell. I was compensated $28!!!!! I called the general manager, and she said that she could compensate me for a room at this hotel, but that I had to use it within 2 weeks! Why would I want to come back to Montebello as a 'destination vacation'? I live an hour away, and the only reason that I was there was because my car broke down! I have gone back and forth with management regarding this horrifying experience where they took advantage of customers and expected to be paid top dollar for it! To date, there has been NO COMPENSATION! All I get are excuses, and asking me to be patient! This happened in March, 2016, and it's almost July! DO NOT STAY AT THIS HOTEL! IT HAS THE SAME MANAGEMENT BEFORE THE RENOVATION!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>My experience with this hotel was the worst ever!!! Management has taken advantage of customers during their renovation when they should have closed down for a few days until they were done with some issues. I came here because my car broke down in the area and it needed repairs into the next day. The hotel was going through renovations and when I checked in, I asked if they had a discount because of it. They told me 'no', it didn't apply to me...only to 'certain rooms'. Well, because I was without a car, I stayed there. After checking in, I was told that they would be testing the alarms in the room and hallway but it would not last that long. I went to my room, and shortly after, the alarms in the room went off...for about 5 minutes. About a half hour later, I received a call from the main desk stating that Edison was working on an issue and that we would not have power from midnight to 5 am, but guaranteed that we would have power by that time. I didn't have a car to go anywhere else, and thought that I would sleep through it. Not thinking about ventilation and how hot, stuffy and sweltery a room can get without A/C, I woke up around 5 am to pitch black, no air conditioning working, no lights to take a shower, etc. I had to walk...My experience with this hotel was the worst ever!!! Management has taken advantage of customers during their renovation when they should have closed down for a few days until they were done with some issues. I came here because my car broke down in the area and it needed repairs into the next day. The hotel was going through renovations and when I checked in, I asked if they had a discount because of it. They told me 'no', it didn't apply to me...only to 'certain rooms'. Well, because I was without a car, I stayed there. After checking in, I was told that they would be testing the alarms in the room and hallway but it would not last that long. I went to my room, and shortly after, the alarms in the room went off...for about 5 minutes. About a half hour later, I received a call from the main desk stating that Edison was working on an issue and that we would not have power from midnight to 5 am, but guaranteed that we would have power by that time. I didn't have a car to go anywhere else, and thought that I would sleep through it. Not thinking about ventilation and how hot, stuffy and sweltery a room can get without A/C, I woke up around 5 am to pitch black, no air conditioning working, no lights to take a shower, etc. I had to walk around my room with my cell phone flash light! I decided to leave around 5:30, had to walk down the hallway, and down the stairs (no safety!!!) with my cell phone flashlight! I came to the front desk, demanding that I speak to a manager, and I was told that it was still too early for one. The guy told me to leave my name and email address and that I would be compensated for the night-from-hell. I was compensated $28!!!!! I called the general manager, and she said that she could compensate me for a room at this hotel, but that I had to use it within 2 weeks! Why would I want to come back to Montebello as a 'destination vacation'? I live an hour away, and the only reason that I was there was because my car broke down! I have gone back and forth with management regarding this horrifying experience where they took advantage of customers and expected to be paid top dollar for it! To date, there has been NO COMPENSATION! All I get are excuses, and asking me to be patient! This happened in March, 2016, and it's almost July! DO NOT STAY AT THIS HOTEL! IT HAS THE SAME MANAGEMENT BEFORE THE RENOVATION!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r376607504-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>376607504</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>Great Rooms; quiet though freeway convenient</t>
+  </si>
+  <si>
+    <t>We stayed here at the Fairfield Inn  for 2 nights and we were very pleased. It's located right off Highway 60, but you wouldn't know it was freeway close when your balcony door is closed. The rooms are spacious and clean with a mini-fridge, microwave and coffee maker. The bathroom is larger than I've had in many other higher priced hotel rooms.The staff has been super friendly, and the complimentary breakfast and wi-fi are nice extras.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>FFISCareStaff, General Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded July 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here at the Fairfield Inn  for 2 nights and we were very pleased. It's located right off Highway 60, but you wouldn't know it was freeway close when your balcony door is closed. The rooms are spacious and clean with a mini-fridge, microwave and coffee maker. The bathroom is larger than I've had in many other higher priced hotel rooms.The staff has been super friendly, and the complimentary breakfast and wi-fi are nice extras.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r370426588-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -652,9 +934,6 @@
     <t>The hotel is completely renovated, and certainly in a different style of typical Fairfields.  Most of the rooms look like they have balconies.  The service is really nice and friendly for sure.  I got upgraded to a large suite which was clean and well kept. Nice furniture, and a decent mattress.  The walls are a little thin and I could hear next door a bit.  My room only had a stall shower, so if you want a tub, I'm not sure other rooms have them. Decent pool. The hotel is close to a big mall and a few restaurants, but mostly residential around, but right at the entrance to hwy 60.  Take a room that doesn't face busy San Gabriel Blvd or Town Center Road as there's quite a bit of road noise.  The price was certainly good for the area.MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>FFISCareStaff, General Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded May 7, 2016</t>
   </si>
   <si>
@@ -664,9 +943,6 @@
     <t>The hotel is completely renovated, and certainly in a different style of typical Fairfields.  Most of the rooms look like they have balconies.  The service is really nice and friendly for sure.  I got upgraded to a large suite which was clean and well kept. Nice furniture, and a decent mattress.  The walls are a little thin and I could hear next door a bit.  My room only had a stall shower, so if you want a tub, I'm not sure other rooms have them. Decent pool. The hotel is close to a big mall and a few restaurants, but mostly residential around, but right at the entrance to hwy 60.  Take a room that doesn't face busy San Gabriel Blvd or Town Center Road as there's quite a bit of road noise.  The price was certainly good for the area.More</t>
   </si>
   <si>
-    <t>Darren S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r366390675-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -685,9 +961,6 @@
     <t>I stayed here for just one night, as I was working in Bell Gardens fairly nearby.It used to be another hotel that needed work, but has now been totally renovated and branded Fairfield.The lobby is bright and modern and immediately makes you feel relaxed.More importantly the rooms are very well done. It's obvious it's an older property by the layout, but the bones are what they are. The rooms have been very well updated and have everything you could need. The shower is hilarious, pressure washer would be a better description. I loved it.My only complaint is the rad noise from outside is a little louder than I would have liked, but I still slept well.Breakfast was good and coffee was excellent. I'd go as far to say the best hotel coffee to date. IHG should take note.Staff were super friendly as well. I really cannot fault this hotel.I will definitely stay here again, if I'm in the area.More</t>
   </si>
   <si>
-    <t>ALEX P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r366320731-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -706,51 +979,60 @@
     <t>Close to LA, this remodeled Fairfield was a nice place to visit. The staff was great - very helpful and friendly. The rooms have been updated and are fine. The building is older, but the bed was very comfortable. Great work area and internet (free). Small coffee maker in room, with a small microwave and refrigerator too. Bathrooms have been updated and are large and the shower is a walk-in - nice.Close to fast food - across the street. Many restaurants within a short drive. Breakfast. Nothing over the top, but plenty to choose from - OK. Nice looby area and I see they have a pool. Free parking.More</t>
   </si>
   <si>
-    <t>cotjos213</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r277391627-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
-  </si>
-  <si>
-    <t>277391627</t>
-  </si>
-  <si>
-    <t>06/02/2015</t>
-  </si>
-  <si>
-    <t>A terrible stay!!!</t>
-  </si>
-  <si>
-    <t>I made reservations here at this hotel through Hotels.com. I thought is would be a nice place to stay in while visiting my family here in L.A. because I actually payed $98 dollars a night for two nights stay. I was wrong! Upon arrival, there was construction all over the hotel. It was dusty and dirty. The website did not state any renovations or construction was going on. I was tired from traveling from Northern California so we decided to stay. The room we checked in seemed nice, but not entirely completed. During the nigh I had a sudden and strong itch; as it woke it me up from a deep sleep, I shook my t-shirt thinking it was a spider, but to my surprise, it was a huge and fat bed bug. It got me pretty good...I searched for more bugs, but it appeared to have been the only one, hmmm lucky me. I placed it in a plastic zip bag and turned it in to the front desk upon almost immediate check out. The girl kindly apologized and told me to call the manager the next day. I will call and try to get at least half the money back. I was left sleepless and tires with some bad and swollen bites. I will never stay here again and be more cautious if I stay at another hotel in the near future.MoreShow less</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r361925260-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>361925260</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>This is a NEW location.  Very convenient to the highways and easy access to Pasadena where I was visiting family. Didn't use the outdoor pool but the area is very clean. If you smoke there is a BEAUTIFUL patio area for us with a fireplace and COMFORTABLE seating! Next time I'm in the area I will be staying here again. Beautiful with a decent view of the pool and trees and very spacious king room.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a NEW location.  Very convenient to the highways and easy access to Pasadena where I was visiting family. Didn't use the outdoor pool but the area is very clean. If you smoke there is a BEAUTIFUL patio area for us with a fireplace and COMFORTABLE seating! Next time I'm in the area I will be staying here again. Beautiful with a decent view of the pool and trees and very spacious king room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r297594507-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>297594507</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel in a sketchy area</t>
+  </si>
+  <si>
+    <t>Good news.... all the construction is over and the hotel is very, very nice.  Every thing is new in the rooms, gorgeous bathrooms, modern, and CLEAN.  Just keep in mind the location is pretty sketchy.  I wouldn't go out for a walk or run after dark, even in a group.  There is a Jack-in-the- and MacDonald's across the street for that quick morning coffee.  The Double Tree hotel is literally right behind this one, so if you can't get a room at Doubletree, this one would work.  Overall, you can feel confident staying (inside) here.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r274915548-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>274915548</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Don't waste your money</t>
+  </si>
+  <si>
+    <t>Under construction and not in good shape. I was in one of the rooms that had already been renovated and was not impressed with it. The pillows were lumpy, the bed was a rock and the breakfast was the worst I have seen in a hotel</t>
   </si>
   <si>
     <t>May 2015</t>
   </si>
   <si>
-    <t>I made reservations here at this hotel through Hotels.com. I thought is would be a nice place to stay in while visiting my family here in L.A. because I actually payed $98 dollars a night for two nights stay. I was wrong! Upon arrival, there was construction all over the hotel. It was dusty and dirty. The website did not state any renovations or construction was going on. I was tired from traveling from Northern California so we decided to stay. The room we checked in seemed nice, but not entirely completed. During the nigh I had a sudden and strong itch; as it woke it me up from a deep sleep, I shook my t-shirt thinking it was a spider, but to my surprise, it was a huge and fat bed bug. It got me pretty good...I searched for more bugs, but it appeared to have been the only one, hmmm lucky me. I placed it in a plastic zip bag and turned it in to the front desk upon almost immediate check out. The girl kindly apologized and told me to call the manager the next day. I will call and try to get at least half the money back. I was left sleepless and tires with some bad and swollen bites. I will never stay here again and be more cautious if I stay at another hotel in the near future.More</t>
-  </si>
-  <si>
-    <t>Tom B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r274915548-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
-  </si>
-  <si>
-    <t>274915548</t>
-  </si>
-  <si>
-    <t>05/26/2015</t>
-  </si>
-  <si>
-    <t>Don't waste your money</t>
-  </si>
-  <si>
-    <t>Under construction and not in good shape. I was in one of the rooms that had already been renovated and was not impressed with it. The pillows were lumpy, the bed was a rock and the breakfast was the worst I have seen in a hotel</t>
-  </si>
-  <si>
-    <t>Uscream</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r244824234-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -769,7 +1051,59 @@
     <t>I stayed one night, complained about the noisy toilet, filthy carpet, filthy and stained ironing board, elevator wasnt working so we took the stairs which were superbly dirty and stained and awful, horrible ugly looking bananas n bagel for breakfast, dirty, bathtub horribly dirty, towels dirty and raggedy (my car towels r much cleaner), and no one cared i askwd for me manager and manager didnt show up until after 11 in which they charged an extra day and the manager took me to show another room and it was smelly cigarette and all cloudy of smoking in non smoking area (inn smells horrible) and they said they could not so anything, but manager agreed too much cigarrette smoke but carpets in Inn are super old n have no means to replace until future so i checked out! Worst place ever and i would never recommend it ever. And EXPENSIVE they forget its not the Holiday Inn anymoreMore</t>
   </si>
   <si>
-    <t>anubiswong</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r241329122-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>241329122</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>Do not stay at this motel.</t>
+  </si>
+  <si>
+    <t>This property was formerly a decent Holiday Inn Express. Now it is a run down independently owned poor excuse for a place to stay.  Expect a nice looking pool that is closed 'until further notice', housekeepers that pretend to not understand English, filthy carpets, rancid food, stale tang 'orange juice' and doors that lock by placing a pin in the frame.  And the list goes on...MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelCareStaff, General Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded November 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2014</t>
+  </si>
+  <si>
+    <t>This property was formerly a decent Holiday Inn Express. Now it is a run down independently owned poor excuse for a place to stay.  Expect a nice looking pool that is closed 'until further notice', housekeepers that pretend to not understand English, filthy carpets, rancid food, stale tang 'orange juice' and doors that lock by placing a pin in the frame.  And the list goes on...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r238846295-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>238846295</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Excellent Stuff</t>
+  </si>
+  <si>
+    <t>I checked into the hotel today, but I lost my way while coming from Lakewood Metro Station. I was coming by public bus and the bus driver dropped me off some where in a desert like place in Rosemead.( I am surprised in LosAngeles most of the people are not aware of  any address or any bus/train route) . I waited near by a lake and called to the hotel (luckily I got network in my mobile and I was 4 miles away from hotel, I had my  daughter and my wife  with me). 4/5miles !! It was difficult to walk for them at noon time. So I requested hotel people to send a taxi for me, They said taxi is difficult now because there is no address of  the road where I am standing. Hotel manager instead said he will come and pick me up from there , so he told me to stand in the main road. He kept his promise and came in 15 mins and took me and my family with him to the hotel.
+ I was really in trouble with my baby daughter at that moment.I am thankful to the hotel management for this kind help.
+Other facility in the hotel is also very good, Room is really big and clean, Everything whatever written about the hotel is true.  Only one advice , if you are tourist and coming for first time , just book...I checked into the hotel today, but I lost my way while coming from Lakewood Metro Station. I was coming by public bus and the bus driver dropped me off some where in a desert like place in Rosemead.( I am surprised in LosAngeles most of the people are not aware of  any address or any bus/train route) . I waited near by a lake and called to the hotel (luckily I got network in my mobile and I was 4 miles away from hotel, I had my  daughter and my wife  with me). 4/5miles !! It was difficult to walk for them at noon time. So I requested hotel people to send a taxi for me, They said taxi is difficult now because there is no address of  the road where I am standing. Hotel manager instead said he will come and pick me up from there , so he told me to stand in the main road. He kept his promise and came in 15 mins and took me and my family with him to the hotel. I was really in trouble with my baby daughter at that moment.I am thankful to the hotel management for this kind help.Other facility in the hotel is also very good, Room is really big and clean, Everything whatever written about the hotel is true.  Only one advice , if you are tourist and coming for first time , just book a  taxi and come. Do not beleive public transport in LA ,sometime it could be nightmare.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>HotelCareStaff, General Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded November 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2014</t>
+  </si>
+  <si>
+    <t>I checked into the hotel today, but I lost my way while coming from Lakewood Metro Station. I was coming by public bus and the bus driver dropped me off some where in a desert like place in Rosemead.( I am surprised in LosAngeles most of the people are not aware of  any address or any bus/train route) . I waited near by a lake and called to the hotel (luckily I got network in my mobile and I was 4 miles away from hotel, I had my  daughter and my wife  with me). 4/5miles !! It was difficult to walk for them at noon time. So I requested hotel people to send a taxi for me, They said taxi is difficult now because there is no address of  the road where I am standing. Hotel manager instead said he will come and pick me up from there , so he told me to stand in the main road. He kept his promise and came in 15 mins and took me and my family with him to the hotel.
+ I was really in trouble with my baby daughter at that moment.I am thankful to the hotel management for this kind help.
+Other facility in the hotel is also very good, Room is really big and clean, Everything whatever written about the hotel is true.  Only one advice , if you are tourist and coming for first time , just book...I checked into the hotel today, but I lost my way while coming from Lakewood Metro Station. I was coming by public bus and the bus driver dropped me off some where in a desert like place in Rosemead.( I am surprised in LosAngeles most of the people are not aware of  any address or any bus/train route) . I waited near by a lake and called to the hotel (luckily I got network in my mobile and I was 4 miles away from hotel, I had my  daughter and my wife  with me). 4/5miles !! It was difficult to walk for them at noon time. So I requested hotel people to send a taxi for me, They said taxi is difficult now because there is no address of  the road where I am standing. Hotel manager instead said he will come and pick me up from there , so he told me to stand in the main road. He kept his promise and came in 15 mins and took me and my family with him to the hotel. I was really in trouble with my baby daughter at that moment.I am thankful to the hotel management for this kind help.Other facility in the hotel is also very good, Room is really big and clean, Everything whatever written about the hotel is true.  Only one advice , if you are tourist and coming for first time , just book a  taxi and come. Do not beleive public transport in LA ,sometime it could be nightmare.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r226891494-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -790,18 +1124,9 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>HotelCareStaff, General Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded November 10, 2014</t>
-  </si>
-  <si>
-    <t>Responded November 10, 2014</t>
-  </si>
-  <si>
     <t>Stay for 6 nights in this hotel while visiting LA. The staffs are nice and very helpful, and there has a shopping mall just a few distance from the hotel! Nice! And also this hotel provides DECAF coffee!! OMG decaf coffee! very surprise! because I can drink normal coffee after lunch time, I feel very warm and happy about this coffee^^More</t>
   </si>
   <si>
-    <t>vinn_2k</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r208959043-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -823,9 +1148,6 @@
     <t>Stayed here for 4 nights in April as part of a tour group of Tours4fun.  I liked this property from the moment I entered.  Cheerful and friendly staff, a computer to check your mails or if you carry your laptop, free wifi, a table set every evening offering free water, tea/coffee and fruits. The breakfast room is very small, but lovely breakfast...The room is a bit dated with old carpets but still very functional, and very very comfortable.  The A/c worked beautifully, the toilet was clean and toileteries were provided. Towels were soft and the bed was very comfortable as well.   As far as the location is concered, being part of the tour, I was only concerned about the food.  Opposite the hotel is a Mc Donalds, and 5 minutes walk away is a hugeeeeeeee mall with a lovely foodcourt thats very reasonably priced. Overall, so much of fruit around that it was sufficient to carry away and have for lunch !   On the whole, very very happy with this property and strongly recommend.   Those who are looking for spotless carpets, huge dining rooms, etc, look else where.... FOr what I paid, this property was a bargain.  A former Holiday Inn, I am told its changing to the Marriott or someother brand, but if the rates, service and staff remain the same, this is a Value for money Hotel....More</t>
   </si>
   <si>
-    <t>10levitra</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r204043719-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -844,7 +1166,52 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>richann</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r194513840-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>194513840</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>What a change</t>
+  </si>
+  <si>
+    <t>Stayed last year , When it was a Holiday Inn, it was great, This Town Center Inn lacks a lot to be desired, Asked for a Handicap room, I arrived at 2:30pm. Clerk said room not ready, (I had a 4 day reservation,) I requested a blanket, Said they were all out, spare towels looked like they hadn't been washed, Exit door, you can go out but not get back in. I will not be using this place again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>HotelCareStaff, General Manager at Fairfield Inn &amp; Suites Los Angeles Rosemead, responded to this reviewResponded February 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2014</t>
+  </si>
+  <si>
+    <t>Stayed last year , When it was a Holiday Inn, it was great, This Town Center Inn lacks a lot to be desired, Asked for a Handicap room, I arrived at 2:30pm. Clerk said room not ready, (I had a 4 day reservation,) I requested a blanket, Said they were all out, spare towels looked like they hadn't been washed, Exit door, you can go out but not get back in. I will not be using this place again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r192167227-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>192167227</t>
+  </si>
+  <si>
+    <t>01/26/2014</t>
+  </si>
+  <si>
+    <t>Solid for budget travellers</t>
+  </si>
+  <si>
+    <t>Though this has Holiday inn materials throughout, it is no longer in that group, and has perhaps new independent ownership.  Nonetheless, it had HI Express features, with refrigerator and microwave, a large tv, and exceptionally fast internet in our room on the top far as far from the server as possible.  The room was a mix of older furniture and some remodel (good bathroom).  The hall ways were not clean, and the ice maker was running water all the time, signs of careless maintenance.  Our room was not dirty, but the cleaning seemed a trifle sloppy in the details.  The pool is very large within a courtyard, so completely private.  Rooms have balconies or patios.  Breakfast was standard and well managed.  An enormous mall is around the corner for walking on smoggy days, which we had.Other family chose the Doubletree next door, at more expense.  There room was no better in quality, size, and lacked breakfast.  We were pleased to find this in an expensive area of LA popular with people who know the location gives easiest access to theme parks and downtown sites.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Though this has Holiday inn materials throughout, it is no longer in that group, and has perhaps new independent ownership.  Nonetheless, it had HI Express features, with refrigerator and microwave, a large tv, and exceptionally fast internet in our room on the top far as far from the server as possible.  The room was a mix of older furniture and some remodel (good bathroom).  The hall ways were not clean, and the ice maker was running water all the time, signs of careless maintenance.  Our room was not dirty, but the cleaning seemed a trifle sloppy in the details.  The pool is very large within a courtyard, so completely private.  Rooms have balconies or patios.  Breakfast was standard and well managed.  An enormous mall is around the corner for walking on smoggy days, which we had.Other family chose the Doubletree next door, at more expense.  There room was no better in quality, size, and lacked breakfast.  We were pleased to find this in an expensive area of LA popular with people who know the location gives easiest access to theme parks and downtown sites.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r164022552-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -874,9 +1241,6 @@
     <t>Stayed 2nd to 6th June 2013.   The hotel is a bit old but the staff and location more than make up for it. Tracy in the breakfast room was fantastic, a dedicated worker and was truly interested in making sure everything was OK.   Reception and other staff very helpful and importantly cheerful.  Rooms a bit dated but clean and spacious.   Definitely stay there again if in the area.More</t>
   </si>
   <si>
-    <t>HizCreation</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r161997003-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -901,9 +1265,6 @@
     <t>It's been an amazing experience during our recent stay at HIE. The staff was friendly. The room was clean and no smoky smell. The breakfast served daily had good variety. The water pressure was good for a satisfying shower.More</t>
   </si>
   <si>
-    <t>papamac56</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r160381354-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -928,7 +1289,43 @@
     <t>This was one of my worst experiences at a Holiday Inn Express stays.  The hotel was very old in design and atmosphere. There was a musty, damp smell in the hotel.  The room was adequate but the internet was terrible. I do a lot of work while traveling for business via the internet and I could not complete simple tasks due to slow internet. I tried to download and print an Excel spreadsheet at the business center  (joke) a computer in the lobby. It could not download the document. I mentioned this to the staff and the desk clerk just gave me a stupid grin and shrugged her shoulders not comment.More</t>
   </si>
   <si>
-    <t>Michael G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r160217659-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>160217659</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>Nice property with great staff</t>
+  </si>
+  <si>
+    <t>We stayed here and drove to Hollywood each day for a film festival. The room was a nice size and very clean. Beds are comfortable. The bathroom only had one sink which was tough for two females getting ready every day and they only supplied 3 bath towels when we really could have used 4, but we managed. The fridge and microwave were welcome and helped us to cut down on food costs. The staff was very nice and could not have been more welcoming.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>We stayed here and drove to Hollywood each day for a film festival. The room was a nice size and very clean. Beds are comfortable. The bathroom only had one sink which was tough for two females getting ready every day and they only supplied 3 bath towels when we really could have used 4, but we managed. The fridge and microwave were welcome and helped us to cut down on food costs. The staff was very nice and could not have been more welcoming.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r156838374-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>156838374</t>
+  </si>
+  <si>
+    <t>04/06/2013</t>
+  </si>
+  <si>
+    <t>Great hotel, staff and location</t>
+  </si>
+  <si>
+    <t>I am still enjoying my stay at this fine hotel.  The staff have all been very friendly, accommodating, and gracious.  The bed is as comfortable as any I have had in a hotel.  The room is excellent for doing business and even has its own veranda.  The Jacuzzi and pool are clean and well located.  There is a huge shopping mall a short walk up the hill and getting on to main thoroughfares is easy. A hot breakfast buffet is a very nice touch and small touches like cookies and readily available coffee are nice.  Nothing really fancy, but exceptionally clean and well-managed.   I will be staying here for about two more weeks, but I know I will enjoy the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am still enjoying my stay at this fine hotel.  The staff have all been very friendly, accommodating, and gracious.  The bed is as comfortable as any I have had in a hotel.  The room is excellent for doing business and even has its own veranda.  The Jacuzzi and pool are clean and well located.  There is a huge shopping mall a short walk up the hill and getting on to main thoroughfares is easy. A hot breakfast buffet is a very nice touch and small touches like cookies and readily available coffee are nice.  Nothing really fancy, but exceptionally clean and well-managed.   I will be staying here for about two more weeks, but I know I will enjoy the stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r156137641-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -949,9 +1346,6 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>Danielle L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r155091953-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -965,9 +1359,6 @@
   </si>
   <si>
     <t>We stayed here on our visit to celebrate my grandpa's 102nd birthday. It was in a convenient location and close to the mall which was great. The hotel was clean and the staff was very friendly and helpful. The continental breakfast was good also.</t>
-  </si>
-  <si>
-    <t>Eulalia_3</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r152156071-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -1009,7 +1400,37 @@
 Also, unfortunately, there is no fitness center.  -- I was pleasantly told that this was because of the age ... hmmmm, I know for sure that two rooms could be converted into an exercise room.  They should have just said, "we're so sorry, we just don't have an exercise room and...First, I'd like to start by saying that this hotel is unque in that it is one of the 1st Holiday Inn Express Hotels in So. Cal.  (Approx. 18 years old)The man at the desk said it was the first to start construction, but then another HIE in the Long Beach area was completed before it. -- (Just some trivia.)It is dated inside....a bit "tired" in some areas, but very clean and very pleasant.With that said, I would definitely stay again!Each room had nice balconies ... ask for a pool side vs a highway side room.The hotel location is good for travel, but it is wedged on the corner of 2 busy roads.  Esther at the desk went above and beyond to meet my needs.  She was extremely pleasant!I had a pool/center hotel room and there were bright lights on all night long outside the balconies.  Unfortunately, the room curtains did not block 100% of the light.  (I like to sleep when it is super dark.)Because of the age, there were few outlets .... but plenty of towels and great hot water.Also, unfortunately, there is no fitness center.  -- I was pleasantly told that this was because of the age ... hmmmm, I know for sure that two rooms could be converted into an exercise room.  They should have just said, "we're so sorry, we just don't have an exercise room and not used the hotel age excuse."... once again --- would definitely stay at hotel again!: -)More</t>
   </si>
   <si>
-    <t>ilove2travel951</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r152108440-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>152108440</t>
+  </si>
+  <si>
+    <t>Amazing, even for reward redemptions</t>
+  </si>
+  <si>
+    <t>Some Holiday Inns treat reward night redemptions as a pain - the hotel is not making anything on the room so don't really try to ensure your stay is enjoyable. This HI is the complete opposite, The staff were extremely welcoming and attentive. Esther and her team should be proud.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r151510008-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>151510008</t>
+  </si>
+  <si>
+    <t>02/05/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel, good location</t>
+  </si>
+  <si>
+    <t>When visiting the US, we like to stay in Holiday Inn Express hotels. This hotel has got everything we have come to expect from HI Express. This hotel is not so new anymore and it shows in decoration, carpets and furniture. That being said, we did like our room which was nice enough and large. With even a balcony! We chose this hotel for being more or less central for LA area touristic purposes (downtown, Hollywood, Orange County, Ontario Mills Outlet Mall) and for its reasonable pricing. There’s a nice mall (Montebello) around the corner, there are restaurants nearby and the hotel is virtually on the Freeway entry/exit. We’ve been in quite a few HI Express hotels, but I never saw a breakfast room so small, not a good idea. Staff is very friendly. We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>When visiting the US, we like to stay in Holiday Inn Express hotels. This hotel has got everything we have come to expect from HI Express. This hotel is not so new anymore and it shows in decoration, carpets and furniture. That being said, we did like our room which was nice enough and large. With even a balcony! We chose this hotel for being more or less central for LA area touristic purposes (downtown, Hollywood, Orange County, Ontario Mills Outlet Mall) and for its reasonable pricing. There’s a nice mall (Montebello) around the corner, there are restaurants nearby and the hotel is virtually on the Freeway entry/exit. We’ve been in quite a few HI Express hotels, but I never saw a breakfast room so small, not a good idea. Staff is very friendly. We would stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r146227215-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -1033,9 +1454,6 @@
     <t>Very friendly service and, very! clean room. Upon arrival, I was met by an extremely friendly staff (Esther), who checked me in within minutes. Five minutes after settling down in my room, I received a call from the front desk inquiring on whether I needed anything else in the room, and whether the room was in good condition. This sense of attention to detail is what makes ones experience pleasant.  Additionally, they have a nice warm breakfast from 6-10am. Given I was there with my wife and 2 kids, the kids loved the endless pancakes (all included in the room fee).When I checked out, I was faced with the same friendly and courteous staff who even offered my family bottles of water for the road. I left that place knowing I will be back!More</t>
   </si>
   <si>
-    <t>jsjxyz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r146129558-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1054,9 +1472,6 @@
     <t>December 2011</t>
   </si>
   <si>
-    <t>Lo Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r141621714-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1075,7 +1490,50 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>fire-tower</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r139896440-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>139896440</t>
+  </si>
+  <si>
+    <t>09/10/2012</t>
+  </si>
+  <si>
+    <t>Excellent Experience</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here using points, and were a little worried when we found it was 10,000 pts per night less than the other Holiday Inn's in the area. Looking for a good deal, we were very pleasantly surprised upon check-in.  We were greeted by possibly the friendliest front desk person we've ever met (and my wife travels for a living, spending almost 100 nights per year in hotels), were given a fantastically large room, and felt very welcome.  
+Breakfast: typical HI Express breakfast, good and fast. Nothing was old, everything was fresh, and the gal kept the area really clean.  She always had a smile on her face!
+Gym: there's no gym on location, but they give you free access to a HUGE gym about 7 minutes away.  It's every gym-goers dream come true.  My wife is a workout fanatic, and I thought she'd spend every waking moment at the gym b/c she loved it so much. So it's a short distance away, but it's totally worth it. Huge (think Costco-sized bldg) with every type of equipment, including MMA mats, grappling equipment, tons of cardio, weights, etc.  
+Room: nice and big, super clean, no bugs (we ALWAYS check for bed bugs, being paranoid: no sign of them anywhere)
+Pool: We didn't have time for it, but it was outdoors, looked nice and big, and had a really nice patio around it.  
+Parking/location: easy to get to, convenient...My wife and I stayed here using points, and were a little worried when we found it was 10,000 pts per night less than the other Holiday Inn's in the area. Looking for a good deal, we were very pleasantly surprised upon check-in.  We were greeted by possibly the friendliest front desk person we've ever met (and my wife travels for a living, spending almost 100 nights per year in hotels), were given a fantastically large room, and felt very welcome.  Breakfast: typical HI Express breakfast, good and fast. Nothing was old, everything was fresh, and the gal kept the area really clean.  She always had a smile on her face!Gym: there's no gym on location, but they give you free access to a HUGE gym about 7 minutes away.  It's every gym-goers dream come true.  My wife is a workout fanatic, and I thought she'd spend every waking moment at the gym b/c she loved it so much. So it's a short distance away, but it's totally worth it. Huge (think Costco-sized bldg) with every type of equipment, including MMA mats, grappling equipment, tons of cardio, weights, etc.  Room: nice and big, super clean, no bugs (we ALWAYS check for bed bugs, being paranoid: no sign of them anywhere)Pool: We didn't have time for it, but it was outdoors, looked nice and big, and had a really nice patio around it.  Parking/location: easy to get to, convenient to parks, freeways, mall and food. Parking was never a problem and was free.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here using points, and were a little worried when we found it was 10,000 pts per night less than the other Holiday Inn's in the area. Looking for a good deal, we were very pleasantly surprised upon check-in.  We were greeted by possibly the friendliest front desk person we've ever met (and my wife travels for a living, spending almost 100 nights per year in hotels), were given a fantastically large room, and felt very welcome.  
+Breakfast: typical HI Express breakfast, good and fast. Nothing was old, everything was fresh, and the gal kept the area really clean.  She always had a smile on her face!
+Gym: there's no gym on location, but they give you free access to a HUGE gym about 7 minutes away.  It's every gym-goers dream come true.  My wife is a workout fanatic, and I thought she'd spend every waking moment at the gym b/c she loved it so much. So it's a short distance away, but it's totally worth it. Huge (think Costco-sized bldg) with every type of equipment, including MMA mats, grappling equipment, tons of cardio, weights, etc.  
+Room: nice and big, super clean, no bugs (we ALWAYS check for bed bugs, being paranoid: no sign of them anywhere)
+Pool: We didn't have time for it, but it was outdoors, looked nice and big, and had a really nice patio around it.  
+Parking/location: easy to get to, convenient...My wife and I stayed here using points, and were a little worried when we found it was 10,000 pts per night less than the other Holiday Inn's in the area. Looking for a good deal, we were very pleasantly surprised upon check-in.  We were greeted by possibly the friendliest front desk person we've ever met (and my wife travels for a living, spending almost 100 nights per year in hotels), were given a fantastically large room, and felt very welcome.  Breakfast: typical HI Express breakfast, good and fast. Nothing was old, everything was fresh, and the gal kept the area really clean.  She always had a smile on her face!Gym: there's no gym on location, but they give you free access to a HUGE gym about 7 minutes away.  It's every gym-goers dream come true.  My wife is a workout fanatic, and I thought she'd spend every waking moment at the gym b/c she loved it so much. So it's a short distance away, but it's totally worth it. Huge (think Costco-sized bldg) with every type of equipment, including MMA mats, grappling equipment, tons of cardio, weights, etc.  Room: nice and big, super clean, no bugs (we ALWAYS check for bed bugs, being paranoid: no sign of them anywhere)Pool: We didn't have time for it, but it was outdoors, looked nice and big, and had a really nice patio around it.  Parking/location: easy to get to, convenient to parks, freeways, mall and food. Parking was never a problem and was free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r139388720-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>139388720</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>I can't tell you when I last received a handwritten note thanking us for our stay.Carpets do need either cleaning or updating. Hallway floors a bit uneven.We had quite the long walk to our roomCinnamon rolls were quite tasty. Pancake maker (not waffle) wasn't quite toasting them properly. Other breakfast fare typical.May stay again for a good price.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r135784904-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -1099,9 +1557,6 @@
     <t>I stayed here for a week in July 2012, and I must say that the staff, especially at the front desk, are genuinely friendly!  The rooms here are generally large, and the water pressure in the bathroom is decent. It has a shopping mall, a gas station and 2 restaurants nearby. There are also 2 fast food joints across the road, one being McDonalds. The breakfast area is small, and you eat using disposable plates, forks, spoons and knives.  Also, the property seemed to need a little work (in terms of upgrading), especially the carpeting, elevator and air conditioner (a little noisy), although the place is generally well maintained.  It's a little expensive, compared to the motel across the freeway.  This is the first HIE I am staying at, so may be i am expecting too much ....More</t>
   </si>
   <si>
-    <t>yolanda h</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r131786159-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1123,9 +1578,6 @@
     <t>Nice Hotel, clean, the lady in the reception area was very friendly.  We stayed 1 night on our way back to San Jose from LA because we were very tired so we decided to get a night sleep and continue in the morning.  The bad thing was we didn't rest very well, the beds were very hard and around 2 in the morning there was stomping on the room right above ours, there was opening and closing of cabinets and there were balconys for each room, we woke up and unable to get any sleep after that because they decided to go on the balcony and continue to make alot of noise so that is why I am giving this hotel an average review.More</t>
   </si>
   <si>
-    <t>caltrave</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r129413127-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1150,7 +1602,40 @@
     <t>I do not write reviews.  After my stay at the HIE Express Rosemead, I feel that I have to write this review.  I am a Priority Club Platinum Elite member and have stayed at IHG properties worldwide.  This is the worst property ever.  It is a disgrace to the IHG group of hotels for the following reasons:It looks and feels like a motelOld property, stuck in the last centuryOld carpet, elevator etc.Popcorn ceilingRoom carpet was heavily covered with cleaning powder to mask the smellVery basic toiletriesVery sad breakfast area conditionVery old window acOld furnitures from the last century, makes the room almost haunted lookingDo not pay more than $50 for the room.It is an ok place if you camMore</t>
   </si>
   <si>
-    <t>RandD517</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r127565508-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>127565508</t>
+  </si>
+  <si>
+    <t>04/09/2012</t>
+  </si>
+  <si>
+    <t>Friendly service and good location</t>
+  </si>
+  <si>
+    <t>After getting lost (our fault) we arrived to a lovely welcome at this hotel.  It is an express so it has limited services but it is located next to a large shopping centre.  We were upgraded to a suite which was lovely and offered hot and cold refreshments on arrival.  We were only there for one night so didn't use the pool but the area looked clean and well maintained.  Make sure you try the warm cinnamon danishes for breakfast they are the best i have ever tasted.  On leaving in the morning  we were offered cold water for our travels - very thoughtful!</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r126350720-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>126350720</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>GREAT Place to stay in</t>
+  </si>
+  <si>
+    <t>My wife and I had the pleasure of staying here the beginning of March and all we can say is what a gorgeous place this is.  It is located on a corner and just down the street is a nice mall and a Costco.  It is centrally located to access the 60 freeway both north and south.  The breakfast they serve is great and the hostess is most accommodating.We will return again.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r126176168-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -1168,15 +1653,9 @@
     <t>I have been a loyal HI stayer for 15 yrs and I have never written a review before now.  This HI express staff should be the poster employess for the entire chain.  They were prompt, welcoming and seem to be happy to take care of you.  Everyone at the hotel greets you and asks if there is anything you need.All the reviews about the condition of hotel forget about it.  Yes it isn't all brand new and remodel ( expcet the lobby) but I have stayed in Crowne Plazas much worse.  Everything was very clean and had what a needed in my room for the brief stay.  Excellent TV etc.  Locfation is right by a Mall that has nice eating choices.  Fast food nearby if thats your sort of thing.Safe area to stay and convenient to get around.  I was there for business not pleasure so can't speak to any tourist things.Again staff you are the best.MoreShow less</t>
   </si>
   <si>
-    <t>March 2012</t>
-  </si>
-  <si>
     <t>I have been a loyal HI stayer for 15 yrs and I have never written a review before now.  This HI express staff should be the poster employess for the entire chain.  They were prompt, welcoming and seem to be happy to take care of you.  Everyone at the hotel greets you and asks if there is anything you need.All the reviews about the condition of hotel forget about it.  Yes it isn't all brand new and remodel ( expcet the lobby) but I have stayed in Crowne Plazas much worse.  Everything was very clean and had what a needed in my room for the brief stay.  Excellent TV etc.  Locfation is right by a Mall that has nice eating choices.  Fast food nearby if thats your sort of thing.Safe area to stay and convenient to get around.  I was there for business not pleasure so can't speak to any tourist things.Again staff you are the best.More</t>
   </si>
   <si>
-    <t>budgetfreak</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r125380719-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1195,9 +1674,6 @@
     <t>February 2012</t>
   </si>
   <si>
-    <t>Littoxskittle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r124895107-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1213,7 +1689,40 @@
     <t>The hotel is nice, convenient, easy to get to from where we needed to be. The staff is very friendly (except for the older asian lady that so happens to be a manager, she can go somewhere.) and they were able to accommodate for things that we needed. My only concern was the beds, aren't very comfortable and it gets reaaaally chilly at night. We put the heater on full blast maybe an hr or two before actually going to bed but it didn't seem to help. Adding in a comforter definitely wouldn't hurt. But overall good, mostly because of the cleanliness.</t>
   </si>
   <si>
-    <t>sweetenergytravel</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r123849049-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>123849049</t>
+  </si>
+  <si>
+    <t>01/30/2012</t>
+  </si>
+  <si>
+    <t>Adequate, not outstanding.</t>
+  </si>
+  <si>
+    <t>Other than a bit inconvenient to get in and out of, I really don't have any major complaints about this hotel.  Almost no restaurants will deliver here for some reason.  It is not in a bad area, just behind the Montebello Mall.  Just off the 60 freeway on San Gabirel Avenue.  The room was clean and comfortable, the breakfast was good.  But overall my feeling was very 'average' about the property.  I stayed here 4 days, because I was doing business in the area.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r123078682-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>123078682</t>
+  </si>
+  <si>
+    <t>01/14/2012</t>
+  </si>
+  <si>
+    <t>Wonderful Staff.....try to please everyone!</t>
+  </si>
+  <si>
+    <t>We just came back from spending a week at the Holiday Inn Rosemead....stayed here to be close to Pasadena for the Rose Bowl.  Although this is not a new property or has any of the 'bells and whistles' of something in downtown LA, the staff are wonderful and try their very best to please all guests.  The breakfast room was well equipped and the lady in charge of this area was fantastic!  You would think she was having people to her own home.  If there was something that anyone wanted, she went out of her way to get if for them....and was very kind to everyone.  The location allows you quick access to many of the touristy spots outside LA...worth the trip to the Regan Library and only a 2+ hour drive to Palm Springs.MoreShow less</t>
+  </si>
+  <si>
+    <t>We just came back from spending a week at the Holiday Inn Rosemead....stayed here to be close to Pasadena for the Rose Bowl.  Although this is not a new property or has any of the 'bells and whistles' of something in downtown LA, the staff are wonderful and try their very best to please all guests.  The breakfast room was well equipped and the lady in charge of this area was fantastic!  You would think she was having people to her own home.  If there was something that anyone wanted, she went out of her way to get if for them....and was very kind to everyone.  The location allows you quick access to many of the touristy spots outside LA...worth the trip to the Regan Library and only a 2+ hour drive to Palm Springs.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r119772681-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -1237,9 +1746,6 @@
     <t>I stay a weekend here almost monthly for business for the past year, I'm only just now getting around to reviewing it. It's conveniently located to the 60 highway (entrance ramp is right across the street from the hotel) and the mall at Montebello (2 short blocks = 5 min walk).  My room has always been clean and comfortable.  I would not call it motel standards by far.  It's not luxury either, though.  For business travel it works for me, I get free Wi-fi, breakfast, a hot shower, working AC/ heat, and a decent bed (No, you won't find the signature Westin and Double Tree "heavenly" bedding here!). What more do you need for basic travel? I won't comment on the cost because the job pays for it, however, I have seen their listed rates and it looks reasonable online, unless it's a holiday weekend.More</t>
   </si>
   <si>
-    <t>cu u</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r119161986-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1256,9 +1762,6 @@
   </si>
   <si>
     <t>March 2011</t>
-  </si>
-  <si>
-    <t>kelerica</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r118094336-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -1284,7 +1787,40 @@
 Little facts that I experienced...If you are coming to LA for tourism it really isnt near the tourist attractions. We were visiting friends who just had a baby and they live in Arcadia. It was less than 10 minutes from their house. This hotel does NOT have a gym. It is about 30-40 minutes from airport without traffic. 30 minutes from Universal Studios without traffic and though Malibu...This hotel I must say needs the carpet updated. Overall I think the hotel is kept up nicely in a cleaning sense and the staff are extremely nice and helpful, but the carpet seems old and it has rippling in it to the point that my luggage was hard to roll. It also just felt gross to the point I didnt want to be barefoot. The is my only complaint in our 7 night stay. I cant say enough about the staff. At many hotels I have stayed at the staff are nice and you know they must be because they are trained to be and they would probably loose their job if they werent, BUT the staff here actually seemed GENUINELY kind people who truly care about your experience in LA. I have to say that of all the hotels in and out of the states that I have stayed at the staff here have left a lasting impression not only on myself but also to my 10 yr old daughter. Little facts that I experienced...If you are coming to LA for tourism it really isnt near the tourist attractions. We were visiting friends who just had a baby and they live in Arcadia. It was less than 10 minutes from their house. This hotel does NOT have a gym. It is about 30-40 minutes from airport without traffic. 30 minutes from Universal Studios without traffic and though Malibu beach may read 37 miles or so it took us over 2 hrs in the middle of a weekday :(  The hotel has free internet and breakfast and great cable channels. There was a fridge and microwave in the room and one day we ordered pizza and they delivered extremely fast to our door. Overall I cannot say enough about the staff from the housekeeping to the young lady that put breakfast out every morning and the gals and guys that ran the desk. They all deserve 10 stars each for great customer service :)More</t>
   </si>
   <si>
-    <t>AL1470</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r117354029-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>117354029</t>
+  </si>
+  <si>
+    <t>08/28/2011</t>
+  </si>
+  <si>
+    <t>Close to highways</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nighrts. The hotel is situated close to highways so it was easy to get around. Our room was spacious but there were leftovers from the previous guests... we found drawings and stickers on the wall... The shower is so powerfull that it almost throws you against the wall!Breakfast was good, the usual stuff. There was enough room for every guest to sit.Staff was very polite and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r84965046-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>84965046</t>
+  </si>
+  <si>
+    <t>10/26/2010</t>
+  </si>
+  <si>
+    <t>HARD BED</t>
+  </si>
+  <si>
+    <t>My husband had to go to the area for work...My 2 year old daughter and I went with him this time.  We were there Sunday night through Friday night.  I called before we booked to see if they had a microwave in the room  ... the staff person told me they did not have microwaves! UGH since my husband travels so much he has had a great experience with all Holiday Inn so we decided to make it work without the microwave.  Walked into our room and BONUS there is a microwave....Why the staff did not know about it *shrugs* So the wireless internet stopped working in our room ... we got it when we were in the lobby, ...we switched rooms because we NEEDED internet all the time for work ... UGH it was smaller, right on the street loud traffic, and APPARENTLY at 3am each morning they set up tables and chairs in the connecting rooms next to us!!! there was a special free breakfast for some group of people the food smelled AWFUL (it was not the normal American breakfast) and the 3am wake up call was not a request!!!  The internet they have in the lobby HAS to be dial up the wireless was just as slow I had to give my confirmation number for airlines to the front desk so he could print our boarding pass.. THE BEDS WERE SO HARD it was like they...My husband had to go to the area for work...My 2 year old daughter and I went with him this time.  We were there Sunday night through Friday night.  I called before we booked to see if they had a microwave in the room  ... the staff person told me they did not have microwaves! UGH since my husband travels so much he has had a great experience with all Holiday Inn so we decided to make it work without the microwave.  Walked into our room and BONUS there is a microwave....Why the staff did not know about it *shrugs* So the wireless internet stopped working in our room ... we got it when we were in the lobby, ...we switched rooms because we NEEDED internet all the time for work ... UGH it was smaller, right on the street loud traffic, and APPARENTLY at 3am each morning they set up tables and chairs in the connecting rooms next to us!!! there was a special free breakfast for some group of people the food smelled AWFUL (it was not the normal American breakfast) and the 3am wake up call was not a request!!!  The internet they have in the lobby HAS to be dial up the wireless was just as slow I had to give my confirmation number for airlines to the front desk so he could print our boarding pass.. THE BEDS WERE SO HARD it was like they had plywood with a mattress topper over it!!! they offered me an extra blanket ... I got bruised from sleeping on that bed for a week ... .it was a very inconvenient LONG stay at the Holiday Inn Express ...   and they breakfast was nothing to be trilled about. Oh yeah and the 2nd room didn't have a microwave!!! so i brought the one from the other room with us! ha whatever...they charge way to much ! the Motel 6 down the street could have been just the same for $50 a night rather then $130MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>My husband had to go to the area for work...My 2 year old daughter and I went with him this time.  We were there Sunday night through Friday night.  I called before we booked to see if they had a microwave in the room  ... the staff person told me they did not have microwaves! UGH since my husband travels so much he has had a great experience with all Holiday Inn so we decided to make it work without the microwave.  Walked into our room and BONUS there is a microwave....Why the staff did not know about it *shrugs* So the wireless internet stopped working in our room ... we got it when we were in the lobby, ...we switched rooms because we NEEDED internet all the time for work ... UGH it was smaller, right on the street loud traffic, and APPARENTLY at 3am each morning they set up tables and chairs in the connecting rooms next to us!!! there was a special free breakfast for some group of people the food smelled AWFUL (it was not the normal American breakfast) and the 3am wake up call was not a request!!!  The internet they have in the lobby HAS to be dial up the wireless was just as slow I had to give my confirmation number for airlines to the front desk so he could print our boarding pass.. THE BEDS WERE SO HARD it was like they...My husband had to go to the area for work...My 2 year old daughter and I went with him this time.  We were there Sunday night through Friday night.  I called before we booked to see if they had a microwave in the room  ... the staff person told me they did not have microwaves! UGH since my husband travels so much he has had a great experience with all Holiday Inn so we decided to make it work without the microwave.  Walked into our room and BONUS there is a microwave....Why the staff did not know about it *shrugs* So the wireless internet stopped working in our room ... we got it when we were in the lobby, ...we switched rooms because we NEEDED internet all the time for work ... UGH it was smaller, right on the street loud traffic, and APPARENTLY at 3am each morning they set up tables and chairs in the connecting rooms next to us!!! there was a special free breakfast for some group of people the food smelled AWFUL (it was not the normal American breakfast) and the 3am wake up call was not a request!!!  The internet they have in the lobby HAS to be dial up the wireless was just as slow I had to give my confirmation number for airlines to the front desk so he could print our boarding pass.. THE BEDS WERE SO HARD it was like they had plywood with a mattress topper over it!!! they offered me an extra blanket ... I got bruised from sleeping on that bed for a week ... .it was a very inconvenient LONG stay at the Holiday Inn Express ...   and they breakfast was nothing to be trilled about. Oh yeah and the 2nd room didn't have a microwave!!! so i brought the one from the other room with us! ha whatever...they charge way to much ! the Motel 6 down the street could have been just the same for $50 a night rather then $130More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r84774408-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -1302,12 +1838,6 @@
     <t>I booked this on priceline for $75 plus tax.  For the price, it was a decent stay of 4 nights, but I sorely missed an exercise room.  I found the rooms clean and large for a single king.  They are nothing that fancy, though.  The breakfast included in the price is good for the usual style of help yourself breakfast.  USA today included.  Friendly staff.  I needed to be close to this address.</t>
   </si>
   <si>
-    <t>October 2010</t>
-  </si>
-  <si>
-    <t>tablespace</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r73180935-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1326,9 +1856,6 @@
     <t>July 2010</t>
   </si>
   <si>
-    <t>Kayin26</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r68010114-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1350,7 +1877,40 @@
     <t>My best friend &amp; I planned on staying for the night to attend a graduation in the area. We checked in during the afternoon to Room 302 after the graduation and took a nap before the party that night. My friend woke me up only to find small red bugs all over the bed and me. A google search identified them as bed bugs!! We went downstairs using the stairs (the light was out in the elevator!). The front desk person did give us a new bigger room, which was bug free and after talking to the manager, comped our stay. We decided to change hotels anyway and they canceled our room, no charge for anything. We stayed at the Double Tree right behind this place. The Double Tree was so much nicer! About $20 more expensive, but much cleaner &amp; nicer rooms and property.    The bed bug experience was just disgusting and the hotel itself wasn't really nice to begin with, although the staff was helpful enough in doing what they could to rectify the situation.  Just pay the extra $20 a night or so and stay at the Double Tree around the block and always check hotel beds, sheets, bedboards, wallpaper, and bedside tables for bed bugs!More</t>
   </si>
   <si>
-    <t>mzmommy</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r66685269-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>66685269</t>
+  </si>
+  <si>
+    <t>06/06/2010</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>Friendly staff; clean hotel and room; free internet; and complimentary breakfast. The only issue is that our room faces the street and I can hear pretty strong traffic noise at Morning.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r56157945-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>56157945</t>
+  </si>
+  <si>
+    <t>02/16/2010</t>
+  </si>
+  <si>
+    <t>Not as good as stays before.</t>
+  </si>
+  <si>
+    <t>We have been regulars to this hotels for the last 5 years for tax filing purposes the next day.We requested a room facing inside towards the pool.Which we feel is more quiet then the rooms facing street.We got our request on the first floor.Problems right away with toilet leaking water after every flush.Reqested new room but got one facing parking lot.If you stay at this hotel request second floor.We have never had problems with them when staying at there.Another problem in the new room with remote for T.V had battery cover missing which mad it basically unfunctional.Breakfast as always top notch.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r51895198-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -1371,9 +1931,6 @@
     <t>December 2009</t>
   </si>
   <si>
-    <t>pomimi</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r50247679-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1395,9 +1952,6 @@
     <t>We stayed here last Thanksgiving weekend and stayed here again this Thanksgiving.  Our experience last year was positive and is again this year.  Our last critique included minor problems, but hotel management since corrected them.  We were met at the front desk by Jessica.  She was pleasant, professional, and helpful.  We hope that management reviews my critique and acknowledge her value to the hotel.  Since last year, the hotel upgraded their high speed internet system.  We had no problems accessing the room wireless internet.  The speed was fast in the evening, but did slow down a little in the morning.  The hotel also installed complementary high speed internet in the lobby.  Last year it was a paid service.  Overall, we were happy with the upgrade. The room was again clean and the bed and pillows were comfortable.  The “Great Room” is still relatively small, but the complementary breakfast is still great.  I again went for the biscuits and gravy. Again, thanks to hotel management for doing a good job.More</t>
   </si>
   <si>
-    <t>chiiqqyy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r46196210-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -1414,6 +1968,31 @@
   </si>
   <si>
     <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79607-r20156770-Fairfield_Inn_Suites_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>20156770</t>
+  </si>
+  <si>
+    <t>09/17/2008</t>
+  </si>
+  <si>
+    <t>Nice but needs some maintenance</t>
+  </si>
+  <si>
+    <t>I have stayed at this property before in the past and I would stay here again in the future when I need to travel to this area. The location is convenient to the Whittier Narrows Recreation Area, shopping (Montebello Town Center, Costco) and the 60 freeway. 
+Overall the property is in good condition and well kept. The breakfast was much improved over the last time I stayed about four years ago. There were more items to choose from and everything was well supplied whenever I came down to breakfast. All the staff I had contact with, like at the front desk or walking down the hall, were friendly and courteous. The pool area is nice. 
+My room was clean and comfortable with modern decor, although the air conditioner was old and did not keep up with cooling the room and it was noisy. It was quiet except some traffic on the road in front. Probably the most disappointing part of my stay was all the little maintenance things that needed to be done. The property is older and items like light switches and the air conditioner are showing their age. The desk chair was stuck in the lowest position, which for me since I’m tall, was uncomfortable when working at the desk. The power outlet on the desk lamp did not work and I had to climb under the desk to plug in my computer. The shower controller was hooked...I have stayed at this property before in the past and I would stay here again in the future when I need to travel to this area. The location is convenient to the Whittier Narrows Recreation Area, shopping (Montebello Town Center, Costco) and the 60 freeway. Overall the property is in good condition and well kept. The breakfast was much improved over the last time I stayed about four years ago. There were more items to choose from and everything was well supplied whenever I came down to breakfast. All the staff I had contact with, like at the front desk or walking down the hall, were friendly and courteous. The pool area is nice. My room was clean and comfortable with modern decor, although the air conditioner was old and did not keep up with cooling the room and it was noisy. It was quiet except some traffic on the road in front. Probably the most disappointing part of my stay was all the little maintenance things that needed to be done. The property is older and items like light switches and the air conditioner are showing their age. The desk chair was stuck in the lowest position, which for me since I’m tall, was uncomfortable when working at the desk. The power outlet on the desk lamp did not work and I had to climb under the desk to plug in my computer. The shower controller was hooked up backwards (!) and the light switches in the bathroom were upside down. For the price I paid each night ($125+), these things should not have been as they were.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>I have stayed at this property before in the past and I would stay here again in the future when I need to travel to this area. The location is convenient to the Whittier Narrows Recreation Area, shopping (Montebello Town Center, Costco) and the 60 freeway. 
+Overall the property is in good condition and well kept. The breakfast was much improved over the last time I stayed about four years ago. There were more items to choose from and everything was well supplied whenever I came down to breakfast. All the staff I had contact with, like at the front desk or walking down the hall, were friendly and courteous. The pool area is nice. 
+My room was clean and comfortable with modern decor, although the air conditioner was old and did not keep up with cooling the room and it was noisy. It was quiet except some traffic on the road in front. Probably the most disappointing part of my stay was all the little maintenance things that needed to be done. The property is older and items like light switches and the air conditioner are showing their age. The desk chair was stuck in the lowest position, which for me since I’m tall, was uncomfortable when working at the desk. The power outlet on the desk lamp did not work and I had to climb under the desk to plug in my computer. The shower controller was hooked...I have stayed at this property before in the past and I would stay here again in the future when I need to travel to this area. The location is convenient to the Whittier Narrows Recreation Area, shopping (Montebello Town Center, Costco) and the 60 freeway. Overall the property is in good condition and well kept. The breakfast was much improved over the last time I stayed about four years ago. There were more items to choose from and everything was well supplied whenever I came down to breakfast. All the staff I had contact with, like at the front desk or walking down the hall, were friendly and courteous. The pool area is nice. My room was clean and comfortable with modern decor, although the air conditioner was old and did not keep up with cooling the room and it was noisy. It was quiet except some traffic on the road in front. Probably the most disappointing part of my stay was all the little maintenance things that needed to be done. The property is older and items like light switches and the air conditioner are showing their age. The desk chair was stuck in the lowest position, which for me since I’m tall, was uncomfortable when working at the desk. The power outlet on the desk lamp did not work and I had to climb under the desk to plug in my computer. The shower controller was hooked up backwards (!) and the light switches in the bathroom were upside down. For the price I paid each night ($125+), these things should not have been as they were.More</t>
   </si>
 </sst>
 </file>
@@ -1918,154 +2497,146 @@
       <c r="A2" t="n">
         <v>7187</v>
       </c>
-      <c r="B2" t="n">
-        <v>178232</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
         <v>54</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
-      <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>7187</v>
       </c>
-      <c r="B3" t="n">
-        <v>178233</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>7187</v>
       </c>
-      <c r="B4" t="n">
-        <v>178234</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>65</v>
@@ -2082,12 +2653,8 @@
       <c r="M4" t="n">
         <v>5</v>
       </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -2097,68 +2664,62 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" t="s">
-        <v>71</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7187</v>
       </c>
-      <c r="B5" t="n">
-        <v>17616</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>5</v>
@@ -2169,54 +2730,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>7187</v>
       </c>
-      <c r="B6" t="n">
-        <v>21448</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2230,54 +2787,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7187</v>
       </c>
-      <c r="B7" t="n">
-        <v>19551</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2288,57 +2841,57 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7187</v>
       </c>
-      <c r="B8" t="n">
-        <v>178235</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>100</v>
-      </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2349,61 +2902,53 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>101</v>
-      </c>
-      <c r="X8" t="s">
-        <v>102</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7187</v>
       </c>
-      <c r="B9" t="n">
-        <v>178236</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2414,70 +2959,60 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>110</v>
-      </c>
-      <c r="X9" t="s">
-        <v>111</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7187</v>
       </c>
-      <c r="B10" t="n">
-        <v>26742</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
       </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -2485,184 +3020,158 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>101</v>
-      </c>
-      <c r="X10" t="s">
-        <v>102</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>7187</v>
       </c>
-      <c r="B11" t="n">
-        <v>178237</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>7187</v>
       </c>
-      <c r="B12" t="n">
-        <v>117545</v>
-      </c>
-      <c r="C12" t="s">
-        <v>128</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>7187</v>
       </c>
-      <c r="B13" t="n">
-        <v>62046</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
@@ -2671,7 +3180,7 @@
         <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2685,54 +3194,50 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>7187</v>
       </c>
-      <c r="B14" t="n">
-        <v>43783</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2746,54 +3251,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>7187</v>
       </c>
-      <c r="B15" t="n">
-        <v>178238</v>
-      </c>
-      <c r="C15" t="s">
-        <v>149</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="O15" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2804,57 +3305,57 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>7187</v>
       </c>
-      <c r="B16" t="n">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>156</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="O16" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2865,66 +3366,66 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" t="s">
+        <v>148</v>
+      </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>7187</v>
       </c>
-      <c r="B17" t="n">
-        <v>178239</v>
-      </c>
-      <c r="C17" t="s">
-        <v>162</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2932,57 +3433,57 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>139</v>
+      </c>
+      <c r="X17" t="s">
+        <v>140</v>
+      </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>7187</v>
       </c>
-      <c r="B18" t="n">
-        <v>48537</v>
-      </c>
-      <c r="C18" t="s">
-        <v>170</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2993,64 +3494,64 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>163</v>
+      </c>
+      <c r="X18" t="s">
+        <v>164</v>
+      </c>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>7187</v>
       </c>
-      <c r="B19" t="n">
-        <v>178240</v>
-      </c>
-      <c r="C19" t="s">
-        <v>176</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -3058,61 +3559,63 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>147</v>
+      </c>
+      <c r="X19" t="s">
+        <v>148</v>
+      </c>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>7187</v>
       </c>
-      <c r="B20" t="n">
-        <v>178241</v>
-      </c>
-      <c r="C20" t="s">
-        <v>182</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
@@ -3126,60 +3629,56 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>7187</v>
       </c>
-      <c r="B21" t="n">
-        <v>102624</v>
-      </c>
-      <c r="C21" t="s">
-        <v>189</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -3191,54 +3690,50 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>7187</v>
       </c>
-      <c r="B22" t="n">
-        <v>178242</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3252,545 +3747,477 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>7187</v>
       </c>
-      <c r="B23" t="n">
-        <v>19763</v>
-      </c>
-      <c r="C23" t="s">
-        <v>202</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="X23" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="Y23" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>7187</v>
       </c>
-      <c r="B24" t="n">
-        <v>39742</v>
-      </c>
-      <c r="C24" t="s">
-        <v>212</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" t="s">
+        <v>76</v>
+      </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>209</v>
-      </c>
-      <c r="X24" t="s">
-        <v>210</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>7187</v>
       </c>
-      <c r="B25" t="n">
-        <v>43472</v>
-      </c>
-      <c r="C25" t="s">
-        <v>219</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
         <v>209</v>
-      </c>
-      <c r="X25" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>7187</v>
       </c>
-      <c r="B26" t="n">
-        <v>178243</v>
-      </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="O26" t="s">
-        <v>62</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>3</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>7187</v>
       </c>
-      <c r="B27" t="n">
-        <v>3147</v>
-      </c>
-      <c r="C27" t="s">
-        <v>234</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="J27" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="K27" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s">
-        <v>80</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>7187</v>
       </c>
-      <c r="B28" t="n">
-        <v>178244</v>
-      </c>
-      <c r="C28" t="s">
-        <v>240</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="J28" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>227</v>
+      </c>
+      <c r="O28" t="s">
+        <v>155</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>1</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>7187</v>
       </c>
-      <c r="B29" t="n">
-        <v>178245</v>
-      </c>
-      <c r="C29" t="s">
-        <v>247</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="J29" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="O29" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>254</v>
-      </c>
-      <c r="X29" t="s">
-        <v>255</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>7187</v>
       </c>
-      <c r="B30" t="n">
-        <v>178246</v>
-      </c>
-      <c r="C30" t="s">
-        <v>257</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="J30" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="K30" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="L30" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3798,135 +4225,111 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>7187</v>
       </c>
-      <c r="B31" t="n">
-        <v>178247</v>
-      </c>
-      <c r="C31" t="s">
-        <v>265</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="O31" t="s">
-        <v>155</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>3</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>7187</v>
       </c>
-      <c r="B32" t="n">
-        <v>178248</v>
-      </c>
-      <c r="C32" t="s">
-        <v>272</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="J32" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
         <v>5</v>
       </c>
@@ -3937,74 +4340,62 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>279</v>
-      </c>
-      <c r="X32" t="s">
-        <v>280</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>7187</v>
       </c>
-      <c r="B33" t="n">
-        <v>178249</v>
-      </c>
-      <c r="C33" t="s">
-        <v>282</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="J33" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="K33" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>4</v>
@@ -4012,74 +4403,60 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>288</v>
-      </c>
-      <c r="X33" t="s">
-        <v>289</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>7187</v>
       </c>
-      <c r="B34" t="n">
-        <v>178250</v>
-      </c>
-      <c r="C34" t="s">
-        <v>291</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="J34" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="O34" t="s">
-        <v>80</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>2</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>1</v>
@@ -4088,73 +4465,63 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="X34" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="Y34" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>7187</v>
       </c>
-      <c r="B35" t="n">
-        <v>321</v>
-      </c>
-      <c r="C35" t="s">
-        <v>300</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="J35" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="K35" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="O35" t="s">
-        <v>80</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
         <v>4</v>
       </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -4165,70 +4532,60 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>7187</v>
       </c>
-      <c r="B36" t="n">
-        <v>23840</v>
-      </c>
-      <c r="C36" t="s">
-        <v>307</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="J36" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="K36" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
       </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -4236,267 +4593,235 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>7187</v>
       </c>
-      <c r="B37" t="n">
-        <v>42315</v>
-      </c>
-      <c r="C37" t="s">
-        <v>313</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="J37" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="K37" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="O37" t="s">
-        <v>80</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>7187</v>
       </c>
-      <c r="B38" t="n">
-        <v>178251</v>
-      </c>
-      <c r="C38" t="s">
-        <v>321</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="J38" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="K38" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="L38" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>7187</v>
       </c>
-      <c r="B39" t="n">
-        <v>178252</v>
-      </c>
-      <c r="C39" t="s">
-        <v>329</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="J39" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="K39" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="L39" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>294</v>
+      </c>
+      <c r="X39" t="s">
+        <v>295</v>
+      </c>
       <c r="Y39" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>7187</v>
       </c>
-      <c r="B40" t="n">
-        <v>178253</v>
-      </c>
-      <c r="C40" t="s">
-        <v>336</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="J40" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="K40" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="L40" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
         <v>4</v>
       </c>
@@ -4507,58 +4832,54 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>302</v>
+      </c>
+      <c r="X40" t="s">
+        <v>303</v>
+      </c>
       <c r="Y40" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>7187</v>
       </c>
-      <c r="B41" t="n">
-        <v>178254</v>
-      </c>
-      <c r="C41" t="s">
-        <v>343</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="J41" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="K41" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="L41" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
-      </c>
-      <c r="N41" t="s">
-        <v>349</v>
-      </c>
-      <c r="O41" t="s">
-        <v>80</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
@@ -4568,70 +4889,66 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>302</v>
+      </c>
+      <c r="X41" t="s">
+        <v>303</v>
+      </c>
       <c r="Y41" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>7187</v>
       </c>
-      <c r="B42" t="n">
-        <v>178255</v>
-      </c>
-      <c r="C42" t="s">
-        <v>351</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="J42" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="K42" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="L42" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="O42" t="s">
-        <v>62</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -4639,54 +4956,58 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>302</v>
+      </c>
+      <c r="X42" t="s">
+        <v>303</v>
+      </c>
       <c r="Y42" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>7187</v>
       </c>
-      <c r="B43" t="n">
-        <v>178256</v>
-      </c>
-      <c r="C43" t="s">
-        <v>359</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="J43" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="K43" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="L43" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>315</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
@@ -4697,76 +5018,66 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="X43" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="Y43" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>7187</v>
       </c>
-      <c r="B44" t="n">
-        <v>178257</v>
-      </c>
-      <c r="C44" t="s">
-        <v>368</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="J44" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="K44" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="L44" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="O44" t="s">
-        <v>80</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
         <v>4</v>
       </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4774,70 +5085,62 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>7187</v>
       </c>
-      <c r="B45" t="n">
-        <v>178258</v>
-      </c>
-      <c r="C45" t="s">
-        <v>376</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="J45" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="K45" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="L45" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="O45" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
       </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
         <v>3</v>
       </c>
-      <c r="S45" t="n">
-        <v>3</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4845,70 +5148,62 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>7187</v>
       </c>
-      <c r="B46" t="n">
-        <v>178259</v>
-      </c>
-      <c r="C46" t="s">
-        <v>383</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="J46" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="K46" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="L46" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
         <v>3</v>
       </c>
-      <c r="N46" t="s">
-        <v>382</v>
-      </c>
-      <c r="O46" t="s">
-        <v>54</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4916,207 +5211,191 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>7187</v>
       </c>
-      <c r="B47" t="n">
-        <v>178260</v>
-      </c>
-      <c r="C47" t="s">
-        <v>389</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="J47" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="K47" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="L47" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
-      </c>
-      <c r="N47" t="s">
-        <v>395</v>
-      </c>
-      <c r="O47" t="s">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
         <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>346</v>
+      </c>
+      <c r="X47" t="s">
+        <v>347</v>
+      </c>
       <c r="Y47" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>7187</v>
       </c>
-      <c r="B48" t="n">
-        <v>178261</v>
-      </c>
-      <c r="C48" t="s">
-        <v>397</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="J48" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="K48" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="L48" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="O48" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1</v>
-      </c>
-      <c r="S48" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>355</v>
+      </c>
+      <c r="X48" t="s">
+        <v>356</v>
+      </c>
       <c r="Y48" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>7187</v>
       </c>
-      <c r="B49" t="n">
-        <v>178262</v>
-      </c>
-      <c r="C49" t="s">
-        <v>404</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="J49" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="K49" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="O49" t="s">
-        <v>62</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>3</v>
-      </c>
-      <c r="S49" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
         <v>5</v>
@@ -5124,73 +5403,73 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>355</v>
+      </c>
+      <c r="X49" t="s">
+        <v>356</v>
+      </c>
       <c r="Y49" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>7187</v>
       </c>
-      <c r="B50" t="n">
-        <v>178263</v>
-      </c>
-      <c r="C50" t="s">
-        <v>412</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="J50" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="K50" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="L50" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="O50" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5198,70 +5477,66 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>7187</v>
       </c>
-      <c r="B51" t="n">
-        <v>178264</v>
-      </c>
-      <c r="C51" t="s">
-        <v>419</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
       <c r="J51" t="s">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="K51" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="L51" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="O51" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q51" t="n">
         <v>3</v>
       </c>
       <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
         <v>3</v>
-      </c>
-      <c r="S51" t="n">
-        <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5269,281 +5544,2732 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>7187</v>
       </c>
-      <c r="B52" t="n">
-        <v>178265</v>
-      </c>
-      <c r="C52" t="s">
-        <v>426</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="J52" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="K52" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="L52" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="O52" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
       </c>
       <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
         <v>1</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>2</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>384</v>
+      </c>
+      <c r="X52" t="s">
+        <v>385</v>
+      </c>
       <c r="Y52" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>7187</v>
       </c>
-      <c r="B53" t="n">
-        <v>178266</v>
-      </c>
-      <c r="C53" t="s">
-        <v>434</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="J53" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="K53" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="L53" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="O53" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
         <v>5</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>384</v>
+      </c>
+      <c r="X53" t="s">
+        <v>385</v>
+      </c>
       <c r="Y53" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>7187</v>
       </c>
-      <c r="B54" t="n">
-        <v>178267</v>
-      </c>
-      <c r="C54" t="s">
-        <v>441</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="J54" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="K54" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="L54" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="O54" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>400</v>
+      </c>
+      <c r="X54" t="s">
+        <v>401</v>
+      </c>
       <c r="Y54" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>7187</v>
       </c>
-      <c r="B55" t="n">
-        <v>178268</v>
-      </c>
-      <c r="C55" t="s">
-        <v>449</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
+        <v>403</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>404</v>
+      </c>
+      <c r="J55" t="s">
+        <v>405</v>
+      </c>
+      <c r="K55" t="s">
+        <v>406</v>
+      </c>
+      <c r="L55" t="s">
+        <v>407</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>399</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>408</v>
+      </c>
+      <c r="X55" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>411</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>412</v>
+      </c>
+      <c r="J56" t="s">
+        <v>413</v>
+      </c>
+      <c r="K56" t="s">
+        <v>414</v>
+      </c>
+      <c r="L56" t="s">
+        <v>415</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>399</v>
+      </c>
+      <c r="O56" t="s">
+        <v>111</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>416</v>
+      </c>
+      <c r="X56" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>419</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>420</v>
+      </c>
+      <c r="J57" t="s">
+        <v>421</v>
+      </c>
+      <c r="K57" t="s">
+        <v>422</v>
+      </c>
+      <c r="L57" t="s">
+        <v>423</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>424</v>
+      </c>
+      <c r="O57" t="s">
+        <v>155</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>416</v>
+      </c>
+      <c r="X57" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>426</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>427</v>
+      </c>
+      <c r="J58" t="s">
+        <v>428</v>
+      </c>
+      <c r="K58" t="s">
+        <v>429</v>
+      </c>
+      <c r="L58" t="s">
+        <v>430</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>424</v>
+      </c>
+      <c r="O58" t="s">
+        <v>111</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>416</v>
+      </c>
+      <c r="X58" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>432</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>433</v>
+      </c>
+      <c r="J59" t="s">
+        <v>434</v>
+      </c>
+      <c r="K59" t="s">
+        <v>435</v>
+      </c>
+      <c r="L59" t="s">
+        <v>436</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>437</v>
+      </c>
+      <c r="O59" t="s">
+        <v>111</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>438</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>439</v>
+      </c>
+      <c r="J60" t="s">
+        <v>440</v>
+      </c>
+      <c r="K60" t="s">
+        <v>441</v>
+      </c>
+      <c r="L60" t="s">
+        <v>442</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>437</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>443</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>444</v>
+      </c>
+      <c r="J61" t="s">
+        <v>445</v>
+      </c>
+      <c r="K61" t="s">
+        <v>446</v>
+      </c>
+      <c r="L61" t="s">
+        <v>447</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>448</v>
+      </c>
+      <c r="O61" t="s">
+        <v>111</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
         <v>450</v>
       </c>
-      <c r="G55" t="s">
-        <v>47</v>
-      </c>
-      <c r="H55" t="s">
-        <v>48</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
         <v>451</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J62" t="s">
+        <v>445</v>
+      </c>
+      <c r="K62" t="s">
         <v>452</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L62" t="s">
         <v>453</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>448</v>
+      </c>
+      <c r="O62" t="s">
+        <v>155</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
         <v>454</v>
       </c>
-      <c r="M55" t="n">
-        <v>4</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
         <v>455</v>
       </c>
-      <c r="O55" t="s">
+      <c r="J63" t="s">
+        <v>456</v>
+      </c>
+      <c r="K63" t="s">
+        <v>457</v>
+      </c>
+      <c r="L63" t="s">
+        <v>458</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>459</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>461</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>462</v>
+      </c>
+      <c r="J64" t="s">
+        <v>463</v>
+      </c>
+      <c r="K64" t="s">
+        <v>464</v>
+      </c>
+      <c r="L64" t="s">
+        <v>465</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>466</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>468</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>469</v>
+      </c>
+      <c r="J65" t="s">
+        <v>470</v>
+      </c>
+      <c r="K65" t="s">
+        <v>471</v>
+      </c>
+      <c r="L65" t="s">
+        <v>472</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>473</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>474</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>475</v>
+      </c>
+      <c r="J66" t="s">
+        <v>476</v>
+      </c>
+      <c r="K66" t="s">
+        <v>477</v>
+      </c>
+      <c r="L66" t="s">
+        <v>478</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>479</v>
+      </c>
+      <c r="O66" t="s">
+        <v>111</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>480</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>481</v>
+      </c>
+      <c r="J67" t="s">
+        <v>482</v>
+      </c>
+      <c r="K67" t="s">
+        <v>483</v>
+      </c>
+      <c r="L67" t="s">
+        <v>484</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>485</v>
+      </c>
+      <c r="O67" t="s">
+        <v>76</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>487</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>488</v>
+      </c>
+      <c r="J68" t="s">
+        <v>489</v>
+      </c>
+      <c r="K68" t="s">
+        <v>490</v>
+      </c>
+      <c r="L68" t="s">
+        <v>491</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>492</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>493</v>
+      </c>
+      <c r="J69" t="s">
+        <v>494</v>
+      </c>
+      <c r="K69" t="s">
+        <v>495</v>
+      </c>
+      <c r="L69" t="s">
+        <v>496</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>497</v>
+      </c>
+      <c r="O69" t="s">
+        <v>111</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>499</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>500</v>
+      </c>
+      <c r="J70" t="s">
+        <v>501</v>
+      </c>
+      <c r="K70" t="s">
+        <v>502</v>
+      </c>
+      <c r="L70" t="s">
+        <v>503</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>504</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>506</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>507</v>
+      </c>
+      <c r="J71" t="s">
+        <v>508</v>
+      </c>
+      <c r="K71" t="s">
+        <v>509</v>
+      </c>
+      <c r="L71" t="s">
+        <v>510</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>511</v>
+      </c>
+      <c r="X71" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>514</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>515</v>
+      </c>
+      <c r="J72" t="s">
+        <v>516</v>
+      </c>
+      <c r="K72" t="s">
+        <v>517</v>
+      </c>
+      <c r="L72" t="s">
+        <v>518</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>519</v>
+      </c>
+      <c r="O72" t="s">
+        <v>76</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>520</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>521</v>
+      </c>
+      <c r="J73" t="s">
+        <v>522</v>
+      </c>
+      <c r="K73" t="s">
+        <v>523</v>
+      </c>
+      <c r="L73" t="s">
+        <v>524</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>525</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>526</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>527</v>
+      </c>
+      <c r="J74" t="s">
+        <v>528</v>
+      </c>
+      <c r="K74" t="s">
+        <v>529</v>
+      </c>
+      <c r="L74" t="s">
+        <v>530</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>525</v>
+      </c>
+      <c r="O74" t="s">
+        <v>111</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>532</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>533</v>
+      </c>
+      <c r="J75" t="s">
+        <v>534</v>
+      </c>
+      <c r="K75" t="s">
+        <v>535</v>
+      </c>
+      <c r="L75" t="s">
+        <v>536</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>537</v>
+      </c>
+      <c r="O75" t="s">
+        <v>111</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>538</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>539</v>
+      </c>
+      <c r="J76" t="s">
+        <v>540</v>
+      </c>
+      <c r="K76" t="s">
+        <v>541</v>
+      </c>
+      <c r="L76" t="s">
+        <v>542</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>537</v>
+      </c>
+      <c r="O76" t="s">
+        <v>76</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>543</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>544</v>
+      </c>
+      <c r="J77" t="s">
+        <v>545</v>
+      </c>
+      <c r="K77" t="s">
+        <v>546</v>
+      </c>
+      <c r="L77" t="s">
+        <v>547</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>548</v>
+      </c>
+      <c r="O77" t="s">
+        <v>111</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>549</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>550</v>
+      </c>
+      <c r="J78" t="s">
+        <v>551</v>
+      </c>
+      <c r="K78" t="s">
+        <v>552</v>
+      </c>
+      <c r="L78" t="s">
+        <v>553</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>548</v>
+      </c>
+      <c r="O78" t="s">
+        <v>76</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>555</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>556</v>
+      </c>
+      <c r="J79" t="s">
+        <v>557</v>
+      </c>
+      <c r="K79" t="s">
+        <v>558</v>
+      </c>
+      <c r="L79" t="s">
+        <v>559</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>560</v>
+      </c>
+      <c r="O79" t="s">
+        <v>111</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>562</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>563</v>
+      </c>
+      <c r="J80" t="s">
+        <v>564</v>
+      </c>
+      <c r="K80" t="s">
+        <v>565</v>
+      </c>
+      <c r="L80" t="s">
+        <v>566</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>567</v>
+      </c>
+      <c r="O80" t="s">
+        <v>155</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
         <v>80</v>
       </c>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
-      <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s">
-        <v>454</v>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>568</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>569</v>
+      </c>
+      <c r="J81" t="s">
+        <v>570</v>
+      </c>
+      <c r="K81" t="s">
+        <v>571</v>
+      </c>
+      <c r="L81" t="s">
+        <v>572</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>573</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>575</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>576</v>
+      </c>
+      <c r="J82" t="s">
+        <v>577</v>
+      </c>
+      <c r="K82" t="s">
+        <v>578</v>
+      </c>
+      <c r="L82" t="s">
+        <v>579</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>573</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>580</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>581</v>
+      </c>
+      <c r="J83" t="s">
+        <v>582</v>
+      </c>
+      <c r="K83" t="s">
+        <v>583</v>
+      </c>
+      <c r="L83" t="s">
+        <v>584</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>585</v>
+      </c>
+      <c r="O83" t="s">
+        <v>111</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>587</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>588</v>
+      </c>
+      <c r="J84" t="s">
+        <v>589</v>
+      </c>
+      <c r="K84" t="s">
+        <v>590</v>
+      </c>
+      <c r="L84" t="s">
+        <v>591</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>585</v>
+      </c>
+      <c r="O84" t="s">
+        <v>111</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>592</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>593</v>
+      </c>
+      <c r="J85" t="s">
+        <v>594</v>
+      </c>
+      <c r="K85" t="s">
+        <v>595</v>
+      </c>
+      <c r="L85" t="s">
+        <v>596</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>597</v>
+      </c>
+      <c r="O85" t="s">
+        <v>76</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>598</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>599</v>
+      </c>
+      <c r="J86" t="s">
+        <v>600</v>
+      </c>
+      <c r="K86" t="s">
+        <v>601</v>
+      </c>
+      <c r="L86" t="s">
+        <v>602</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>603</v>
+      </c>
+      <c r="O86" t="s">
+        <v>155</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>605</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>606</v>
+      </c>
+      <c r="J87" t="s">
+        <v>607</v>
+      </c>
+      <c r="K87" t="s">
+        <v>608</v>
+      </c>
+      <c r="L87" t="s">
+        <v>609</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>610</v>
+      </c>
+      <c r="O87" t="s">
+        <v>76</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>611</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>612</v>
+      </c>
+      <c r="J88" t="s">
+        <v>613</v>
+      </c>
+      <c r="K88" t="s">
+        <v>614</v>
+      </c>
+      <c r="L88" t="s">
+        <v>615</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>616</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>617</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>618</v>
+      </c>
+      <c r="J89" t="s">
+        <v>619</v>
+      </c>
+      <c r="K89" t="s">
+        <v>620</v>
+      </c>
+      <c r="L89" t="s">
+        <v>621</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>622</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>623</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>624</v>
+      </c>
+      <c r="J90" t="s">
+        <v>625</v>
+      </c>
+      <c r="K90" t="s">
+        <v>626</v>
+      </c>
+      <c r="L90" t="s">
+        <v>627</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>628</v>
+      </c>
+      <c r="O90" t="s">
+        <v>76</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>630</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>631</v>
+      </c>
+      <c r="J91" t="s">
+        <v>632</v>
+      </c>
+      <c r="K91" t="s">
+        <v>633</v>
+      </c>
+      <c r="L91" t="s">
+        <v>634</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>635</v>
+      </c>
+      <c r="O91" t="s">
+        <v>111</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>7187</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>636</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>637</v>
+      </c>
+      <c r="J92" t="s">
+        <v>638</v>
+      </c>
+      <c r="K92" t="s">
+        <v>639</v>
+      </c>
+      <c r="L92" t="s">
+        <v>640</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>641</v>
+      </c>
+      <c r="O92" t="s">
+        <v>216</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>
